--- a/05featuredemo.xlsx
+++ b/05featuredemo.xlsx
@@ -108,76 +108,76 @@
     <t>duc</t>
   </si>
   <si>
-    <t>2023-1</t>
-  </si>
-  <si>
-    <t>2023-2</t>
-  </si>
-  <si>
-    <t>2023-3</t>
-  </si>
-  <si>
-    <t>2023-4</t>
-  </si>
-  <si>
-    <t>2023-5</t>
-  </si>
-  <si>
-    <t>2023-6</t>
-  </si>
-  <si>
-    <t>2023-7</t>
-  </si>
-  <si>
-    <t>2023-8</t>
-  </si>
-  <si>
-    <t>2023-9</t>
-  </si>
-  <si>
-    <t>2023-9-10</t>
-  </si>
-  <si>
-    <t>2023-9-11</t>
-  </si>
-  <si>
-    <t>2023-9-12</t>
-  </si>
-  <si>
-    <t>2022-1</t>
-  </si>
-  <si>
-    <t>2022-2</t>
-  </si>
-  <si>
-    <t>2022-3</t>
-  </si>
-  <si>
-    <t>2022-4</t>
-  </si>
-  <si>
-    <t>2022-5</t>
-  </si>
-  <si>
-    <t>2022-6</t>
-  </si>
-  <si>
-    <t>2022-7</t>
-  </si>
-  <si>
-    <t>2022-8</t>
-  </si>
-  <si>
-    <t>2022-9</t>
-  </si>
-  <si>
-    <t>2022-9-10</t>
-  </si>
-  <si>
-    <t>2022-9-11</t>
-  </si>
-  <si>
-    <t>2022-9-12</t>
+    <t>2017-1</t>
+  </si>
+  <si>
+    <t>2017-2</t>
+  </si>
+  <si>
+    <t>2017-3</t>
+  </si>
+  <si>
+    <t>2017-4</t>
+  </si>
+  <si>
+    <t>2017-5</t>
+  </si>
+  <si>
+    <t>2017-6</t>
+  </si>
+  <si>
+    <t>2017-7</t>
+  </si>
+  <si>
+    <t>2017-8</t>
+  </si>
+  <si>
+    <t>2017-9</t>
+  </si>
+  <si>
+    <t>2017-9-10</t>
+  </si>
+  <si>
+    <t>2017-9-11</t>
+  </si>
+  <si>
+    <t>2017-9-12</t>
+  </si>
+  <si>
+    <t>2016-1</t>
+  </si>
+  <si>
+    <t>2016-2</t>
+  </si>
+  <si>
+    <t>2016-3</t>
+  </si>
+  <si>
+    <t>2016-4</t>
+  </si>
+  <si>
+    <t>2016-5</t>
+  </si>
+  <si>
+    <t>2016-6</t>
+  </si>
+  <si>
+    <t>2016-7</t>
+  </si>
+  <si>
+    <t>2016-8</t>
+  </si>
+  <si>
+    <t>2016-9</t>
+  </si>
+  <si>
+    <t>2016-9-10</t>
+  </si>
+  <si>
+    <t>2016-9-11</t>
+  </si>
+  <si>
+    <t>2016-9-12</t>
   </si>
   <si>
     <t>Chỉ tiêu</t>
@@ -934,7 +934,7 @@
       <c r="AF3" s="12"/>
       <c r="AT3" s="3">
         <f>+AT4-AH28+AF28+AD28</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1">
@@ -956,7 +956,7 @@
       <c r="AS4" s="12"/>
       <c r="AT4" s="3">
         <f>+AT5-AH29+AF29+AD29</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AV4" s="12"/>
@@ -981,7 +981,7 @@
       <c r="AS5" s="12"/>
       <c r="AT5" s="3">
         <f>+AT6-AH30+AF30+AD30</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="12"/>
       <c r="AV5" s="12"/>
@@ -1006,7 +1006,7 @@
       <c r="AS6" s="12"/>
       <c r="AT6" s="3">
         <f>+AT7-AH31+AF31+AD31</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="12"/>
       <c r="AV6" s="12"/>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1">
       <c r="A7" s="12">
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C7" s="20">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N7" s="4"/>
       <c r="T7" s="4"/>
@@ -1041,16 +1041,16 @@
       <c r="AP7" s="12"/>
       <c r="AT7" s="17">
         <f>+A7</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="12"/>
       <c r="AV7" s="12">
         <f>+B7</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW7" s="12">
         <f>+C7</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1">
@@ -1087,26 +1087,30 @@
       <c r="AL8" s="12"/>
       <c r="AM8" s="12"/>
       <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
+      <c r="AO8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12"/>
       <c r="AT8" s="12">
         <f>+AT7+AH8-AF8-AD8</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="3">
         <f>+AT4</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="12">
         <f>+AV7+AL8-AJ8</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW8" s="12">
         <f>+AW7+AN8-AP8</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1">
@@ -1149,19 +1153,19 @@
       <c r="AS9" s="12"/>
       <c r="AT9" s="12">
         <f>+AT8+AH9-AF9-AD9</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="3">
         <f>+AT5</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="12">
         <f>+AV8+AL9-AJ9</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW9" s="12">
         <f>+AW8+AN9-AP9</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1">
@@ -1170,6 +1174,30 @@
       </c>
       <c r="B10" s="12" t="s">
         <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -1190,7 +1218,12 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
-      <c r="AH10" s="4"/>
+      <c r="AG10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>70</v>
+      </c>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="12"/>
       <c r="AK10" s="12"/>
@@ -1204,19 +1237,19 @@
       <c r="AS10" s="12"/>
       <c r="AT10" s="12">
         <f>+AT9+AH10-AF10-AD10</f>
-        <v>5205</v>
+        <v>70</v>
       </c>
       <c r="AU10" s="3">
         <f>+AT6</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="12">
         <f>+AV9+AL10-AJ10</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW10" s="12">
         <f>+AW9+AN10-AP10</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1">
@@ -1225,6 +1258,30 @@
       </c>
       <c r="B11" s="12" t="s">
         <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>184</v>
+      </c>
+      <c r="E11" s="1">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
       </c>
       <c r="N11" s="12"/>
       <c r="O11" s="12"/>
@@ -1241,11 +1298,20 @@
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
+      <c r="AC11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>3</v>
+      </c>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-      <c r="AH11" s="4"/>
+      <c r="AG11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>177</v>
+      </c>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
       <c r="AK11" s="12"/>
@@ -1259,19 +1325,19 @@
       <c r="AS11" s="12"/>
       <c r="AT11" s="12">
         <f>+AT10+AH11-AF11-AD11</f>
-        <v>5205</v>
+        <v>244</v>
       </c>
       <c r="AU11" s="12">
         <f>+AT7</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="12">
         <f>+AV10+AL11-AJ11</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW11" s="12">
         <f>+AW10+AN11-AP11</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -1280,6 +1346,30 @@
       </c>
       <c r="B12" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>351</v>
+      </c>
+      <c r="E12">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
       </c>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -1296,30 +1386,38 @@
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
+      <c r="AC12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>4</v>
+      </c>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="4"/>
+      <c r="AG12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>338</v>
+      </c>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12"/>
       <c r="AT12" s="12">
         <f>+AT11+AH12-AF12-AD12</f>
-        <v>5205</v>
+        <v>578</v>
       </c>
       <c r="AU12" s="12">
         <f>+AT8</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="12">
         <f>+AV11+AL12-AJ12</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW12" s="12">
         <f>+AW11+AN12-AP12</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -1328,6 +1426,30 @@
       </c>
       <c r="B13" s="12" t="s">
         <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>347</v>
+      </c>
+      <c r="E13">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -1344,30 +1466,38 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
+      <c r="AC13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>4</v>
+      </c>
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="4"/>
+      <c r="AG13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>318</v>
+      </c>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="12">
         <f>+AT12+AH13-AF13-AD13</f>
-        <v>5205</v>
+        <v>892</v>
       </c>
       <c r="AU13" s="12">
         <f>+AT9</f>
-        <v>5205</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="12">
         <f>+AV12+AL13-AJ13</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW13" s="12">
         <f>+AW12+AN13-AP13</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -1377,45 +1507,101 @@
       <c r="B14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14">
+        <v>104</v>
+      </c>
+      <c r="N14" s="12">
+        <v>1259</v>
+      </c>
+      <c r="O14" s="12">
+        <v>12</v>
+      </c>
+      <c r="P14" s="12">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>9</v>
+      </c>
+      <c r="R14" s="12">
+        <v>24</v>
+      </c>
+      <c r="S14" s="12">
+        <v>1189</v>
+      </c>
+      <c r="T14" s="12">
+        <v>12101</v>
+      </c>
+      <c r="U14" s="12">
+        <v>149.82</v>
+      </c>
+      <c r="V14" s="12">
+        <v>96</v>
+      </c>
       <c r="W14" s="12"/>
       <c r="X14" s="12"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
+      <c r="AC14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>9</v>
+      </c>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="4"/>
+      <c r="AG14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>28</v>
+      </c>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
       <c r="AT14" s="12">
         <f>+AT13+AH14-AF14-AD14</f>
-        <v>5205</v>
+        <v>911</v>
       </c>
       <c r="AU14" s="12">
         <f>+AT10</f>
-        <v>5205</v>
+        <v>70</v>
       </c>
       <c r="AV14" s="12">
         <f>+AV13+AL14-AJ14</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW14" s="12">
         <f>+AW13+AN14-AP14</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -1425,45 +1611,109 @@
       <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="12"/>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>132</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15">
+        <v>171</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2157</v>
+      </c>
+      <c r="O15" s="12">
+        <v>35</v>
+      </c>
+      <c r="P15" s="12">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>37</v>
+      </c>
+      <c r="R15" s="12">
+        <v>61</v>
+      </c>
+      <c r="S15" s="12">
+        <v>2010</v>
+      </c>
+      <c r="T15" s="12">
+        <v>19966</v>
+      </c>
+      <c r="U15" s="12">
+        <v>240.5</v>
+      </c>
+      <c r="V15" s="12">
+        <v>163</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="12">
+        <v>128</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1387</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>2998</v>
+      </c>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
+      <c r="AC15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>10</v>
+      </c>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="4"/>
+      <c r="AG15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH15" s="4">
+        <v>13</v>
+      </c>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
       <c r="AT15" s="12">
         <f>+AT14+AH15-AF15-AD15</f>
-        <v>5205</v>
+        <v>914</v>
       </c>
       <c r="AU15" s="12">
         <f>+AT11</f>
-        <v>5205</v>
+        <v>244</v>
       </c>
       <c r="AV15" s="12">
         <f>+AV14+AL15-AJ15</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW15" s="12">
         <f>+AW14+AN15-AP15</f>
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -1473,44 +1723,115 @@
       <c r="B16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="12"/>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>247</v>
+      </c>
+      <c r="E16">
+        <v>32</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16">
+        <v>337</v>
+      </c>
+      <c r="N16" s="12">
+        <v>4182</v>
+      </c>
+      <c r="O16" s="12">
+        <v>58</v>
+      </c>
+      <c r="P16" s="12">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>56</v>
+      </c>
+      <c r="R16" s="12">
+        <v>68</v>
+      </c>
+      <c r="S16" s="12">
+        <v>3971</v>
+      </c>
+      <c r="T16" s="12">
+        <v>39367</v>
+      </c>
+      <c r="U16" s="12">
+        <v>480.23</v>
+      </c>
+      <c r="V16" s="12">
+        <v>333</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="12">
+        <v>202</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>2239</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>4662</v>
+      </c>
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
+      <c r="AC16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD16" s="12">
+        <v>29</v>
+      </c>
       <c r="AE16" s="12"/>
       <c r="AF16" s="12"/>
-      <c r="AH16" s="4"/>
+      <c r="AG16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH16" s="4">
+        <v>70</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP16" s="12">
+        <v>8</v>
+      </c>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12">
         <f>+AT15+AH16-AF16-AD16</f>
-        <v>5205</v>
+        <v>955</v>
       </c>
       <c r="AU16" s="12">
         <f>+AT12</f>
-        <v>5205</v>
+        <v>578</v>
       </c>
       <c r="AV16" s="12">
         <f>+AV15+AL16-AJ16</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW16" s="12">
         <f>+AW15+AN16-AP16</f>
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -1520,44 +1841,115 @@
       <c r="B17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="12"/>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>407</v>
+      </c>
+      <c r="E17">
+        <v>76</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17">
+        <v>232</v>
+      </c>
+      <c r="N17" s="12">
+        <v>2992</v>
+      </c>
+      <c r="O17" s="12">
+        <v>62</v>
+      </c>
+      <c r="P17" s="12">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>46</v>
+      </c>
+      <c r="R17" s="12">
+        <v>60</v>
+      </c>
+      <c r="S17" s="12">
+        <v>2794</v>
+      </c>
+      <c r="T17" s="12">
+        <v>27134</v>
+      </c>
+      <c r="U17" s="12">
+        <v>387.69</v>
+      </c>
+      <c r="V17" s="12">
+        <v>229</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17" s="12">
+        <v>331</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>3596</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>7711</v>
+      </c>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
+      <c r="AC17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>24</v>
+      </c>
       <c r="AE17" s="12"/>
       <c r="AF17" s="12"/>
-      <c r="AH17" s="4"/>
+      <c r="AG17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH17" s="4">
+        <v>76</v>
+      </c>
+      <c r="AO17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP17" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12">
         <f>+AT16+AH17-AF17-AD17</f>
-        <v>5205</v>
+        <v>1007</v>
       </c>
       <c r="AU17" s="12">
         <f>+AT13</f>
-        <v>5205</v>
+        <v>892</v>
       </c>
       <c r="AV17" s="12">
         <f>+AV16+AL17-AJ17</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW17" s="12">
         <f>+AW16+AN17-AP17</f>
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -1567,44 +1959,115 @@
       <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="12"/>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>371</v>
+      </c>
+      <c r="E18">
+        <v>72</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>22</v>
+      </c>
+      <c r="N18" s="12">
+        <v>283</v>
+      </c>
+      <c r="O18" s="12">
+        <v>1</v>
+      </c>
+      <c r="P18" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>11</v>
+      </c>
+      <c r="S18" s="12">
+        <v>268</v>
+      </c>
+      <c r="T18" s="12">
+        <v>2559</v>
+      </c>
+      <c r="U18" s="12">
+        <v>31.9</v>
+      </c>
+      <c r="V18" s="12">
+        <v>21</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X18" s="12">
+        <v>154</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1815</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>4074</v>
+      </c>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
+      <c r="AC18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD18" s="12">
+        <v>16</v>
+      </c>
       <c r="AE18" s="12"/>
       <c r="AF18" s="12"/>
-      <c r="AH18" s="4"/>
+      <c r="AG18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>97</v>
+      </c>
+      <c r="AO18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP18" s="12">
+        <v>1</v>
+      </c>
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="12">
         <f>+AT17+AH18-AF18-AD18</f>
-        <v>5205</v>
+        <v>1088</v>
       </c>
       <c r="AU18" s="12">
         <f>+AT14</f>
-        <v>5205</v>
+        <v>911</v>
       </c>
       <c r="AV18" s="12">
         <f>+AV17+AL18-AJ18</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW18" s="12">
         <f>+AW17+AN18-AP18</f>
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -1614,21 +2077,108 @@
       <c r="B19" t="s">
         <v>41</v>
       </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>136</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19">
+        <v>150</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1746</v>
+      </c>
+      <c r="O19">
+        <v>23</v>
+      </c>
+      <c r="P19" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>18</v>
+      </c>
+      <c r="R19" s="1">
+        <v>19</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1677</v>
+      </c>
+      <c r="T19" s="4">
+        <v>17358</v>
+      </c>
+      <c r="U19" s="4">
+        <v>224.25</v>
+      </c>
+      <c r="V19" s="4">
+        <v>135</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X19" s="1">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>180</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>570</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>10</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH19">
+        <v>89</v>
+      </c>
+      <c r="AO19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP19" s="12">
+        <v>1</v>
+      </c>
       <c r="AT19" s="12">
         <f>+AT18+AH19-AF19-AD19</f>
-        <v>5205</v>
+        <v>1167</v>
       </c>
       <c r="AU19" s="12">
         <f>+AT15</f>
-        <v>5205</v>
+        <v>914</v>
       </c>
       <c r="AV19" s="12">
         <f>+AV18+AL19-AJ19</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="AW19" s="12">
         <f>+AW18+AN19-AP19</f>
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -1751,7 +2301,7 @@
   <dimension ref="A1:AR39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1805,7 +2355,7 @@
     <row r="1" spans="1:44" customHeight="1" ht="45">
       <c r="A1" s="4">
         <f>IF(A14=0,-2,A14)</f>
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>54</v>
@@ -1934,15 +2484,15 @@
     <row r="2" spans="1:44">
       <c r="A2" s="12">
         <f>+IFERROR(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="10">
         <f>IF(+data!C8&amp;"-"="-",0,+data!C8&amp;"-")</f>
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="str">
+      <c r="C2" s="10">
         <f>IF(A2=1,1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>1</v>
       </c>
       <c r="D2" s="11">
         <f>IFERROR(IF(A2=1,+data!AT8,D$14),0)</f>
@@ -1950,11 +2500,11 @@
       </c>
       <c r="E2" s="11">
         <f>+data!AW8</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" s="11">
         <f>+data!AV8</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8">
         <f>+IF($A2=1,data!AD8,G$14)</f>
@@ -2108,15 +2658,15 @@
     <row r="3" spans="1:44">
       <c r="A3" s="12">
         <f>IFERROR(+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="10">
         <f>IF(+data!C9&amp;"-"="-",0,+data!C9&amp;"-")</f>
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="str">
+      <c r="C3" s="10">
         <f>IF(A3=1,C2+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11">
         <f>IFERROR(IF(A3=1,+data!AT9,D$14),0)</f>
@@ -2124,11 +2674,11 @@
       </c>
       <c r="E3" s="11">
         <f>+data!AW9</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="11">
         <f>+data!AV9</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G3" s="15">
         <f>+IF($A3=1,data!AD9,G$14)</f>
@@ -2282,27 +2832,27 @@
     <row r="4" spans="1:44">
       <c r="A4" s="12">
         <f>IFERROR(+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="str">
         <f>IF(+data!C10&amp;"-"="-",0,+data!C10&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="10" t="str">
+        <v>2017-3-</v>
+      </c>
+      <c r="C4" s="10">
         <f>IF(A4=1,C3+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11">
         <f>IFERROR(IF(A4=1,+data!AT10,D$14),0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E4" s="11">
         <f>+data!AW10</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="11">
         <f>+data!AV10</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G4" s="15">
         <f>+IF($A4=1,data!AD10,G$14)</f>
@@ -2322,7 +2872,7 @@
       </c>
       <c r="K4" s="15">
         <f>+IF($A4=1,data!D10,K$14)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L4" s="15">
         <f>+IF($A4=1,data!F10,L$14)</f>
@@ -2330,7 +2880,7 @@
       </c>
       <c r="M4" s="15">
         <f>+IF($A4=1,data!AH10,M$14)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N4" s="18">
         <f>IF(A4=1,+data!I10,$N$14)</f>
@@ -2346,11 +2896,11 @@
       </c>
       <c r="Q4" s="11">
         <f>IF(A4=1,+data!E10,$Q$14)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R4" s="9">
         <f>+IFERROR((K4-Q4)/K4*100,0)</f>
-        <v>0</v>
+        <v>85.714285714286</v>
       </c>
       <c r="S4" s="15">
         <f>+IF($A4=1,data!M10,S$14)</f>
@@ -2456,35 +3006,35 @@
     <row r="5" spans="1:44">
       <c r="A5" s="12">
         <f>+IFERROR(B5+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="str">
         <f>IF(+data!C11&amp;"-"="-",0,+data!C11&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="10" t="str">
+        <v>2017-4-</v>
+      </c>
+      <c r="C5" s="10">
         <f>IF(A5=1,C4+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11">
         <f>IFERROR(IF(A5=1,+data!AT11,D$14),0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="E5" s="11">
         <f>+data!AW11</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" s="11">
         <f>+data!AV11</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G5" s="15">
         <f>+IF($A5=1,data!AD11,G$14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="9">
         <f>+IF($A5=1,+IFERROR(G5/D5*100,0),H$14)</f>
-        <v>0</v>
+        <v>1.2295081967213</v>
       </c>
       <c r="I5" s="15">
         <f>+IF($A5=1,data!AF11,I$14)</f>
@@ -2496,7 +3046,7 @@
       </c>
       <c r="K5" s="15">
         <f>+IF($A5=1,data!D11,K$14)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="L5" s="15">
         <f>+IF($A5=1,data!F11,L$14)</f>
@@ -2504,7 +3054,7 @@
       </c>
       <c r="M5" s="15">
         <f>+IF($A5=1,data!AH11,M$14)</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="N5" s="18">
         <f>IF(A5=1,+data!I11,$N$14)</f>
@@ -2520,11 +3070,11 @@
       </c>
       <c r="Q5" s="11">
         <f>IF(A5=1,+data!E11,$Q$14)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R5" s="9">
         <f>+IFERROR((K5-Q5)/K5*100,0)</f>
-        <v>0</v>
+        <v>85.326086956522</v>
       </c>
       <c r="S5" s="15">
         <f>+IF($A5=1,data!M11,S$14)</f>
@@ -2630,35 +3180,35 @@
     <row r="6" spans="1:44">
       <c r="A6" s="12">
         <f>IFERROR(+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="str">
         <f>IF(+data!C12&amp;"-"="-",0,+data!C12&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="str">
+        <v>2017-5-</v>
+      </c>
+      <c r="C6" s="10">
         <f>IF(A6=1,C5+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>5</v>
       </c>
       <c r="D6" s="11">
         <f>IFERROR(IF(A6=1,+data!AT12,D$14),0)</f>
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="E6" s="11">
         <f>+data!AW12</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" s="11">
         <f>+data!AV12</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G6" s="15">
         <f>+IF($A6=1,data!AD12,G$14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="9">
         <f>+IF($A6=1,+IFERROR(G6/D6*100,0),H$14)</f>
-        <v>0</v>
+        <v>0.69204152249135</v>
       </c>
       <c r="I6" s="15">
         <f>+IF($A6=1,data!AF12,I$14)</f>
@@ -2670,7 +3220,7 @@
       </c>
       <c r="K6" s="15">
         <f>+IF($A6=1,data!D12,K$14)</f>
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="L6" s="15">
         <f>+IF($A6=1,data!F12,L$14)</f>
@@ -2678,7 +3228,7 @@
       </c>
       <c r="M6" s="15">
         <f>+IF($A6=1,data!AH12,M$14)</f>
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="N6" s="18">
         <f>IF(A6=1,+data!I12,$N$14)</f>
@@ -2694,11 +3244,11 @@
       </c>
       <c r="Q6" s="11">
         <f>IF(A6=1,+data!E12,$Q$14)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R6" s="9">
         <f>+IFERROR((K6-Q6)/K6*100,0)</f>
-        <v>0</v>
+        <v>87.464387464387</v>
       </c>
       <c r="S6" s="15">
         <f>+IF($A6=1,data!M12,S$14)</f>
@@ -2804,35 +3354,35 @@
     <row r="7" spans="1:44">
       <c r="A7" s="12">
         <f>IFERROR(+B7+B8+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="str">
         <f>IF(+data!C13&amp;"-"="-",0,+data!C13&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="10" t="str">
+        <v>2017-6-</v>
+      </c>
+      <c r="C7" s="10">
         <f>IF(A7=1,C6+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>6</v>
       </c>
       <c r="D7" s="11">
         <f>IFERROR(IF(A7=1,+data!AT13,D$14),0)</f>
-        <v>0</v>
+        <v>892</v>
       </c>
       <c r="E7" s="11">
         <f>+data!AW13</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="11">
         <f>+data!AV13</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G7" s="15">
         <f>+IF($A7=1,data!AD13,G$14)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H7" s="9">
         <f>+IF($A7=1,+IFERROR(G7/D7*100,0),H$14)</f>
-        <v>0</v>
+        <v>0.44843049327354</v>
       </c>
       <c r="I7" s="15">
         <f>+IF($A7=1,data!AF13,I$14)</f>
@@ -2844,7 +3394,7 @@
       </c>
       <c r="K7" s="15">
         <f>+IF($A7=1,data!D13,K$14)</f>
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="L7" s="15">
         <f>+IF($A7=1,data!F13,L$14)</f>
@@ -2852,7 +3402,7 @@
       </c>
       <c r="M7" s="15">
         <f>+IF($A7=1,data!AH13,M$14)</f>
-        <v>0</v>
+        <v>318</v>
       </c>
       <c r="N7" s="18">
         <f>IF(A7=1,+data!I13,$N$14)</f>
@@ -2868,11 +3418,11 @@
       </c>
       <c r="Q7" s="11">
         <f>IF(A7=1,+data!E13,$Q$14)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="R7" s="9">
         <f>+IFERROR((K7-Q7)/K7*100,0)</f>
-        <v>0</v>
+        <v>87.319884726225</v>
       </c>
       <c r="S7" s="15">
         <f>+IF($A7=1,data!M13,S$14)</f>
@@ -2978,35 +3528,35 @@
     <row r="8" spans="1:44">
       <c r="A8" s="12">
         <f>IFERROR(+B8+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="str">
         <f>IF(+data!C14&amp;"-"="-",0,+data!C14&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="10" t="str">
+        <v>2017-7-</v>
+      </c>
+      <c r="C8" s="10">
         <f>IF(A8=1,C7+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>7</v>
       </c>
       <c r="D8" s="11">
         <f>IFERROR(IF(A8=1,+data!AT14,D$14),0)</f>
-        <v>0</v>
+        <v>911</v>
       </c>
       <c r="E8" s="11">
         <f>+data!AW14</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="11">
         <f>+data!AV14</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G8" s="15">
         <f>+IF($A8=1,data!AD14,G$14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H8" s="9">
         <f>+IF($A8=1,+IFERROR(G8/D8*100,0),H$14)</f>
-        <v>0</v>
+        <v>0.98792535675082</v>
       </c>
       <c r="I8" s="15">
         <f>+IF($A8=1,data!AF14,I$14)</f>
@@ -3018,7 +3568,7 @@
       </c>
       <c r="K8" s="15">
         <f>+IF($A8=1,data!D14,K$14)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L8" s="15">
         <f>+IF($A8=1,data!F14,L$14)</f>
@@ -3026,7 +3576,7 @@
       </c>
       <c r="M8" s="15">
         <f>+IF($A8=1,data!AH14,M$14)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="N8" s="18">
         <f>IF(A8=1,+data!I14,$N$14)</f>
@@ -3042,79 +3592,79 @@
       </c>
       <c r="Q8" s="11">
         <f>IF(A8=1,+data!E14,$Q$14)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R8" s="9">
         <f>+IFERROR((K8-Q8)/K8*100,0)</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="S8" s="15">
         <f>+IF($A8=1,data!M14,S$14)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="T8" s="15">
         <f>+IF($A8=1,data!N14,T$14)</f>
-        <v>0</v>
+        <v>1259</v>
       </c>
       <c r="U8" s="9">
         <f>+IF($A8=1,IFERROR(+T8/S8,0),U$14)</f>
-        <v>0</v>
+        <v>12.105769230769</v>
       </c>
       <c r="V8" s="15">
         <f>+IF($A8=1,data!O14,V$14)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W8" s="9">
         <f>+IF($A8=1,IFERROR(V8/T8*100,0),W$14)</f>
-        <v>0</v>
+        <v>0.95313741064337</v>
       </c>
       <c r="X8" s="15">
         <f>+IF($A8=1,data!P14,X$14)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y8" s="9">
         <f>+IF($A8=1,IFERROR(X8/T8*100,0),Y$14)</f>
-        <v>0</v>
+        <v>1.9857029388403</v>
       </c>
       <c r="Z8" s="15">
         <f>+IF($A8=1,data!R14,Z$14)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA8" s="15">
         <f>+IF($A8=1,IFERROR(Z8/T8*100,0),AA$14)</f>
-        <v>0</v>
+        <v>1.9062748212867</v>
       </c>
       <c r="AB8" s="15">
         <f>+IF($A8=1,data!Q14,AB$14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC8" s="9">
         <f>+IF($A8=1,IFERROR(AB8/T8*100,0),AC$14)</f>
-        <v>0</v>
+        <v>0.71485305798253</v>
       </c>
       <c r="AD8" s="15">
         <f>+IF($A8=1,data!S14,AD$14)</f>
-        <v>0</v>
+        <v>1189</v>
       </c>
       <c r="AE8" s="9">
         <f>+IF($A8=1,IFERROR(AD8/S8,0),AE$14)</f>
-        <v>0</v>
+        <v>11.432692307692</v>
       </c>
       <c r="AF8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(+(data!M14-data!V14)/S8*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="AG8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!U14/data!S14,0),AG$14),0)</f>
-        <v>0</v>
+        <v>0.12600504625736</v>
       </c>
       <c r="AH8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!T14/data!M14,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.35576923077</v>
       </c>
       <c r="AI8" s="16">
         <f>+IF($A8=1,IFERROR(S8*12/data!AT10,0),AI$14)</f>
-        <v>0</v>
+        <v>17.828571428571</v>
       </c>
       <c r="AJ8" s="15">
         <f>+IF($A8=1,data!X14,AJ$14)</f>
@@ -3146,41 +3696,41 @@
       </c>
       <c r="AR8" s="10">
         <f>+IF(A8=1,data!AU14,0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="12">
         <f>IFERROR(+B9+B10+B11+B12+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="str">
         <f>IF(+data!C15&amp;"-"="-",0,+data!C15&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="10" t="str">
+        <v>2017-8-</v>
+      </c>
+      <c r="C9" s="10">
         <f>IF(A9=1,C8+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>8</v>
       </c>
       <c r="D9" s="11">
         <f>IFERROR(IF(A9=1,+data!AT15,D$14),0)</f>
-        <v>0</v>
+        <v>914</v>
       </c>
       <c r="E9" s="11">
         <f>+data!AW15</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="11">
         <f>+data!AV15</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G9" s="15">
         <f>+IF($A9=1,data!AD15,G$14)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9" s="9">
         <f>+IF($A9=1,+IFERROR(G9/D9*100,0),H$14)</f>
-        <v>0</v>
+        <v>1.0940919037199</v>
       </c>
       <c r="I9" s="15">
         <f>+IF($A9=1,data!AF15,I$14)</f>
@@ -3192,7 +3742,7 @@
       </c>
       <c r="K9" s="15">
         <f>+IF($A9=1,data!D15,K$14)</f>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L9" s="15">
         <f>+IF($A9=1,data!F15,L$14)</f>
@@ -3200,107 +3750,107 @@
       </c>
       <c r="M9" s="15">
         <f>+IF($A9=1,data!AH15,M$14)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N9" s="18">
         <f>IF(A9=1,+data!I15,$N$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!G15/data!I15,0),O$14),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="9">
         <f>IFERROR(IF($A9=1,IFERROR(data!K15/data!I15*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="11">
         <f>IF(A9=1,+data!E15,$Q$14)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R9" s="9">
         <f>+IFERROR((K9-Q9)/K9*100,0)</f>
-        <v>0</v>
+        <v>87.121212121212</v>
       </c>
       <c r="S9" s="15">
         <f>+IF($A9=1,data!M15,S$14)</f>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="T9" s="15">
         <f>+IF($A9=1,data!N15,T$14)</f>
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="U9" s="9">
         <f>+IF($A9=1,IFERROR(+T9/S9,0),U$14)</f>
-        <v>0</v>
+        <v>12.614035087719</v>
       </c>
       <c r="V9" s="15">
         <f>+IF($A9=1,data!O15,V$14)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="W9" s="9">
         <f>+IF($A9=1,IFERROR(V9/T9*100,0),W$14)</f>
-        <v>0</v>
+        <v>1.6226240148354</v>
       </c>
       <c r="X9" s="15">
         <f>+IF($A9=1,data!P15,X$14)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="9">
         <f>+IF($A9=1,IFERROR(X9/T9*100,0),Y$14)</f>
-        <v>0</v>
+        <v>0.64904960593417</v>
       </c>
       <c r="Z9" s="15">
         <f>+IF($A9=1,data!R15,Z$14)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="15">
         <f>+IF($A9=1,IFERROR(Z9/T9*100,0),AA$14)</f>
-        <v>0</v>
+        <v>2.8280018544274</v>
       </c>
       <c r="AB9" s="15">
         <f>+IF($A9=1,data!Q15,AB$14)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AC9" s="9">
         <f>+IF($A9=1,IFERROR(AB9/T9*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.7153453871117</v>
       </c>
       <c r="AD9" s="15">
         <f>+IF($A9=1,data!S15,AD$14)</f>
-        <v>0</v>
+        <v>2010</v>
       </c>
       <c r="AE9" s="9">
         <f>+IF($A9=1,IFERROR(AD9/S9,0),AE$14)</f>
-        <v>0</v>
+        <v>11.754385964912</v>
       </c>
       <c r="AF9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(+(data!M15-data!V15)/S9*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>4.6783625730994</v>
       </c>
       <c r="AG9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!U15/data!S15,0),AG$14),0)</f>
-        <v>0</v>
+        <v>0.11965174129353</v>
       </c>
       <c r="AH9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!T15/data!M15,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.76023391813</v>
       </c>
       <c r="AI9" s="16">
         <f>+IF($A9=1,IFERROR(S9*12/data!AT11,0),AI$14)</f>
-        <v>0</v>
+        <v>8.4098360655738</v>
       </c>
       <c r="AJ9" s="15">
         <f>+IF($A9=1,data!X15,AJ$14)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AK9" s="15">
         <f>+IF($A9=1,data!Y15,AK$14)</f>
-        <v>0</v>
+        <v>1387</v>
       </c>
       <c r="AL9" s="9">
         <f>+IF($A9=1,IFERROR(AK9/AJ9,0),AL$14)</f>
-        <v>0</v>
+        <v>10.8359375</v>
       </c>
       <c r="AM9" s="15">
         <f>+IF($A9=1,data!AB15,AM$14)</f>
@@ -3312,49 +3862,49 @@
       </c>
       <c r="AO9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!Z15/data!X15,0),AO$14),0)</f>
-        <v>0</v>
+        <v>23.421875</v>
       </c>
       <c r="AP9" s="9">
         <f>+IF($A9=1,IFERROR(AK9*12/data!AT11,0),AP$14)</f>
-        <v>0</v>
+        <v>68.213114754098</v>
       </c>
       <c r="AR9" s="10">
         <f>+IF(A9=1,data!AU15,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="12">
         <f>IFERROR(+B10+B11+B12+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="str">
         <f>IF(+data!C16&amp;"-"="-",0,+data!C16&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="10" t="str">
+        <v>2017-9-</v>
+      </c>
+      <c r="C10" s="10">
         <f>IF(A10=1,C9+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>9</v>
       </c>
       <c r="D10" s="11">
         <f>IFERROR(IF(A10=1,+data!AT16,D$14),0)</f>
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="E10" s="11">
         <f>+data!AW16</f>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F10" s="11">
         <f>+data!AV16</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G10" s="15">
         <f>+IF($A10=1,data!AD16,G$14)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H10" s="9">
         <f>+IF($A10=1,+IFERROR(G10/D10*100,0),H$14)</f>
-        <v>0</v>
+        <v>3.0366492146597</v>
       </c>
       <c r="I10" s="15">
         <f>+IF($A10=1,data!AF16,I$14)</f>
@@ -3366,7 +3916,7 @@
       </c>
       <c r="K10" s="15">
         <f>+IF($A10=1,data!D16,K$14)</f>
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="L10" s="15">
         <f>+IF($A10=1,data!F16,L$14)</f>
@@ -3374,7 +3924,7 @@
       </c>
       <c r="M10" s="15">
         <f>+IF($A10=1,data!AH16,M$14)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N10" s="18">
         <f>IF(A10=1,+data!I16,$N$14)</f>
@@ -3390,91 +3940,91 @@
       </c>
       <c r="Q10" s="11">
         <f>IF(A10=1,+data!E16,$Q$14)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="R10" s="9">
         <f>+IFERROR((K10-Q10)/K10*100,0)</f>
-        <v>0</v>
+        <v>87.044534412955</v>
       </c>
       <c r="S10" s="15">
         <f>+IF($A10=1,data!M16,S$14)</f>
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="T10" s="15">
         <f>+IF($A10=1,data!N16,T$14)</f>
-        <v>0</v>
+        <v>4182</v>
       </c>
       <c r="U10" s="9">
         <f>+IF($A10=1,IFERROR(+T10/S10,0),U$14)</f>
-        <v>0</v>
+        <v>12.409495548961</v>
       </c>
       <c r="V10" s="15">
         <f>+IF($A10=1,data!O16,V$14)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="W10" s="9">
         <f>+IF($A10=1,IFERROR(V10/T10*100,0),W$14)</f>
-        <v>0</v>
+        <v>1.3868962219034</v>
       </c>
       <c r="X10" s="15">
         <f>+IF($A10=1,data!P16,X$14)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y10" s="9">
         <f>+IF($A10=1,IFERROR(X10/T10*100,0),Y$14)</f>
-        <v>0</v>
+        <v>0.6934481109517</v>
       </c>
       <c r="Z10" s="15">
         <f>+IF($A10=1,data!R16,Z$14)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AA10" s="15">
         <f>+IF($A10=1,IFERROR(Z10/T10*100,0),AA$14)</f>
-        <v>0</v>
+        <v>1.6260162601626</v>
       </c>
       <c r="AB10" s="15">
         <f>+IF($A10=1,data!Q16,AB$14)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AC10" s="9">
         <f>+IF($A10=1,IFERROR(AB10/T10*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.3390722142516</v>
       </c>
       <c r="AD10" s="15">
         <f>+IF($A10=1,data!S16,AD$14)</f>
-        <v>0</v>
+        <v>3971</v>
       </c>
       <c r="AE10" s="9">
         <f>+IF($A10=1,IFERROR(AD10/S10,0),AE$14)</f>
-        <v>0</v>
+        <v>11.783382789318</v>
       </c>
       <c r="AF10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(+(data!M16-data!V16)/S10*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>1.186943620178</v>
       </c>
       <c r="AG10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!U16/data!S16,0),AG$14),0)</f>
-        <v>0</v>
+        <v>0.12093427348275</v>
       </c>
       <c r="AH10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!T16/data!M16,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.81602373887</v>
       </c>
       <c r="AI10" s="16">
         <f>+IF($A10=1,IFERROR(S10*12/data!AT12,0),AI$14)</f>
-        <v>0</v>
+        <v>6.9965397923875</v>
       </c>
       <c r="AJ10" s="15">
         <f>+IF($A10=1,data!X16,AJ$14)</f>
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="AK10" s="15">
         <f>+IF($A10=1,data!Y16,AK$14)</f>
-        <v>0</v>
+        <v>2239</v>
       </c>
       <c r="AL10" s="9">
         <f>+IF($A10=1,IFERROR(AK10/AJ10,0),AL$14)</f>
-        <v>0</v>
+        <v>11.084158415842</v>
       </c>
       <c r="AM10" s="15">
         <f>+IF($A10=1,data!AB16,AM$14)</f>
@@ -3486,49 +4036,49 @@
       </c>
       <c r="AO10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!Z16/data!X16,0),AO$14),0)</f>
-        <v>0</v>
+        <v>23.079207920792</v>
       </c>
       <c r="AP10" s="9">
         <f>+IF($A10=1,IFERROR(AK10*12/data!AT12,0),AP$14)</f>
-        <v>0</v>
+        <v>46.484429065744</v>
       </c>
       <c r="AR10" s="10">
         <f>+IF(A10=1,data!AU16,0)</f>
-        <v>0</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="12">
         <f>IFERROR(+B13+B12+B11,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10" t="str">
         <f>IF(+data!C17&amp;"-"="-",0,+data!C17&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="str">
+        <v>2017-9-10-</v>
+      </c>
+      <c r="C11" s="10">
         <f>IF(A11=1,C10+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>10</v>
       </c>
       <c r="D11" s="11">
         <f>IFERROR(IF(A11=1,+data!AT17,D$14),0)</f>
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="E11" s="11">
         <f>+data!AW17</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F11" s="11">
         <f>+data!AV17</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G11" s="15">
         <f>+IF($A11=1,data!AD17,G$14)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H11" s="9">
         <f>+IF($A11=1,+IFERROR(G11/D11*100,0),H$14)</f>
-        <v>0</v>
+        <v>2.3833167825223</v>
       </c>
       <c r="I11" s="15">
         <f>+IF($A11=1,data!AF17,I$14)</f>
@@ -3540,7 +4090,7 @@
       </c>
       <c r="K11" s="15">
         <f>+IF($A11=1,data!D17,K$14)</f>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="L11" s="15">
         <f>+IF($A11=1,data!F17,L$14)</f>
@@ -3548,7 +4098,7 @@
       </c>
       <c r="M11" s="15">
         <f>+IF($A11=1,data!AH17,M$14)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N11" s="18">
         <f>IF(A11=1,+data!I17,$N$14)</f>
@@ -3564,91 +4114,91 @@
       </c>
       <c r="Q11" s="11">
         <f>IF(A11=1,+data!E17,$Q$14)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="R11" s="9">
         <f>+IFERROR((K11-Q11)/K11*100,0)</f>
-        <v>0</v>
+        <v>81.326781326781</v>
       </c>
       <c r="S11" s="15">
         <f>+IF($A11=1,data!M17,S$14)</f>
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="T11" s="15">
         <f>+IF($A11=1,data!N17,T$14)</f>
-        <v>0</v>
+        <v>2992</v>
       </c>
       <c r="U11" s="9">
         <f>+IF($A11=1,IFERROR(+T11/S11,0),U$14)</f>
-        <v>0</v>
+        <v>12.896551724138</v>
       </c>
       <c r="V11" s="15">
         <f>+IF($A11=1,data!O17,V$14)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="W11" s="9">
         <f>+IF($A11=1,IFERROR(V11/T11*100,0),W$14)</f>
-        <v>0</v>
+        <v>2.072192513369</v>
       </c>
       <c r="X11" s="15">
         <f>+IF($A11=1,data!P17,X$14)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y11" s="9">
         <f>+IF($A11=1,IFERROR(X11/T11*100,0),Y$14)</f>
-        <v>0</v>
+        <v>1.0026737967914</v>
       </c>
       <c r="Z11" s="15">
         <f>+IF($A11=1,data!R17,Z$14)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA11" s="15">
         <f>+IF($A11=1,IFERROR(Z11/T11*100,0),AA$14)</f>
-        <v>0</v>
+        <v>2.0053475935829</v>
       </c>
       <c r="AB11" s="15">
         <f>+IF($A11=1,data!Q17,AB$14)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC11" s="9">
         <f>+IF($A11=1,IFERROR(AB11/T11*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.5374331550802</v>
       </c>
       <c r="AD11" s="15">
         <f>+IF($A11=1,data!S17,AD$14)</f>
-        <v>0</v>
+        <v>2794</v>
       </c>
       <c r="AE11" s="9">
         <f>+IF($A11=1,IFERROR(AD11/S11,0),AE$14)</f>
-        <v>0</v>
+        <v>12.043103448276</v>
       </c>
       <c r="AF11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(+(data!M17-data!V17)/S11*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>1.2931034482759</v>
       </c>
       <c r="AG11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!U17/data!S17,0),AG$14),0)</f>
-        <v>0</v>
+        <v>0.13875805297065</v>
       </c>
       <c r="AH11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!T17/data!M17,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.95689655172</v>
       </c>
       <c r="AI11" s="16">
         <f>+IF($A11=1,IFERROR(S11*12/data!AT13,0),AI$14)</f>
-        <v>0</v>
+        <v>3.1210762331839</v>
       </c>
       <c r="AJ11" s="15">
         <f>+IF($A11=1,data!X17,AJ$14)</f>
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="AK11" s="15">
         <f>+IF($A11=1,data!Y17,AK$14)</f>
-        <v>0</v>
+        <v>3596</v>
       </c>
       <c r="AL11" s="9">
         <f>+IF($A11=1,IFERROR(AK11/AJ11,0),AL$14)</f>
-        <v>0</v>
+        <v>10.864048338369</v>
       </c>
       <c r="AM11" s="15">
         <f>+IF($A11=1,data!AB17,AM$14)</f>
@@ -3660,49 +4210,49 @@
       </c>
       <c r="AO11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!Z17/data!X17,0),AO$14),0)</f>
-        <v>0</v>
+        <v>23.296072507553</v>
       </c>
       <c r="AP11" s="9">
         <f>+IF($A11=1,IFERROR(AK11*12/data!AT13,0),AP$14)</f>
-        <v>0</v>
+        <v>48.37668161435</v>
       </c>
       <c r="AR11" s="10">
         <f>+IF(A11=1,data!AU17,0)</f>
-        <v>0</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="12">
         <f>IFERROR(+B13+B12,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10" t="str">
         <f>IF(+data!C18&amp;"-"="-",0,+data!C18&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="str">
+        <v>2017-9-11-</v>
+      </c>
+      <c r="C12" s="10">
         <f>IF(A12=1,C11+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>11</v>
       </c>
       <c r="D12" s="11">
         <f>IFERROR(IF(A12=1,+data!AT18,D$14),0)</f>
-        <v>0</v>
+        <v>1088</v>
       </c>
       <c r="E12" s="11">
         <f>+data!AW18</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F12" s="11">
         <f>+data!AV18</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G12" s="15">
         <f>+IF($A12=1,data!AD18,G$14)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H12" s="9">
         <f>+IF($A12=1,+IFERROR(G12/D12*100,0),H$14)</f>
-        <v>0</v>
+        <v>1.4705882352941</v>
       </c>
       <c r="I12" s="15">
         <f>+IF($A12=1,data!AF18,I$14)</f>
@@ -3714,7 +4264,7 @@
       </c>
       <c r="K12" s="15">
         <f>+IF($A12=1,data!D18,K$14)</f>
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="L12" s="15">
         <f>+IF($A12=1,data!F18,L$14)</f>
@@ -3722,7 +4272,7 @@
       </c>
       <c r="M12" s="15">
         <f>+IF($A12=1,data!AH18,M$14)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="N12" s="18">
         <f>IF(A12=1,+data!I18,$N$14)</f>
@@ -3738,47 +4288,47 @@
       </c>
       <c r="Q12" s="11">
         <f>IF(A12=1,+data!E18,$Q$14)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="R12" s="9">
         <f>+IFERROR((K12-Q12)/K12*100,0)</f>
-        <v>0</v>
+        <v>80.592991913747</v>
       </c>
       <c r="S12" s="15">
         <f>+IF($A12=1,data!M18,S$14)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="T12" s="15">
         <f>+IF($A12=1,data!N18,T$14)</f>
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="U12" s="9">
         <f>+IF($A12=1,IFERROR(+T12/S12,0),U$14)</f>
-        <v>0</v>
+        <v>12.863636363636</v>
       </c>
       <c r="V12" s="15">
         <f>+IF($A12=1,data!O18,V$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="9">
         <f>+IF($A12=1,IFERROR(V12/T12*100,0),W$14)</f>
-        <v>0</v>
+        <v>0.35335689045936</v>
       </c>
       <c r="X12" s="15">
         <f>+IF($A12=1,data!P18,X$14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="9">
         <f>+IF($A12=1,IFERROR(X12/T12*100,0),Y$14)</f>
-        <v>0</v>
+        <v>1.0600706713781</v>
       </c>
       <c r="Z12" s="15">
         <f>+IF($A12=1,data!R18,Z$14)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA12" s="15">
         <f>+IF($A12=1,IFERROR(Z12/T12*100,0),AA$14)</f>
-        <v>0</v>
+        <v>3.886925795053</v>
       </c>
       <c r="AB12" s="15">
         <f>+IF($A12=1,data!Q18,AB$14)</f>
@@ -3790,39 +4340,39 @@
       </c>
       <c r="AD12" s="15">
         <f>+IF($A12=1,data!S18,AD$14)</f>
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="AE12" s="9">
         <f>+IF($A12=1,IFERROR(AD12/S12,0),AE$14)</f>
-        <v>0</v>
+        <v>12.181818181818</v>
       </c>
       <c r="AF12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(+(data!M18-data!V18)/S12*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>4.5454545454545</v>
       </c>
       <c r="AG12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!U18/data!S18,0),AG$14),0)</f>
-        <v>0</v>
+        <v>0.11902985074627</v>
       </c>
       <c r="AH12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!T18/data!M18,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.31818181818</v>
       </c>
       <c r="AI12" s="16">
         <f>+IF($A12=1,IFERROR(S12*12/data!AT14,0),AI$14)</f>
-        <v>0</v>
+        <v>0.28979143798024</v>
       </c>
       <c r="AJ12" s="15">
         <f>+IF($A12=1,data!X18,AJ$14)</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AK12" s="15">
         <f>+IF($A12=1,data!Y18,AK$14)</f>
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="AL12" s="9">
         <f>+IF($A12=1,IFERROR(AK12/AJ12,0),AL$14)</f>
-        <v>0</v>
+        <v>11.785714285714</v>
       </c>
       <c r="AM12" s="15">
         <f>+IF($A12=1,data!AB18,AM$14)</f>
@@ -3834,49 +4384,49 @@
       </c>
       <c r="AO12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!Z18/data!X18,0),AO$14),0)</f>
-        <v>0</v>
+        <v>26.454545454545</v>
       </c>
       <c r="AP12" s="9">
         <f>+IF($A12=1,IFERROR(AK12*12/data!AT14,0),AP$14)</f>
-        <v>0</v>
+        <v>23.90779363337</v>
       </c>
       <c r="AR12" s="10">
         <f>+IF(A12=1,data!AU18,0)</f>
-        <v>0</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="12">
         <f>IFERROR(+B14+B13,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="10" t="str">
         <f>IF(+data!C19&amp;"-"="-",0,+data!C19&amp;"-")</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="str">
+        <v>2017-9-12-</v>
+      </c>
+      <c r="C13" s="10">
         <f>IF(A13=1,C12+1,$C$14)</f>
-        <v>Năm 2023</v>
+        <v>12</v>
       </c>
       <c r="D13" s="11">
         <f>IFERROR(IF(A13=1,+data!AT19,D$14),0)</f>
-        <v>0</v>
+        <v>1167</v>
       </c>
       <c r="E13" s="11">
         <f>+data!AW19</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F13" s="11">
         <f>+data!AV19</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G13" s="15">
         <f>+IF($A13=1,data!AD19,G$14)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="9">
         <f>+IF($A13=1,+IFERROR(G13/D13*100,0),H$14)</f>
-        <v>0</v>
+        <v>0.85689802913453</v>
       </c>
       <c r="I13" s="15">
         <f>+IF($A13=1,data!AF19,I$14)</f>
@@ -3888,7 +4438,7 @@
       </c>
       <c r="K13" s="15">
         <f>+IF($A13=1,data!D19,K$14)</f>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L13" s="15">
         <f>+IF($A13=1,data!F19,L$14)</f>
@@ -3896,7 +4446,7 @@
       </c>
       <c r="M13" s="15">
         <f>+IF($A13=1,data!AH19,M$14)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N13" s="18">
         <f>IF(A13=1,+data!I19,$N$14)</f>
@@ -3912,91 +4462,91 @@
       </c>
       <c r="Q13" s="11">
         <f>IF(A13=1,+data!E19,$Q$14)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R13" s="9">
         <f>+IFERROR((K13-Q13)/K13*100,0)</f>
-        <v>0</v>
+        <v>84.558823529412</v>
       </c>
       <c r="S13" s="15">
         <f>+IF($A13=1,data!M19,S$14)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="T13" s="15">
         <f>+IF($A13=1,data!N19,T$14)</f>
-        <v>0</v>
+        <v>1746</v>
       </c>
       <c r="U13" s="9">
         <f>+IF($A13=1,IFERROR(+T13/S13,0),U$14)</f>
-        <v>0</v>
+        <v>11.64</v>
       </c>
       <c r="V13" s="15">
         <f>+IF($A13=1,data!O19,V$14)</f>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="W13" s="9">
         <f>+IF($A13=1,IFERROR(V13/T13*100,0),W$14)</f>
-        <v>0</v>
+        <v>1.3172966781214</v>
       </c>
       <c r="X13" s="15">
         <f>+IF($A13=1,data!P19,X$14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y13" s="9">
         <f>+IF($A13=1,IFERROR(X13/T13*100,0),Y$14)</f>
-        <v>0</v>
+        <v>0.51546391752577</v>
       </c>
       <c r="Z13" s="15">
         <f>+IF($A13=1,data!R19,Z$14)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA13" s="15">
         <f>+IF($A13=1,IFERROR(Z13/T13*100,0),AA$14)</f>
-        <v>0</v>
+        <v>1.0882016036655</v>
       </c>
       <c r="AB13" s="15">
         <f>+IF($A13=1,data!Q19,AB$14)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC13" s="9">
         <f>+IF($A13=1,IFERROR(AB13/T13*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.0309278350515</v>
       </c>
       <c r="AD13" s="15">
         <f>+IF($A13=1,data!S19,AD$14)</f>
-        <v>0</v>
+        <v>1677</v>
       </c>
       <c r="AE13" s="9">
         <f>+IF($A13=1,IFERROR(AD13/S13,0),AE$14)</f>
-        <v>0</v>
+        <v>11.18</v>
       </c>
       <c r="AF13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(+(data!M19-data!V19)/S13*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!U19/data!S19,0),AG$14),0)</f>
-        <v>0</v>
+        <v>0.13372093023256</v>
       </c>
       <c r="AH13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!T19/data!M19,0),AH$14),0)</f>
-        <v>0</v>
+        <v>115.72</v>
       </c>
       <c r="AI13" s="16">
         <f>+IF($A13=1,IFERROR(S13*12/data!AT15,0),AI$14)</f>
-        <v>0</v>
+        <v>1.9693654266958</v>
       </c>
       <c r="AJ13" s="15">
         <f>+IF($A13=1,data!X19,AJ$14)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK13" s="15">
         <f>+IF($A13=1,data!Y19,AK$14)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL13" s="9">
         <f>+IF($A13=1,IFERROR(AK13/AJ13,0),AL$14)</f>
-        <v>0</v>
+        <v>5.8064516129032</v>
       </c>
       <c r="AM13" s="15">
         <f>+IF($A13=1,data!AB19,AM$14)</f>
@@ -4008,45 +4558,45 @@
       </c>
       <c r="AO13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!Z19/data!X19,0),AO$14),0)</f>
-        <v>0</v>
+        <v>18.387096774194</v>
       </c>
       <c r="AP13" s="9">
         <f>+IF($A13=1,IFERROR(AK13*12/data!AT15,0),AP$14)</f>
-        <v>0</v>
+        <v>2.363238512035</v>
       </c>
       <c r="AR13" s="10">
         <f>+IF(A13=1,data!AU19,0)</f>
-        <v>0</v>
+        <v>914</v>
       </c>
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="12">
         <f>+SUM(A2:A13)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10" t="str">
         <f>+"Năm "&amp;LEFT(data!B8,4)</f>
-        <v>Năm 2023</v>
+        <v>Năm 2017</v>
       </c>
       <c r="D14" s="11">
         <f>+IFERROR(_xlfn.SUMIFS(D2:D13,A2:A13,1)/A14,0)</f>
-        <v>0</v>
+        <v>652.16666666667</v>
       </c>
       <c r="E14" s="11">
         <f>+E13</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F14" s="11">
         <f>+F13</f>
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G14" s="8">
         <f>+_xlfn.SUMIFS(G2:G13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="H14" s="9">
         <f>+IFERROR(G14*12/D14*100/A14,0)</f>
-        <v>0</v>
+        <v>16.7135190391</v>
       </c>
       <c r="I14" s="8">
         <f>+_xlfn.SUMIFS(I2:I13,$A$2:$A$13,1)</f>
@@ -4058,7 +4608,7 @@
       </c>
       <c r="K14" s="8">
         <f>+_xlfn.SUMIFS(K2:K13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>2295</v>
       </c>
       <c r="L14" s="8">
         <f>+_xlfn.SUMIFS(L2:L13,$A$2:$A$13,1)</f>
@@ -4066,107 +4616,107 @@
       </c>
       <c r="M14" s="8">
         <f>+_xlfn.SUMIFS(M2:M13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="N14" s="18">
         <f>+_xlfn.SUMIFS(N2:N13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(O2:O13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0</v>
+        <v>0.083333333333333</v>
       </c>
       <c r="P14" s="9">
         <f>IFERROR(_xlfn.SUMIFS(P2:P13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q14" s="18">
         <f>+_xlfn.SUMIFS(Q2:Q13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="R14" s="9">
         <f>+IFERROR((K14-Q14)/K14*100,0)</f>
-        <v>0</v>
+        <v>84.488017429194</v>
       </c>
       <c r="S14" s="8">
         <f>+_xlfn.SUMIFS(S2:S13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="T14" s="8">
         <f>+_xlfn.SUMIFS(T2:T13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>12619</v>
       </c>
       <c r="U14" s="9">
         <f>+IFERROR(T14/S14,0)</f>
-        <v>0</v>
+        <v>12.420275590551</v>
       </c>
       <c r="V14" s="8">
         <f>+_xlfn.SUMIFS(V2:V13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="W14" s="9">
         <f>IFERROR(V14/T14*100,0)</f>
-        <v>0</v>
+        <v>1.5135906173231</v>
       </c>
       <c r="X14" s="8">
         <f>+_xlfn.SUMIFS(X2:X13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Y14" s="9">
         <f>+IFERROR(X14/T14*100,0)</f>
-        <v>0</v>
+        <v>0.8717014026468</v>
       </c>
       <c r="Z14" s="8">
         <f>+_xlfn.SUMIFS(Z2:Z13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="AA14" s="8">
         <f>+IFERROR(Z14/T14*100,0)</f>
-        <v>0</v>
+        <v>1.9256676440288</v>
       </c>
       <c r="AB14" s="8">
         <f>+_xlfn.SUMIFS(AB2:AB13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="AC14" s="9">
         <f>+IFERROR(AB14/T14*100,0)</f>
-        <v>0</v>
+        <v>1.3154766621761</v>
       </c>
       <c r="AD14" s="8">
         <f>+_xlfn.SUMIFS(AD2:AD13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>11909</v>
       </c>
       <c r="AE14" s="9">
         <f>+IFERROR(AD14/S14,0)</f>
-        <v>0</v>
+        <v>11.721456692913</v>
       </c>
       <c r="AF14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AF2:AF13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0</v>
+        <v>2.449680989943</v>
       </c>
       <c r="AG14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AG2:AG13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0</v>
+        <v>0.063174991248593</v>
       </c>
       <c r="AH14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AH2:AH13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0</v>
+        <v>58.24392543814</v>
       </c>
       <c r="AI14" s="16">
         <f>IFERROR(S14/$A$14*12/AI16,0)</f>
-        <v>0</v>
+        <v>3.378221113882</v>
       </c>
       <c r="AJ14" s="8">
         <f>+_xlfn.SUMIFS(AJ2:AJ13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="AK14" s="8">
         <f>+_xlfn.SUMIFS(AK2:AK13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>9217</v>
       </c>
       <c r="AL14" s="9">
         <f>+IFERROR(AK14/AJ14,0)</f>
-        <v>0</v>
+        <v>10.894799054374</v>
       </c>
       <c r="AM14" s="8">
         <f>+_xlfn.SUMIFS(AM2:AM13,$A$2:$A$13,1)</f>
@@ -4178,27 +4728,27 @@
       </c>
       <c r="AO14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AO2:AO13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0</v>
+        <v>9.5532331380903</v>
       </c>
       <c r="AP14" s="9">
         <f>IFERROR(AK14/$A$14*12/AI16,0)</f>
-        <v>0</v>
+        <v>30.646716541978</v>
       </c>
       <c r="AR14" s="10">
         <f>+SUM(AR2:AR13)</f>
-        <v>0</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="AI15" s="9">
         <f>+AR14</f>
-        <v>0</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="16" spans="1:44">
-      <c r="AI16" s="9" t="e">
+      <c r="AI16" s="9">
         <f>+AI15/A14</f>
-        <v>#DIV/0!</v>
+        <v>300.75</v>
       </c>
     </row>
     <row r="23" spans="1:44">

--- a/05featuredemo.xlsx
+++ b/05featuredemo.xlsx
@@ -108,76 +108,76 @@
     <t>duc</t>
   </si>
   <si>
-    <t>2017-1</t>
-  </si>
-  <si>
-    <t>2017-2</t>
-  </si>
-  <si>
-    <t>2017-3</t>
-  </si>
-  <si>
-    <t>2017-4</t>
-  </si>
-  <si>
-    <t>2017-5</t>
-  </si>
-  <si>
-    <t>2017-6</t>
-  </si>
-  <si>
-    <t>2017-7</t>
-  </si>
-  <si>
-    <t>2017-8</t>
-  </si>
-  <si>
-    <t>2017-9</t>
-  </si>
-  <si>
-    <t>2017-9-10</t>
-  </si>
-  <si>
-    <t>2017-9-11</t>
-  </si>
-  <si>
-    <t>2017-9-12</t>
-  </si>
-  <si>
-    <t>2016-1</t>
-  </si>
-  <si>
-    <t>2016-2</t>
-  </si>
-  <si>
-    <t>2016-3</t>
-  </si>
-  <si>
-    <t>2016-4</t>
-  </si>
-  <si>
-    <t>2016-5</t>
-  </si>
-  <si>
-    <t>2016-6</t>
-  </si>
-  <si>
-    <t>2016-7</t>
-  </si>
-  <si>
-    <t>2016-8</t>
-  </si>
-  <si>
-    <t>2016-9</t>
-  </si>
-  <si>
-    <t>2016-9-10</t>
-  </si>
-  <si>
-    <t>2016-9-11</t>
-  </si>
-  <si>
-    <t>2016-9-12</t>
+    <t>2020-1</t>
+  </si>
+  <si>
+    <t>2020-2</t>
+  </si>
+  <si>
+    <t>2020-3</t>
+  </si>
+  <si>
+    <t>2020-4</t>
+  </si>
+  <si>
+    <t>2020-5</t>
+  </si>
+  <si>
+    <t>2020-6</t>
+  </si>
+  <si>
+    <t>2020-7</t>
+  </si>
+  <si>
+    <t>2020-8</t>
+  </si>
+  <si>
+    <t>2020-9</t>
+  </si>
+  <si>
+    <t>2020-9-10</t>
+  </si>
+  <si>
+    <t>2020-9-11</t>
+  </si>
+  <si>
+    <t>2020-9-12</t>
+  </si>
+  <si>
+    <t>2019-1</t>
+  </si>
+  <si>
+    <t>2019-2</t>
+  </si>
+  <si>
+    <t>2019-3</t>
+  </si>
+  <si>
+    <t>2019-4</t>
+  </si>
+  <si>
+    <t>2019-5</t>
+  </si>
+  <si>
+    <t>2019-6</t>
+  </si>
+  <si>
+    <t>2019-7</t>
+  </si>
+  <si>
+    <t>2019-8</t>
+  </si>
+  <si>
+    <t>2019-9</t>
+  </si>
+  <si>
+    <t>2019-9-10</t>
+  </si>
+  <si>
+    <t>2019-9-11</t>
+  </si>
+  <si>
+    <t>2019-9-12</t>
   </si>
   <si>
     <t>Chỉ tiêu</t>
@@ -934,7 +934,7 @@
       <c r="AF3" s="12"/>
       <c r="AT3" s="3">
         <f>+AT4-AH28+AF28+AD28</f>
-        <v>0</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1">
@@ -956,7 +956,7 @@
       <c r="AS4" s="12"/>
       <c r="AT4" s="3">
         <f>+AT5-AH29+AF29+AD29</f>
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AV4" s="12"/>
@@ -981,7 +981,7 @@
       <c r="AS5" s="12"/>
       <c r="AT5" s="3">
         <f>+AT6-AH30+AF30+AD30</f>
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="AU5" s="12"/>
       <c r="AV5" s="12"/>
@@ -1006,7 +1006,7 @@
       <c r="AS6" s="12"/>
       <c r="AT6" s="3">
         <f>+AT7-AH31+AF31+AD31</f>
-        <v>0</v>
+        <v>2249</v>
       </c>
       <c r="AU6" s="12"/>
       <c r="AV6" s="12"/>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1">
       <c r="A7" s="12">
-        <v>0</v>
+        <v>2636</v>
       </c>
       <c r="B7" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="20">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="N7" s="4"/>
       <c r="T7" s="4"/>
@@ -1041,16 +1041,16 @@
       <c r="AP7" s="12"/>
       <c r="AT7" s="17">
         <f>+A7</f>
-        <v>0</v>
+        <v>2636</v>
       </c>
       <c r="AU7" s="12"/>
       <c r="AV7" s="12">
         <f>+B7</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="12">
         <f>+C7</f>
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1">
@@ -1060,57 +1060,121 @@
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="12"/>
+      <c r="C8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1">
+        <v>678</v>
+      </c>
+      <c r="E8" s="1">
+        <v>107</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H8" s="1">
+        <v>438</v>
+      </c>
+      <c r="I8" s="1">
+        <v>438</v>
+      </c>
+      <c r="J8" s="1">
+        <v>438</v>
+      </c>
+      <c r="K8" s="1">
+        <v>397</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1">
+        <v>475</v>
+      </c>
+      <c r="N8" s="12">
+        <v>6137</v>
+      </c>
+      <c r="O8" s="12">
+        <v>100</v>
+      </c>
+      <c r="P8" s="12">
+        <v>395</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>104</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
+        <v>5538</v>
+      </c>
+      <c r="T8" s="12">
+        <v>55575</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
+        <v>442</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="12">
+        <v>420</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>4626</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>9647</v>
+      </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AH8" s="4"/>
+      <c r="AE8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>222</v>
+      </c>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12" t="s">
+      <c r="AM8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AP8" s="12">
-        <v>1</v>
-      </c>
+      <c r="AN8" s="12">
+        <v>23</v>
+      </c>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
       <c r="AQ8" s="12"/>
       <c r="AR8" s="12"/>
       <c r="AS8" s="12"/>
       <c r="AT8" s="12">
         <f>+AT7+AH8-AF8-AD8</f>
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="AU8" s="3">
         <f>+AT4</f>
-        <v>0</v>
+        <v>1161</v>
       </c>
       <c r="AV8" s="12">
         <f>+AV7+AL8-AJ8</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="12">
         <f>+AW7+AN8-AP8</f>
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1">
@@ -1120,32 +1184,101 @@
       <c r="B9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="12"/>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>564</v>
+      </c>
+      <c r="E9" s="1">
+        <v>88</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2826</v>
+      </c>
+      <c r="H9" s="1">
+        <v>438</v>
+      </c>
+      <c r="I9" s="1">
+        <v>438</v>
+      </c>
+      <c r="J9" s="1">
+        <v>438</v>
+      </c>
+      <c r="K9" s="1">
+        <v>358</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1">
+        <v>389</v>
+      </c>
+      <c r="N9" s="12">
+        <v>4976</v>
+      </c>
+      <c r="O9" s="12">
+        <v>36</v>
+      </c>
+      <c r="P9" s="12">
+        <v>380</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>81</v>
+      </c>
+      <c r="R9" s="12">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12">
+        <v>4479</v>
+      </c>
+      <c r="T9" s="12">
+        <v>45458</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12">
+        <v>361</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="12">
+        <v>450</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>4954</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>10055</v>
+      </c>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AH9" s="4"/>
+      <c r="AE9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>94</v>
+      </c>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="12"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
+      <c r="AM9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>1</v>
+      </c>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
@@ -1153,19 +1286,19 @@
       <c r="AS9" s="12"/>
       <c r="AT9" s="12">
         <f>+AT8+AH9-AF9-AD9</f>
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="AU9" s="3">
         <f>+AT5</f>
-        <v>0</v>
+        <v>1575</v>
       </c>
       <c r="AV9" s="12">
         <f>+AV8+AL9-AJ9</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="12">
         <f>+AW8+AN9-AP9</f>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1">
@@ -1179,50 +1312,86 @@
         <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>70</v>
+        <v>582</v>
       </c>
       <c r="E10" s="1">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>2269</v>
       </c>
       <c r="H10" s="1">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="12"/>
+        <v>294</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="1">
+        <v>600</v>
+      </c>
+      <c r="N10" s="12">
+        <v>7152</v>
+      </c>
+      <c r="O10" s="12">
+        <v>45</v>
+      </c>
+      <c r="P10" s="12">
+        <v>462</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>74</v>
+      </c>
+      <c r="R10" s="12">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>6571</v>
+      </c>
+      <c r="T10" s="12">
+        <v>69825</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="12">
+        <v>541</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" s="12">
+        <v>433</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>4602</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>9369</v>
+      </c>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
+      <c r="AE10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>7</v>
+      </c>
       <c r="AG10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AH10" s="4">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="12"/>
@@ -1237,19 +1406,19 @@
       <c r="AS10" s="12"/>
       <c r="AT10" s="12">
         <f>+AT9+AH10-AF10-AD10</f>
-        <v>70</v>
+        <v>3151</v>
       </c>
       <c r="AU10" s="3">
         <f>+AT6</f>
-        <v>0</v>
+        <v>2249</v>
       </c>
       <c r="AV10" s="12">
         <f>+AV9+AL10-AJ10</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="12">
         <f>+AW9+AN10-AP10</f>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1">
@@ -1263,54 +1432,90 @@
         <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>184</v>
+        <v>707</v>
       </c>
       <c r="E11" s="1">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>4176</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="12"/>
+        <v>428</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="1">
+        <v>609</v>
+      </c>
+      <c r="N11" s="12">
+        <v>7200</v>
+      </c>
+      <c r="O11" s="12">
+        <v>46</v>
+      </c>
+      <c r="P11" s="12">
+        <v>571</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>61</v>
+      </c>
+      <c r="R11" s="12">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>6522</v>
+      </c>
+      <c r="T11" s="12">
+        <v>70536</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="12">
+        <v>549</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="X11" s="12">
+        <v>581</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>5935</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>12621</v>
+      </c>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
       <c r="AC11" s="12" t="s">
         <v>33</v>
       </c>
       <c r="AD11" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>5</v>
+      </c>
       <c r="AG11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AH11" s="4">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
@@ -1325,19 +1530,19 @@
       <c r="AS11" s="12"/>
       <c r="AT11" s="12">
         <f>+AT10+AH11-AF11-AD11</f>
-        <v>244</v>
+        <v>3259</v>
       </c>
       <c r="AU11" s="12">
         <f>+AT7</f>
-        <v>0</v>
+        <v>2636</v>
       </c>
       <c r="AV11" s="12">
         <f>+AV10+AL11-AJ11</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="12">
         <f>+AW10+AN11-AP11</f>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -1351,73 +1556,112 @@
         <v>34</v>
       </c>
       <c r="D12">
-        <v>351</v>
+        <v>787</v>
       </c>
       <c r="E12">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>4107</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="12"/>
+        <v>486</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12">
+        <v>450</v>
+      </c>
+      <c r="N12" s="12">
+        <v>5713</v>
+      </c>
+      <c r="O12" s="12">
+        <v>37</v>
+      </c>
+      <c r="P12" s="12">
+        <v>348</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>49</v>
+      </c>
+      <c r="R12" s="12">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>5279</v>
+      </c>
+      <c r="T12" s="12">
+        <v>52452</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <v>427</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" s="12">
+        <v>575</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>6450</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>12446</v>
+      </c>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
       <c r="AC12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="AD12" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="AE12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>3</v>
+      </c>
       <c r="AG12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AH12" s="4">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12"/>
       <c r="AT12" s="12">
         <f>+AT11+AH12-AF12-AD12</f>
-        <v>578</v>
+        <v>3441</v>
       </c>
       <c r="AU12" s="12">
         <f>+AT8</f>
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="AV12" s="12">
         <f>+AV11+AL12-AJ12</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="12">
         <f>+AW11+AN12-AP12</f>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -1431,73 +1675,112 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>347</v>
+        <v>815</v>
       </c>
       <c r="E13">
-        <v>44</v>
+        <v>86</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2797</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="12"/>
+        <v>331</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>455</v>
+      </c>
+      <c r="N13" s="12">
+        <v>5800</v>
+      </c>
+      <c r="O13" s="12">
+        <v>30</v>
+      </c>
+      <c r="P13" s="12">
+        <v>218</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>71</v>
+      </c>
+      <c r="R13" s="12">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>5481</v>
+      </c>
+      <c r="T13" s="12">
+        <v>53039</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <v>446</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="12">
+        <v>418</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>4848</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>9493</v>
+      </c>
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
       <c r="AC13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AD13" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>11</v>
+      </c>
       <c r="AG13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AH13" s="4">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="12">
         <f>+AT12+AH13-AF13-AD13</f>
-        <v>892</v>
+        <v>3725</v>
       </c>
       <c r="AU13" s="12">
         <f>+AT9</f>
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="AV13" s="12">
         <f>+AV12+AL13-AJ13</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="12">
         <f>+AW12+AN13-AP13</f>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -1511,97 +1794,118 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>977</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2148</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="L14" t="s">
         <v>36</v>
       </c>
       <c r="M14">
-        <v>104</v>
+        <v>573</v>
       </c>
       <c r="N14" s="12">
-        <v>1259</v>
+        <v>7154</v>
       </c>
       <c r="O14" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="P14" s="12">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="12">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="R14" s="12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="S14" s="12">
-        <v>1189</v>
+        <v>6733</v>
       </c>
       <c r="T14" s="12">
-        <v>12101</v>
+        <v>66821</v>
       </c>
       <c r="U14" s="12">
-        <v>149.82</v>
+        <v>0</v>
       </c>
       <c r="V14" s="12">
-        <v>96</v>
-      </c>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="12"/>
+        <v>539</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="12">
+        <v>487</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>5577</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>10967</v>
+      </c>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
       <c r="AC14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AD14" s="12">
-        <v>9</v>
-      </c>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>11</v>
+      </c>
       <c r="AG14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AH14" s="4">
-        <v>28</v>
+        <v>559</v>
+      </c>
+      <c r="AK14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>43</v>
       </c>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
       <c r="AT14" s="12">
         <f>+AT13+AH14-AF14-AD14</f>
-        <v>911</v>
+        <v>4191</v>
       </c>
       <c r="AU14" s="12">
         <f>+AT10</f>
-        <v>70</v>
+        <v>3151</v>
       </c>
       <c r="AV14" s="12">
         <f>+AV13+AL14-AJ14</f>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="AW14" s="12">
         <f>+AW13+AN14-AP14</f>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -1615,70 +1919,73 @@
         <v>37</v>
       </c>
       <c r="D15">
-        <v>132</v>
+        <v>788</v>
       </c>
       <c r="E15">
-        <v>17</v>
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>3707</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>530</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>530</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>530</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>432</v>
       </c>
       <c r="L15" t="s">
         <v>37</v>
       </c>
       <c r="M15">
-        <v>171</v>
+        <v>563</v>
       </c>
       <c r="N15" s="12">
-        <v>2157</v>
+        <v>7143</v>
       </c>
       <c r="O15" s="12">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="P15" s="12">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="12">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="R15" s="12">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S15" s="12">
-        <v>2010</v>
+        <v>6776</v>
       </c>
       <c r="T15" s="12">
-        <v>19966</v>
+        <v>65681</v>
       </c>
       <c r="U15" s="12">
-        <v>240.5</v>
+        <v>0</v>
       </c>
       <c r="V15" s="12">
-        <v>163</v>
+        <v>543</v>
       </c>
       <c r="W15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="X15" s="12">
-        <v>128</v>
+        <v>529</v>
       </c>
       <c r="Y15" s="3">
-        <v>1387</v>
+        <v>5959</v>
       </c>
       <c r="Z15" s="12">
-        <v>2998</v>
+        <v>11980</v>
       </c>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
@@ -1686,34 +1993,62 @@
         <v>37</v>
       </c>
       <c r="AD15" s="12">
-        <v>10</v>
-      </c>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
+        <v>109</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF15" s="12">
+        <v>13</v>
+      </c>
       <c r="AG15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AH15" s="4">
-        <v>13</v>
+        <v>207</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ15" s="12">
+        <v>3</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN15" s="12">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP15" s="12">
+        <v>2</v>
       </c>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
       <c r="AT15" s="12">
         <f>+AT14+AH15-AF15-AD15</f>
-        <v>914</v>
+        <v>4276</v>
       </c>
       <c r="AU15" s="12">
         <f>+AT11</f>
-        <v>244</v>
+        <v>3259</v>
       </c>
       <c r="AV15" s="12">
         <f>+AV14+AL15-AJ15</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AW15" s="12">
         <f>+AW14+AN15-AP15</f>
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -1727,111 +2062,122 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>247</v>
+        <v>797</v>
       </c>
       <c r="E16">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="F16">
+        <v>109</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3597</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="L16" t="s">
         <v>38</v>
       </c>
       <c r="M16">
-        <v>337</v>
+        <v>630</v>
       </c>
       <c r="N16" s="12">
-        <v>4182</v>
+        <v>7996</v>
       </c>
       <c r="O16" s="12">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P16" s="12">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="Q16" s="12">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="R16" s="12">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="S16" s="12">
-        <v>3971</v>
+        <v>7671</v>
       </c>
       <c r="T16" s="12">
-        <v>39367</v>
+        <v>73716</v>
       </c>
       <c r="U16" s="12">
-        <v>480.23</v>
+        <v>0</v>
       </c>
       <c r="V16" s="12">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="W16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="X16" s="12">
-        <v>202</v>
+        <v>549</v>
       </c>
       <c r="Y16" s="3">
-        <v>2239</v>
+        <v>6123</v>
       </c>
       <c r="Z16" s="12">
-        <v>4662</v>
-      </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
+        <v>13102</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>145</v>
+      </c>
       <c r="AC16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="AD16" s="12">
-        <v>29</v>
-      </c>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>12</v>
+      </c>
       <c r="AG16" t="s">
         <v>38</v>
       </c>
       <c r="AH16" s="4">
-        <v>70</v>
-      </c>
-      <c r="AO16" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AP16" s="12">
-        <v>8</v>
+      <c r="AJ16" s="12">
+        <v>1</v>
       </c>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12">
         <f>+AT15+AH16-AF16-AD16</f>
-        <v>955</v>
+        <v>4339</v>
       </c>
       <c r="AU16" s="12">
         <f>+AT12</f>
-        <v>578</v>
+        <v>3441</v>
       </c>
       <c r="AV16" s="12">
         <f>+AV15+AL16-AJ16</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AW16" s="12">
         <f>+AW15+AN16-AP16</f>
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -1845,86 +2191,103 @@
         <v>39</v>
       </c>
       <c r="D17">
-        <v>407</v>
+        <v>1060</v>
       </c>
       <c r="E17">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="L17" t="s">
         <v>39</v>
       </c>
       <c r="M17">
-        <v>232</v>
+        <v>812</v>
       </c>
       <c r="N17" s="12">
-        <v>2992</v>
+        <v>10436</v>
       </c>
       <c r="O17" s="12">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P17" s="12">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="12">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="R17" s="12">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S17" s="12">
-        <v>2794</v>
+        <v>10040</v>
       </c>
       <c r="T17" s="12">
-        <v>27134</v>
+        <v>95019</v>
       </c>
       <c r="U17" s="12">
-        <v>387.69</v>
+        <v>0</v>
       </c>
       <c r="V17" s="12">
-        <v>229</v>
+        <v>761</v>
       </c>
       <c r="W17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="X17" s="12">
-        <v>331</v>
+        <v>622</v>
       </c>
       <c r="Y17" s="3">
-        <v>3596</v>
+        <v>6957</v>
       </c>
       <c r="Z17" s="12">
-        <v>7711</v>
-      </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
+        <v>14187</v>
+      </c>
+      <c r="AA17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>442</v>
+      </c>
       <c r="AC17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="AD17" s="12">
-        <v>24</v>
-      </c>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="AE17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>16</v>
+      </c>
       <c r="AG17" t="s">
         <v>39</v>
       </c>
       <c r="AH17" s="4">
-        <v>76</v>
+        <v>419</v>
+      </c>
+      <c r="AM17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN17" s="12">
+        <v>4</v>
       </c>
       <c r="AO17" s="12" t="s">
         <v>39</v>
@@ -1937,19 +2300,19 @@
       <c r="AS17" s="12"/>
       <c r="AT17" s="12">
         <f>+AT16+AH17-AF17-AD17</f>
-        <v>1007</v>
+        <v>4641</v>
       </c>
       <c r="AU17" s="12">
         <f>+AT13</f>
-        <v>892</v>
+        <v>3725</v>
       </c>
       <c r="AV17" s="12">
         <f>+AV16+AL17-AJ17</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AW17" s="12">
         <f>+AW16+AN17-AP17</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -1963,107 +2326,112 @@
         <v>40</v>
       </c>
       <c r="D18">
-        <v>371</v>
+        <v>1027</v>
       </c>
       <c r="E18">
-        <v>72</v>
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>51</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3242</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="L18" t="s">
         <v>40</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>827</v>
       </c>
       <c r="N18" s="12">
-        <v>283</v>
+        <v>10611</v>
       </c>
       <c r="O18" s="12">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="P18" s="12">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="12">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="R18" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S18" s="12">
-        <v>268</v>
+        <v>10272</v>
       </c>
       <c r="T18" s="12">
-        <v>2559</v>
+        <v>97747</v>
       </c>
       <c r="U18" s="12">
-        <v>31.9</v>
+        <v>0</v>
       </c>
       <c r="V18" s="12">
-        <v>21</v>
+        <v>782</v>
       </c>
       <c r="W18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="X18" s="12">
-        <v>154</v>
+        <v>685</v>
       </c>
       <c r="Y18" s="3">
-        <v>1815</v>
+        <v>7799</v>
       </c>
       <c r="Z18" s="12">
-        <v>4074</v>
-      </c>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
+        <v>16079</v>
+      </c>
+      <c r="AA18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>468</v>
+      </c>
       <c r="AC18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AD18" s="12">
-        <v>16</v>
-      </c>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="AE18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF18" s="12">
+        <v>9</v>
+      </c>
       <c r="AG18" t="s">
         <v>40</v>
       </c>
       <c r="AH18" s="4">
-        <v>97</v>
-      </c>
-      <c r="AO18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP18" s="12">
-        <v>1</v>
+        <v>315</v>
       </c>
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="12">
         <f>+AT17+AH18-AF18-AD18</f>
-        <v>1088</v>
+        <v>4865</v>
       </c>
       <c r="AU18" s="12">
         <f>+AT14</f>
-        <v>911</v>
+        <v>4191</v>
       </c>
       <c r="AV18" s="12">
         <f>+AV17+AL18-AJ18</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AW18" s="12">
         <f>+AW17+AN18-AP18</f>
@@ -2081,104 +2449,119 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>136</v>
+        <v>1143</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="F19">
+        <v>60</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4263</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="L19" t="s">
         <v>41</v>
       </c>
       <c r="M19">
-        <v>150</v>
+        <v>688</v>
       </c>
       <c r="N19" s="1">
-        <v>1746</v>
+        <v>8772</v>
       </c>
       <c r="O19">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="P19" s="1">
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="R19" s="1">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>1677</v>
+        <v>8461</v>
       </c>
       <c r="T19" s="4">
-        <v>17358</v>
+        <v>81798</v>
       </c>
       <c r="U19" s="4">
-        <v>224.25</v>
+        <v>0</v>
       </c>
       <c r="V19" s="4">
-        <v>135</v>
+        <v>660</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="X19" s="1">
-        <v>31</v>
+        <v>800</v>
       </c>
       <c r="Y19" s="1">
-        <v>180</v>
+        <v>9401</v>
       </c>
       <c r="Z19" s="2">
-        <v>570</v>
+        <v>18818</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19">
+        <v>407</v>
       </c>
       <c r="AC19" t="s">
         <v>41</v>
       </c>
       <c r="AD19" s="1">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>7</v>
       </c>
       <c r="AG19" t="s">
         <v>41</v>
       </c>
       <c r="AH19">
-        <v>89</v>
-      </c>
-      <c r="AO19" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AM19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AP19" s="12">
-        <v>1</v>
+      <c r="AN19" s="12">
+        <v>5</v>
       </c>
       <c r="AT19" s="12">
         <f>+AT18+AH19-AF19-AD19</f>
-        <v>1167</v>
+        <v>5041</v>
       </c>
       <c r="AU19" s="12">
         <f>+AT15</f>
-        <v>914</v>
+        <v>4276</v>
       </c>
       <c r="AV19" s="12">
         <f>+AV18+AL19-AJ19</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AW19" s="12">
         <f>+AW18+AN19-AP19</f>
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -2244,6 +2627,36 @@
       <c r="B27" t="s">
         <v>49</v>
       </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27">
+        <v>334</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH27">
+        <v>330</v>
+      </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="12">
@@ -2252,6 +2665,36 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>509</v>
+      </c>
+      <c r="E28">
+        <v>69</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH28">
+        <v>488</v>
+      </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="12">
@@ -2260,6 +2703,36 @@
       <c r="B29" t="s">
         <v>51</v>
       </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>426</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH29">
+        <v>414</v>
+      </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="12">
@@ -2268,6 +2741,36 @@
       <c r="B30" t="s">
         <v>52</v>
       </c>
+      <c r="C30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <v>684</v>
+      </c>
+      <c r="E30">
+        <v>68</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH30">
+        <v>674</v>
+      </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="12">
@@ -2275,6 +2778,36 @@
       </c>
       <c r="B31" t="s">
         <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>575</v>
+      </c>
+      <c r="E31">
+        <v>77</v>
+      </c>
+      <c r="G31">
+        <v>610</v>
+      </c>
+      <c r="H31">
+        <v>178</v>
+      </c>
+      <c r="I31">
+        <v>178</v>
+      </c>
+      <c r="J31">
+        <v>178</v>
+      </c>
+      <c r="K31">
+        <v>177</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH31">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -2486,9 +3019,9 @@
         <f>+IFERROR(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="10" t="str">
         <f>IF(+data!C8&amp;"-"="-",0,+data!C8&amp;"-")</f>
-        <v>0</v>
+        <v>2020-1-</v>
       </c>
       <c r="C2" s="10">
         <f>IF(A2=1,1,$C$14)</f>
@@ -2496,15 +3029,15 @@
       </c>
       <c r="D2" s="11">
         <f>IFERROR(IF(A2=1,+data!AT8,D$14),0)</f>
-        <v>0</v>
+        <v>2857</v>
       </c>
       <c r="E2" s="11">
         <f>+data!AW8</f>
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F2" s="11">
         <f>+data!AV8</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>+IF($A2=1,data!AD8,G$14)</f>
@@ -2516,15 +3049,15 @@
       </c>
       <c r="I2" s="8">
         <f>+IF($A2=1,data!AF8,I$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="9">
         <f>+IF($A2=1,IFERROR(I2/D2*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.035001750087504</v>
       </c>
       <c r="K2" s="8">
         <f>+IF($A2=1,data!D8,K$14)</f>
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="L2" s="8">
         <f>+IF($A2=1,data!F8,L$14)</f>
@@ -2532,55 +3065,55 @@
       </c>
       <c r="M2" s="8">
         <f>+IF($A2=1,data!AH8,M$14)</f>
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="N2" s="15">
         <f>IF(A2=1,+data!I8,$N$14)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="O2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!G8/data!I8,0),O$14),0)</f>
-        <v>0</v>
+        <v>4.5913242009132</v>
       </c>
       <c r="P2" s="9">
         <f>IFERROR(IF($A2=1,IFERROR(data!K8/data!I8*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>90.639269406393</v>
       </c>
       <c r="Q2" s="11">
         <f>IF(A2=1,+data!E8,$Q$14)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="R2" s="9">
         <f>+IFERROR((K2-Q2)/K2*100,0)</f>
-        <v>0</v>
+        <v>84.218289085546</v>
       </c>
       <c r="S2" s="8">
         <f>+IF($A2=1,data!M8,S$14)</f>
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="T2" s="8">
         <f>+IF($A2=1,data!N8,T$14)</f>
-        <v>0</v>
+        <v>6137</v>
       </c>
       <c r="U2" s="9">
         <f>+IF($A2=1,IFERROR(+T2/S2,0),U$14)</f>
-        <v>0</v>
+        <v>12.92</v>
       </c>
       <c r="V2" s="8">
         <f>+IF($A2=1,data!O8,V$14)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W2" s="9">
         <f>+IF($A2=1,IFERROR(V2/T2*100,0),W$14)</f>
-        <v>0</v>
+        <v>1.6294606485253</v>
       </c>
       <c r="X2" s="8">
         <f>+IF($A2=1,data!P8,X$14)</f>
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="Y2" s="9">
         <f>+IF($A2=1,IFERROR(X2/T2*100,0),Y$14)</f>
-        <v>0</v>
+        <v>6.4363695616751</v>
       </c>
       <c r="Z2" s="8">
         <f>+IF($A2=1,data!R8,Z$14)</f>
@@ -2592,23 +3125,23 @@
       </c>
       <c r="AB2" s="8">
         <f>+IF($A2=1,data!Q8,AB$14)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="9">
         <f>+IF($A2=1,IFERROR(AB2/T2*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.6946390744664</v>
       </c>
       <c r="AD2" s="8">
         <f>+IF($A2=1,data!S8,AD$14)</f>
-        <v>0</v>
+        <v>5538</v>
       </c>
       <c r="AE2" s="9">
         <f>+IF($A2=1,IFERROR(AD2/S2,0),AE$14)</f>
-        <v>0</v>
+        <v>11.658947368421</v>
       </c>
       <c r="AF2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(+(data!M8-data!V8)/S2*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>6.9473684210526</v>
       </c>
       <c r="AG2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!U8/data!S8,0),AG$14),0)</f>
@@ -2616,23 +3149,23 @@
       </c>
       <c r="AH2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!T8/data!M8,0),AH$14),0)</f>
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="AI2" s="16">
         <f>+IF($A2=1,IFERROR(S2*12/data!AT4,0),AI$14)</f>
-        <v>0</v>
+        <v>4.9095607235142</v>
       </c>
       <c r="AJ2" s="8">
         <f>+IF($A2=1,data!X8,AJ$14)</f>
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="AK2" s="8">
         <f>+IF($A2=1,data!Y8,AK$14)</f>
-        <v>0</v>
+        <v>4626</v>
       </c>
       <c r="AL2" s="9">
         <f>+IF($A2=1,IFERROR(AK2/AJ2,0),AL$14)</f>
-        <v>0</v>
+        <v>11.014285714286</v>
       </c>
       <c r="AM2" s="8">
         <f>+IF($A2=1,data!AB8,AM$14)</f>
@@ -2644,15 +3177,15 @@
       </c>
       <c r="AO2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!Z8/data!X8,0),AO$14),0)</f>
-        <v>0</v>
+        <v>22.969047619048</v>
       </c>
       <c r="AP2" s="9">
         <f>+IF($A2=1,IFERROR(AK2*12/data!AT4,0),AP$14)</f>
-        <v>0</v>
+        <v>47.813953488372</v>
       </c>
       <c r="AR2" s="10">
         <f>+IF(A2=1,data!AU8,0)</f>
-        <v>0</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -2660,9 +3193,9 @@
         <f>IFERROR(+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="10" t="str">
         <f>IF(+data!C9&amp;"-"="-",0,+data!C9&amp;"-")</f>
-        <v>0</v>
+        <v>2020-2-</v>
       </c>
       <c r="C3" s="10">
         <f>IF(A3=1,C2+1,$C$14)</f>
@@ -2670,15 +3203,15 @@
       </c>
       <c r="D3" s="11">
         <f>IFERROR(IF(A3=1,+data!AT9,D$14),0)</f>
-        <v>0</v>
+        <v>2948</v>
       </c>
       <c r="E3" s="11">
         <f>+data!AW9</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F3" s="11">
         <f>+data!AV9</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3" s="15">
         <f>+IF($A3=1,data!AD9,G$14)</f>
@@ -2690,15 +3223,15 @@
       </c>
       <c r="I3" s="15">
         <f>+IF($A3=1,data!AF9,I$14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="9">
         <f>+IF($A3=1,IFERROR(I3/D3*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.10176390773406</v>
       </c>
       <c r="K3" s="15">
         <f>+IF($A3=1,data!D9,K$14)</f>
-        <v>0</v>
+        <v>564</v>
       </c>
       <c r="L3" s="15">
         <f>+IF($A3=1,data!F9,L$14)</f>
@@ -2706,55 +3239,55 @@
       </c>
       <c r="M3" s="15">
         <f>+IF($A3=1,data!AH9,M$14)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="N3" s="18">
         <f>IF(A3=1,+data!I9,$N$14)</f>
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="O3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!G9/data!I9,0),O$14),0)</f>
-        <v>0</v>
+        <v>6.4520547945205</v>
       </c>
       <c r="P3" s="9">
         <f>IFERROR(IF($A3=1,IFERROR(data!K9/data!I9*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>81.735159817352</v>
       </c>
       <c r="Q3" s="11">
         <f>IF(A3=1,+data!E9,$Q$14)</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="R3" s="9">
         <f>+IFERROR((K3-Q3)/K3*100,0)</f>
-        <v>0</v>
+        <v>84.397163120567</v>
       </c>
       <c r="S3" s="15">
         <f>+IF($A3=1,data!M9,S$14)</f>
-        <v>0</v>
+        <v>389</v>
       </c>
       <c r="T3" s="15">
         <f>+IF($A3=1,data!N9,T$14)</f>
-        <v>0</v>
+        <v>4976</v>
       </c>
       <c r="U3" s="9">
         <f>+IF($A3=1,IFERROR(+T3/S3,0),U$14)</f>
-        <v>0</v>
+        <v>12.79177377892</v>
       </c>
       <c r="V3" s="15">
         <f>+IF($A3=1,data!O9,V$14)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="W3" s="9">
         <f>+IF($A3=1,IFERROR(V3/T3*100,0),W$14)</f>
-        <v>0</v>
+        <v>0.72347266881029</v>
       </c>
       <c r="X3" s="15">
         <f>+IF($A3=1,data!P9,X$14)</f>
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="Y3" s="9">
         <f>+IF($A3=1,IFERROR(X3/T3*100,0),Y$14)</f>
-        <v>0</v>
+        <v>7.6366559485531</v>
       </c>
       <c r="Z3" s="15">
         <f>+IF($A3=1,data!R9,Z$14)</f>
@@ -2766,23 +3299,23 @@
       </c>
       <c r="AB3" s="15">
         <f>+IF($A3=1,data!Q9,AB$14)</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AC3" s="9">
         <f>+IF($A3=1,IFERROR(AB3/T3*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.6278135048232</v>
       </c>
       <c r="AD3" s="15">
         <f>+IF($A3=1,data!S9,AD$14)</f>
-        <v>0</v>
+        <v>4479</v>
       </c>
       <c r="AE3" s="9">
         <f>+IF($A3=1,IFERROR(AD3/S3,0),AE$14)</f>
-        <v>0</v>
+        <v>11.514138817481</v>
       </c>
       <c r="AF3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(+(data!M9-data!V9)/S3*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>7.1979434447301</v>
       </c>
       <c r="AG3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!U9/data!S9,0),AG$14),0)</f>
@@ -2790,23 +3323,23 @@
       </c>
       <c r="AH3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!T9/data!M9,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.85861182519</v>
       </c>
       <c r="AI3" s="16">
         <f>+IF($A3=1,IFERROR(S3*12/data!AT5,0),AI$14)</f>
-        <v>0</v>
+        <v>2.9638095238095</v>
       </c>
       <c r="AJ3" s="15">
         <f>+IF($A3=1,data!X9,AJ$14)</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="AK3" s="15">
         <f>+IF($A3=1,data!Y9,AK$14)</f>
-        <v>0</v>
+        <v>4954</v>
       </c>
       <c r="AL3" s="9">
         <f>+IF($A3=1,IFERROR(AK3/AJ3,0),AL$14)</f>
-        <v>0</v>
+        <v>11.008888888889</v>
       </c>
       <c r="AM3" s="15">
         <f>+IF($A3=1,data!AB9,AM$14)</f>
@@ -2818,15 +3351,15 @@
       </c>
       <c r="AO3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!Z9/data!X9,0),AO$14),0)</f>
-        <v>0</v>
+        <v>22.344444444444</v>
       </c>
       <c r="AP3" s="9">
         <f>+IF($A3=1,IFERROR(AK3*12/data!AT5,0),AP$14)</f>
-        <v>0</v>
+        <v>37.744761904762</v>
       </c>
       <c r="AR3" s="10">
         <f>+IF(A3=1,data!AU9,0)</f>
-        <v>0</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -2836,7 +3369,7 @@
       </c>
       <c r="B4" s="10" t="str">
         <f>IF(+data!C10&amp;"-"="-",0,+data!C10&amp;"-")</f>
-        <v>2017-3-</v>
+        <v>2020-3-</v>
       </c>
       <c r="C4" s="10">
         <f>IF(A4=1,C3+1,$C$14)</f>
@@ -2844,15 +3377,15 @@
       </c>
       <c r="D4" s="11">
         <f>IFERROR(IF(A4=1,+data!AT10,D$14),0)</f>
-        <v>70</v>
+        <v>3151</v>
       </c>
       <c r="E4" s="11">
         <f>+data!AW10</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F4" s="11">
         <f>+data!AV10</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G4" s="15">
         <f>+IF($A4=1,data!AD10,G$14)</f>
@@ -2864,15 +3397,15 @@
       </c>
       <c r="I4" s="15">
         <f>+IF($A4=1,data!AF10,I$14)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="9">
         <f>+IF($A4=1,IFERROR(I4/D4*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.22215169787369</v>
       </c>
       <c r="K4" s="15">
         <f>+IF($A4=1,data!D10,K$14)</f>
-        <v>70</v>
+        <v>582</v>
       </c>
       <c r="L4" s="15">
         <f>+IF($A4=1,data!F10,L$14)</f>
@@ -2880,55 +3413,55 @@
       </c>
       <c r="M4" s="15">
         <f>+IF($A4=1,data!AH10,M$14)</f>
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="N4" s="18">
         <f>IF(A4=1,+data!I10,$N$14)</f>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="O4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!G10/data!I10,0),O$14),0)</f>
-        <v>0</v>
+        <v>6.5201149425287</v>
       </c>
       <c r="P4" s="9">
         <f>IFERROR(IF($A4=1,IFERROR(data!K10/data!I10*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>84.48275862069</v>
       </c>
       <c r="Q4" s="11">
         <f>IF(A4=1,+data!E10,$Q$14)</f>
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="R4" s="9">
         <f>+IFERROR((K4-Q4)/K4*100,0)</f>
-        <v>85.714285714286</v>
+        <v>84.192439862543</v>
       </c>
       <c r="S4" s="15">
         <f>+IF($A4=1,data!M10,S$14)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="T4" s="15">
         <f>+IF($A4=1,data!N10,T$14)</f>
-        <v>0</v>
+        <v>7152</v>
       </c>
       <c r="U4" s="9">
         <f>+IF($A4=1,IFERROR(+T4/S4,0),U$14)</f>
-        <v>0</v>
+        <v>11.92</v>
       </c>
       <c r="V4" s="15">
         <f>+IF($A4=1,data!O10,V$14)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W4" s="9">
         <f>+IF($A4=1,IFERROR(V4/T4*100,0),W$14)</f>
-        <v>0</v>
+        <v>0.62919463087248</v>
       </c>
       <c r="X4" s="15">
         <f>+IF($A4=1,data!P10,X$14)</f>
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="Y4" s="9">
         <f>+IF($A4=1,IFERROR(X4/T4*100,0),Y$14)</f>
-        <v>0</v>
+        <v>6.4597315436242</v>
       </c>
       <c r="Z4" s="15">
         <f>+IF($A4=1,data!R10,Z$14)</f>
@@ -2940,23 +3473,23 @@
       </c>
       <c r="AB4" s="15">
         <f>+IF($A4=1,data!Q10,AB$14)</f>
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AC4" s="9">
         <f>+IF($A4=1,IFERROR(AB4/T4*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.0346756152125</v>
       </c>
       <c r="AD4" s="15">
         <f>+IF($A4=1,data!S10,AD$14)</f>
-        <v>0</v>
+        <v>6571</v>
       </c>
       <c r="AE4" s="9">
         <f>+IF($A4=1,IFERROR(AD4/S4,0),AE$14)</f>
-        <v>0</v>
+        <v>10.951666666667</v>
       </c>
       <c r="AF4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(+(data!M10-data!V10)/S4*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>9.8333333333333</v>
       </c>
       <c r="AG4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!U10/data!S10,0),AG$14),0)</f>
@@ -2964,23 +3497,23 @@
       </c>
       <c r="AH4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!T10/data!M10,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.375</v>
       </c>
       <c r="AI4" s="16">
         <f>+IF($A4=1,IFERROR(S4*12/data!AT6,0),AI$14)</f>
-        <v>0</v>
+        <v>3.201422854602</v>
       </c>
       <c r="AJ4" s="15">
         <f>+IF($A4=1,data!X10,AJ$14)</f>
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="AK4" s="15">
         <f>+IF($A4=1,data!Y10,AK$14)</f>
-        <v>0</v>
+        <v>4602</v>
       </c>
       <c r="AL4" s="9">
         <f>+IF($A4=1,IFERROR(AK4/AJ4,0),AL$14)</f>
-        <v>0</v>
+        <v>10.62817551963</v>
       </c>
       <c r="AM4" s="15">
         <f>+IF($A4=1,data!AB10,AM$14)</f>
@@ -2992,15 +3525,15 @@
       </c>
       <c r="AO4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!Z10/data!X10,0),AO$14),0)</f>
-        <v>0</v>
+        <v>21.637413394919</v>
       </c>
       <c r="AP4" s="9">
         <f>+IF($A4=1,IFERROR(AK4*12/data!AT6,0),AP$14)</f>
-        <v>0</v>
+        <v>24.554913294798</v>
       </c>
       <c r="AR4" s="10">
         <f>+IF(A4=1,data!AU10,0)</f>
-        <v>0</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -3010,7 +3543,7 @@
       </c>
       <c r="B5" s="10" t="str">
         <f>IF(+data!C11&amp;"-"="-",0,+data!C11&amp;"-")</f>
-        <v>2017-4-</v>
+        <v>2020-4-</v>
       </c>
       <c r="C5" s="10">
         <f>IF(A5=1,C4+1,$C$14)</f>
@@ -3018,35 +3551,35 @@
       </c>
       <c r="D5" s="11">
         <f>IFERROR(IF(A5=1,+data!AT11,D$14),0)</f>
-        <v>244</v>
+        <v>3259</v>
       </c>
       <c r="E5" s="11">
         <f>+data!AW11</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F5" s="11">
         <f>+data!AV11</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15">
         <f>+IF($A5=1,data!AD11,G$14)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" s="9">
         <f>+IF($A5=1,+IFERROR(G5/D5*100,0),H$14)</f>
-        <v>1.2295081967213</v>
+        <v>0.030684258975146</v>
       </c>
       <c r="I5" s="15">
         <f>+IF($A5=1,data!AF11,I$14)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" s="9">
         <f>+IF($A5=1,IFERROR(I5/D5*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.15342129487573</v>
       </c>
       <c r="K5" s="15">
         <f>+IF($A5=1,data!D11,K$14)</f>
-        <v>184</v>
+        <v>707</v>
       </c>
       <c r="L5" s="15">
         <f>+IF($A5=1,data!F11,L$14)</f>
@@ -3054,55 +3587,55 @@
       </c>
       <c r="M5" s="15">
         <f>+IF($A5=1,data!AH11,M$14)</f>
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="N5" s="18">
         <f>IF(A5=1,+data!I11,$N$14)</f>
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="O5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!G11/data!I11,0),O$14),0)</f>
-        <v>0</v>
+        <v>7.4438502673797</v>
       </c>
       <c r="P5" s="9">
         <f>IFERROR(IF($A5=1,IFERROR(data!K11/data!I11*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>76.292335115865</v>
       </c>
       <c r="Q5" s="11">
         <f>IF(A5=1,+data!E11,$Q$14)</f>
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="R5" s="9">
         <f>+IFERROR((K5-Q5)/K5*100,0)</f>
-        <v>85.326086956522</v>
+        <v>83.875530410184</v>
       </c>
       <c r="S5" s="15">
         <f>+IF($A5=1,data!M11,S$14)</f>
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="T5" s="15">
         <f>+IF($A5=1,data!N11,T$14)</f>
-        <v>0</v>
+        <v>7200</v>
       </c>
       <c r="U5" s="9">
         <f>+IF($A5=1,IFERROR(+T5/S5,0),U$14)</f>
-        <v>0</v>
+        <v>11.822660098522</v>
       </c>
       <c r="V5" s="15">
         <f>+IF($A5=1,data!O11,V$14)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="W5" s="9">
         <f>+IF($A5=1,IFERROR(V5/T5*100,0),W$14)</f>
-        <v>0</v>
+        <v>0.63888888888889</v>
       </c>
       <c r="X5" s="15">
         <f>+IF($A5=1,data!P11,X$14)</f>
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="Y5" s="9">
         <f>+IF($A5=1,IFERROR(X5/T5*100,0),Y$14)</f>
-        <v>0</v>
+        <v>7.9305555555556</v>
       </c>
       <c r="Z5" s="15">
         <f>+IF($A5=1,data!R11,Z$14)</f>
@@ -3114,23 +3647,23 @@
       </c>
       <c r="AB5" s="15">
         <f>+IF($A5=1,data!Q11,AB$14)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="9">
         <f>+IF($A5=1,IFERROR(AB5/T5*100,0),AC$14)</f>
-        <v>0</v>
+        <v>0.84722222222222</v>
       </c>
       <c r="AD5" s="15">
         <f>+IF($A5=1,data!S11,AD$14)</f>
-        <v>0</v>
+        <v>6522</v>
       </c>
       <c r="AE5" s="9">
         <f>+IF($A5=1,IFERROR(AD5/S5,0),AE$14)</f>
-        <v>0</v>
+        <v>10.709359605911</v>
       </c>
       <c r="AF5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(+(data!M11-data!V11)/S5*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>9.8522167487685</v>
       </c>
       <c r="AG5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!U11/data!S11,0),AG$14),0)</f>
@@ -3138,23 +3671,23 @@
       </c>
       <c r="AH5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!T11/data!M11,0),AH$14),0)</f>
-        <v>0</v>
+        <v>115.82266009852</v>
       </c>
       <c r="AI5" s="16">
         <f>+IF($A5=1,IFERROR(S5*12/data!AT7,0),AI$14)</f>
-        <v>0</v>
+        <v>2.7723823975721</v>
       </c>
       <c r="AJ5" s="15">
         <f>+IF($A5=1,data!X11,AJ$14)</f>
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="AK5" s="15">
         <f>+IF($A5=1,data!Y11,AK$14)</f>
-        <v>0</v>
+        <v>5935</v>
       </c>
       <c r="AL5" s="9">
         <f>+IF($A5=1,IFERROR(AK5/AJ5,0),AL$14)</f>
-        <v>0</v>
+        <v>10.215146299484</v>
       </c>
       <c r="AM5" s="15">
         <f>+IF($A5=1,data!AB11,AM$14)</f>
@@ -3166,15 +3699,15 @@
       </c>
       <c r="AO5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!Z11/data!X11,0),AO$14),0)</f>
-        <v>0</v>
+        <v>21.722891566265</v>
       </c>
       <c r="AP5" s="9">
         <f>+IF($A5=1,IFERROR(AK5*12/data!AT7,0),AP$14)</f>
-        <v>0</v>
+        <v>27.018209408194</v>
       </c>
       <c r="AR5" s="10">
         <f>+IF(A5=1,data!AU11,0)</f>
-        <v>0</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -3184,7 +3717,7 @@
       </c>
       <c r="B6" s="10" t="str">
         <f>IF(+data!C12&amp;"-"="-",0,+data!C12&amp;"-")</f>
-        <v>2017-5-</v>
+        <v>2020-5-</v>
       </c>
       <c r="C6" s="10">
         <f>IF(A6=1,C5+1,$C$14)</f>
@@ -3192,91 +3725,91 @@
       </c>
       <c r="D6" s="11">
         <f>IFERROR(IF(A6=1,+data!AT12,D$14),0)</f>
-        <v>578</v>
+        <v>3441</v>
       </c>
       <c r="E6" s="11">
         <f>+data!AW12</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F6" s="11">
         <f>+data!AV12</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G6" s="15">
         <f>+IF($A6=1,data!AD12,G$14)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9">
         <f>+IF($A6=1,+IFERROR(G6/D6*100,0),H$14)</f>
-        <v>0.69204152249135</v>
+        <v>0.0290613193839</v>
       </c>
       <c r="I6" s="15">
         <f>+IF($A6=1,data!AF12,I$14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" s="9">
         <f>+IF($A6=1,IFERROR(I6/D6*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.0871839581517</v>
       </c>
       <c r="K6" s="15">
         <f>+IF($A6=1,data!D12,K$14)</f>
-        <v>351</v>
+        <v>787</v>
       </c>
       <c r="L6" s="15">
         <f>+IF($A6=1,data!F12,L$14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="15">
         <f>+IF($A6=1,data!AH12,M$14)</f>
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="N6" s="18">
         <f>IF(A6=1,+data!I12,$N$14)</f>
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="O6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!G12/data!I12,0),O$14),0)</f>
-        <v>0</v>
+        <v>7.1302083333333</v>
       </c>
       <c r="P6" s="9">
         <f>IFERROR(IF($A6=1,IFERROR(data!K12/data!I12*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>84.375</v>
       </c>
       <c r="Q6" s="11">
         <f>IF(A6=1,+data!E12,$Q$14)</f>
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="R6" s="9">
         <f>+IFERROR((K6-Q6)/K6*100,0)</f>
-        <v>87.464387464387</v>
+        <v>88.56416772554</v>
       </c>
       <c r="S6" s="15">
         <f>+IF($A6=1,data!M12,S$14)</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="T6" s="15">
         <f>+IF($A6=1,data!N12,T$14)</f>
-        <v>0</v>
+        <v>5713</v>
       </c>
       <c r="U6" s="9">
         <f>+IF($A6=1,IFERROR(+T6/S6,0),U$14)</f>
-        <v>0</v>
+        <v>12.695555555556</v>
       </c>
       <c r="V6" s="15">
         <f>+IF($A6=1,data!O12,V$14)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="W6" s="9">
         <f>+IF($A6=1,IFERROR(V6/T6*100,0),W$14)</f>
-        <v>0</v>
+        <v>0.64764572028706</v>
       </c>
       <c r="X6" s="15">
         <f>+IF($A6=1,data!P12,X$14)</f>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="Y6" s="9">
         <f>+IF($A6=1,IFERROR(X6/T6*100,0),Y$14)</f>
-        <v>0</v>
+        <v>6.0913705583756</v>
       </c>
       <c r="Z6" s="15">
         <f>+IF($A6=1,data!R12,Z$14)</f>
@@ -3288,23 +3821,23 @@
       </c>
       <c r="AB6" s="15">
         <f>+IF($A6=1,data!Q12,AB$14)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AC6" s="9">
         <f>+IF($A6=1,IFERROR(AB6/T6*100,0),AC$14)</f>
-        <v>0</v>
+        <v>0.85769298092071</v>
       </c>
       <c r="AD6" s="15">
         <f>+IF($A6=1,data!S12,AD$14)</f>
-        <v>0</v>
+        <v>5279</v>
       </c>
       <c r="AE6" s="9">
         <f>+IF($A6=1,IFERROR(AD6/S6,0),AE$14)</f>
-        <v>0</v>
+        <v>11.731111111111</v>
       </c>
       <c r="AF6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(+(data!M12-data!V12)/S6*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>5.1111111111111</v>
       </c>
       <c r="AG6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!U12/data!S12,0),AG$14),0)</f>
@@ -3312,23 +3845,23 @@
       </c>
       <c r="AH6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!T12/data!M12,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.56</v>
       </c>
       <c r="AI6" s="16">
         <f>+IF($A6=1,IFERROR(S6*12/data!AT8,0),AI$14)</f>
-        <v>0</v>
+        <v>1.8900945047252</v>
       </c>
       <c r="AJ6" s="15">
         <f>+IF($A6=1,data!X12,AJ$14)</f>
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="AK6" s="15">
         <f>+IF($A6=1,data!Y12,AK$14)</f>
-        <v>0</v>
+        <v>6450</v>
       </c>
       <c r="AL6" s="9">
         <f>+IF($A6=1,IFERROR(AK6/AJ6,0),AL$14)</f>
-        <v>0</v>
+        <v>11.217391304348</v>
       </c>
       <c r="AM6" s="15">
         <f>+IF($A6=1,data!AB12,AM$14)</f>
@@ -3340,15 +3873,15 @@
       </c>
       <c r="AO6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!Z12/data!X12,0),AO$14),0)</f>
-        <v>0</v>
+        <v>21.645217391304</v>
       </c>
       <c r="AP6" s="9">
         <f>+IF($A6=1,IFERROR(AK6*12/data!AT8,0),AP$14)</f>
-        <v>0</v>
+        <v>27.091354567728</v>
       </c>
       <c r="AR6" s="10">
         <f>+IF(A6=1,data!AU12,0)</f>
-        <v>0</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -3358,7 +3891,7 @@
       </c>
       <c r="B7" s="10" t="str">
         <f>IF(+data!C13&amp;"-"="-",0,+data!C13&amp;"-")</f>
-        <v>2017-6-</v>
+        <v>2020-6-</v>
       </c>
       <c r="C7" s="10">
         <f>IF(A7=1,C6+1,$C$14)</f>
@@ -3366,91 +3899,91 @@
       </c>
       <c r="D7" s="11">
         <f>IFERROR(IF(A7=1,+data!AT13,D$14),0)</f>
-        <v>892</v>
+        <v>3725</v>
       </c>
       <c r="E7" s="11">
         <f>+data!AW13</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F7" s="11">
         <f>+data!AV13</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15">
         <f>+IF($A7=1,data!AD13,G$14)</f>
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="H7" s="9">
         <f>+IF($A7=1,+IFERROR(G7/D7*100,0),H$14)</f>
-        <v>0.44843049327354</v>
+        <v>2.1208053691275</v>
       </c>
       <c r="I7" s="15">
         <f>+IF($A7=1,data!AF13,I$14)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J7" s="9">
         <f>+IF($A7=1,IFERROR(I7/D7*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.29530201342282</v>
       </c>
       <c r="K7" s="15">
         <f>+IF($A7=1,data!D13,K$14)</f>
-        <v>347</v>
+        <v>815</v>
       </c>
       <c r="L7" s="15">
         <f>+IF($A7=1,data!F13,L$14)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M7" s="15">
         <f>+IF($A7=1,data!AH13,M$14)</f>
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="N7" s="18">
         <f>IF(A7=1,+data!I13,$N$14)</f>
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="O7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!G13/data!I13,0),O$14),0)</f>
-        <v>0</v>
+        <v>6.772397094431</v>
       </c>
       <c r="P7" s="9">
         <f>IFERROR(IF($A7=1,IFERROR(data!K13/data!I13*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>80.145278450363</v>
       </c>
       <c r="Q7" s="11">
         <f>IF(A7=1,+data!E13,$Q$14)</f>
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="R7" s="9">
         <f>+IFERROR((K7-Q7)/K7*100,0)</f>
-        <v>87.319884726225</v>
+        <v>89.447852760736</v>
       </c>
       <c r="S7" s="15">
         <f>+IF($A7=1,data!M13,S$14)</f>
-        <v>0</v>
+        <v>455</v>
       </c>
       <c r="T7" s="15">
         <f>+IF($A7=1,data!N13,T$14)</f>
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="U7" s="9">
         <f>+IF($A7=1,IFERROR(+T7/S7,0),U$14)</f>
-        <v>0</v>
+        <v>12.747252747253</v>
       </c>
       <c r="V7" s="15">
         <f>+IF($A7=1,data!O13,V$14)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="W7" s="9">
         <f>+IF($A7=1,IFERROR(V7/T7*100,0),W$14)</f>
-        <v>0</v>
+        <v>0.51724137931034</v>
       </c>
       <c r="X7" s="15">
         <f>+IF($A7=1,data!P13,X$14)</f>
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="Y7" s="9">
         <f>+IF($A7=1,IFERROR(X7/T7*100,0),Y$14)</f>
-        <v>0</v>
+        <v>3.7586206896552</v>
       </c>
       <c r="Z7" s="15">
         <f>+IF($A7=1,data!R13,Z$14)</f>
@@ -3462,23 +3995,23 @@
       </c>
       <c r="AB7" s="15">
         <f>+IF($A7=1,data!Q13,AB$14)</f>
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AC7" s="9">
         <f>+IF($A7=1,IFERROR(AB7/T7*100,0),AC$14)</f>
-        <v>0</v>
+        <v>1.2241379310345</v>
       </c>
       <c r="AD7" s="15">
         <f>+IF($A7=1,data!S13,AD$14)</f>
-        <v>0</v>
+        <v>5481</v>
       </c>
       <c r="AE7" s="9">
         <f>+IF($A7=1,IFERROR(AD7/S7,0),AE$14)</f>
-        <v>0</v>
+        <v>12.046153846154</v>
       </c>
       <c r="AF7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(+(data!M13-data!V13)/S7*100,0),AF$14),0)</f>
-        <v>0</v>
+        <v>1.978021978022</v>
       </c>
       <c r="AG7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!U13/data!S13,0),AG$14),0)</f>
@@ -3486,23 +4019,23 @@
       </c>
       <c r="AH7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!T13/data!M13,0),AH$14),0)</f>
-        <v>0</v>
+        <v>116.56923076923</v>
       </c>
       <c r="AI7" s="16">
         <f>+IF($A7=1,IFERROR(S7*12/data!AT9,0),AI$14)</f>
-        <v>0</v>
+        <v>1.8521031207598</v>
       </c>
       <c r="AJ7" s="15">
         <f>+IF($A7=1,data!X13,AJ$14)</f>
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="AK7" s="15">
         <f>+IF($A7=1,data!Y13,AK$14)</f>
-        <v>0</v>
+        <v>4848</v>
       </c>
       <c r="AL7" s="9">
         <f>+IF($A7=1,IFERROR(AK7/AJ7,0),AL$14)</f>
-        <v>0</v>
+        <v>11.598086124402</v>
       </c>
       <c r="AM7" s="15">
         <f>+IF($A7=1,data!AB13,AM$14)</f>
@@ -3514,15 +4047,15 @@
       </c>
       <c r="AO7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!Z13/data!X13,0),AO$14),0)</f>
-        <v>0</v>
+        <v>22.710526315789</v>
       </c>
       <c r="AP7" s="9">
         <f>+IF($A7=1,IFERROR(AK7*12/data!AT9,0),AP$14)</f>
-        <v>0</v>
+        <v>19.734056987788</v>
       </c>
       <c r="AR7" s="10">
         <f>+IF(A7=1,data!AU13,0)</f>
-        <v>0</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -3532,7 +4065,7 @@
       </c>
       <c r="B8" s="10" t="str">
         <f>IF(+data!C14&amp;"-"="-",0,+data!C14&amp;"-")</f>
-        <v>2017-7-</v>
+        <v>2020-7-</v>
       </c>
       <c r="C8" s="10">
         <f>IF(A8=1,C7+1,$C$14)</f>
@@ -3540,143 +4073,143 @@
       </c>
       <c r="D8" s="11">
         <f>IFERROR(IF(A8=1,+data!AT14,D$14),0)</f>
-        <v>911</v>
+        <v>4191</v>
       </c>
       <c r="E8" s="11">
         <f>+data!AW14</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F8" s="11">
         <f>+data!AV14</f>
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="G8" s="15">
         <f>+IF($A8=1,data!AD14,G$14)</f>
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="H8" s="9">
         <f>+IF($A8=1,+IFERROR(G8/D8*100,0),H$14)</f>
-        <v>0.98792535675082</v>
+        <v>1.9565736101169</v>
       </c>
       <c r="I8" s="15">
         <f>+IF($A8=1,data!AF14,I$14)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J8" s="9">
         <f>+IF($A8=1,IFERROR(I8/D8*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.26246719160105</v>
       </c>
       <c r="K8" s="15">
         <f>+IF($A8=1,data!D14,K$14)</f>
-        <v>50</v>
+        <v>977</v>
       </c>
       <c r="L8" s="15">
         <f>+IF($A8=1,data!F14,L$14)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8" s="15">
         <f>+IF($A8=1,data!AH14,M$14)</f>
-        <v>28</v>
+        <v>559</v>
       </c>
       <c r="N8" s="18">
         <f>IF(A8=1,+data!I14,$N$14)</f>
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="O8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!G14/data!I14,0),O$14),0)</f>
-        <v>0</v>
+        <v>5.59375</v>
       </c>
       <c r="P8" s="9">
         <f>IFERROR(IF($A8=1,IFERROR(data!K14/data!I14*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>87.239583333333</v>
       </c>
       <c r="Q8" s="11">
         <f>IF(A8=1,+data!E14,$Q$14)</f>
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="R8" s="9">
         <f>+IFERROR((K8-Q8)/K8*100,0)</f>
-        <v>74</v>
+        <v>91.402251791198</v>
       </c>
       <c r="S8" s="15">
         <f>+IF($A8=1,data!M14,S$14)</f>
-        <v>104</v>
+        <v>573</v>
       </c>
       <c r="T8" s="15">
         <f>+IF($A8=1,data!N14,T$14)</f>
-        <v>1259</v>
+        <v>7154</v>
       </c>
       <c r="U8" s="9">
         <f>+IF($A8=1,IFERROR(+T8/S8,0),U$14)</f>
-        <v>12.105769230769</v>
+        <v>12.485165794066</v>
       </c>
       <c r="V8" s="15">
         <f>+IF($A8=1,data!O14,V$14)</f>
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="W8" s="9">
         <f>+IF($A8=1,IFERROR(V8/T8*100,0),W$14)</f>
-        <v>0.95313741064337</v>
+        <v>0.43332401453732</v>
       </c>
       <c r="X8" s="15">
         <f>+IF($A8=1,data!P14,X$14)</f>
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="Y8" s="9">
         <f>+IF($A8=1,IFERROR(X8/T8*100,0),Y$14)</f>
-        <v>1.9857029388403</v>
+        <v>3.5504612804026</v>
       </c>
       <c r="Z8" s="15">
         <f>+IF($A8=1,data!R14,Z$14)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="15">
         <f>+IF($A8=1,IFERROR(Z8/T8*100,0),AA$14)</f>
-        <v>1.9062748212867</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="15">
         <f>+IF($A8=1,data!Q14,AB$14)</f>
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="AC8" s="9">
         <f>+IF($A8=1,IFERROR(AB8/T8*100,0),AC$14)</f>
-        <v>0.71485305798253</v>
+        <v>1.9010343863573</v>
       </c>
       <c r="AD8" s="15">
         <f>+IF($A8=1,data!S14,AD$14)</f>
-        <v>1189</v>
+        <v>6733</v>
       </c>
       <c r="AE8" s="9">
         <f>+IF($A8=1,IFERROR(AD8/S8,0),AE$14)</f>
-        <v>11.432692307692</v>
+        <v>11.750436300175</v>
       </c>
       <c r="AF8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(+(data!M14-data!V14)/S8*100,0),AF$14),0)</f>
-        <v>7.6923076923077</v>
+        <v>5.9336823734729</v>
       </c>
       <c r="AG8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!U14/data!S14,0),AG$14),0)</f>
-        <v>0.12600504625736</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!T14/data!M14,0),AH$14),0)</f>
-        <v>116.35576923077</v>
+        <v>116.61605584642</v>
       </c>
       <c r="AI8" s="16">
         <f>+IF($A8=1,IFERROR(S8*12/data!AT10,0),AI$14)</f>
-        <v>17.828571428571</v>
+        <v>2.1821643922564</v>
       </c>
       <c r="AJ8" s="15">
         <f>+IF($A8=1,data!X14,AJ$14)</f>
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="AK8" s="15">
         <f>+IF($A8=1,data!Y14,AK$14)</f>
-        <v>0</v>
+        <v>5577</v>
       </c>
       <c r="AL8" s="9">
         <f>+IF($A8=1,IFERROR(AK8/AJ8,0),AL$14)</f>
-        <v>0</v>
+        <v>11.451745379877</v>
       </c>
       <c r="AM8" s="15">
         <f>+IF($A8=1,data!AB14,AM$14)</f>
@@ -3688,15 +4221,15 @@
       </c>
       <c r="AO8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!Z14/data!X14,0),AO$14),0)</f>
-        <v>0</v>
+        <v>22.519507186858</v>
       </c>
       <c r="AP8" s="9">
         <f>+IF($A8=1,IFERROR(AK8*12/data!AT10,0),AP$14)</f>
-        <v>0</v>
+        <v>21.238971754998</v>
       </c>
       <c r="AR8" s="10">
         <f>+IF(A8=1,data!AU14,0)</f>
-        <v>70</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -3706,7 +4239,7 @@
       </c>
       <c r="B9" s="10" t="str">
         <f>IF(+data!C15&amp;"-"="-",0,+data!C15&amp;"-")</f>
-        <v>2017-8-</v>
+        <v>2020-8-</v>
       </c>
       <c r="C9" s="10">
         <f>IF(A9=1,C8+1,$C$14)</f>
@@ -3714,143 +4247,143 @@
       </c>
       <c r="D9" s="11">
         <f>IFERROR(IF(A9=1,+data!AT15,D$14),0)</f>
-        <v>914</v>
+        <v>4276</v>
       </c>
       <c r="E9" s="11">
         <f>+data!AW15</f>
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F9" s="11">
         <f>+data!AV15</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G9" s="15">
         <f>+IF($A9=1,data!AD15,G$14)</f>
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H9" s="9">
         <f>+IF($A9=1,+IFERROR(G9/D9*100,0),H$14)</f>
-        <v>1.0940919037199</v>
+        <v>2.5491113189897</v>
       </c>
       <c r="I9" s="15">
         <f>+IF($A9=1,data!AF15,I$14)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J9" s="9">
         <f>+IF($A9=1,IFERROR(I9/D9*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.30402245088868</v>
       </c>
       <c r="K9" s="15">
         <f>+IF($A9=1,data!D15,K$14)</f>
-        <v>132</v>
+        <v>788</v>
       </c>
       <c r="L9" s="15">
         <f>+IF($A9=1,data!F15,L$14)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M9" s="15">
         <f>+IF($A9=1,data!AH15,M$14)</f>
-        <v>13</v>
+        <v>207</v>
       </c>
       <c r="N9" s="18">
         <f>IF(A9=1,+data!I15,$N$14)</f>
-        <v>1</v>
+        <v>530</v>
       </c>
       <c r="O9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!G15/data!I15,0),O$14),0)</f>
-        <v>1</v>
+        <v>6.9943396226415</v>
       </c>
       <c r="P9" s="9">
         <f>IFERROR(IF($A9=1,IFERROR(data!K15/data!I15*100,0),P$14),0)</f>
-        <v>100</v>
+        <v>81.509433962264</v>
       </c>
       <c r="Q9" s="11">
         <f>IF(A9=1,+data!E15,$Q$14)</f>
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="R9" s="9">
         <f>+IFERROR((K9-Q9)/K9*100,0)</f>
-        <v>87.121212121212</v>
+        <v>90.482233502538</v>
       </c>
       <c r="S9" s="15">
         <f>+IF($A9=1,data!M15,S$14)</f>
-        <v>171</v>
+        <v>563</v>
       </c>
       <c r="T9" s="15">
         <f>+IF($A9=1,data!N15,T$14)</f>
-        <v>2157</v>
+        <v>7143</v>
       </c>
       <c r="U9" s="9">
         <f>+IF($A9=1,IFERROR(+T9/S9,0),U$14)</f>
-        <v>12.614035087719</v>
+        <v>12.687388987567</v>
       </c>
       <c r="V9" s="15">
         <f>+IF($A9=1,data!O15,V$14)</f>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="W9" s="9">
         <f>+IF($A9=1,IFERROR(V9/T9*100,0),W$14)</f>
-        <v>1.6226240148354</v>
+        <v>0.75598488030239</v>
       </c>
       <c r="X9" s="15">
         <f>+IF($A9=1,data!P15,X$14)</f>
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="Y9" s="9">
         <f>+IF($A9=1,IFERROR(X9/T9*100,0),Y$14)</f>
-        <v>0.64904960593417</v>
+        <v>2.4639507209856</v>
       </c>
       <c r="Z9" s="15">
         <f>+IF($A9=1,data!R15,Z$14)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="15">
         <f>+IF($A9=1,IFERROR(Z9/T9*100,0),AA$14)</f>
-        <v>2.8280018544274</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="15">
         <f>+IF($A9=1,data!Q15,AB$14)</f>
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="AC9" s="9">
         <f>+IF($A9=1,IFERROR(AB9/T9*100,0),AC$14)</f>
-        <v>1.7153453871117</v>
+        <v>1.9179616407672</v>
       </c>
       <c r="AD9" s="15">
         <f>+IF($A9=1,data!S15,AD$14)</f>
-        <v>2010</v>
+        <v>6776</v>
       </c>
       <c r="AE9" s="9">
         <f>+IF($A9=1,IFERROR(AD9/S9,0),AE$14)</f>
-        <v>11.754385964912</v>
+        <v>12.035523978686</v>
       </c>
       <c r="AF9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(+(data!M15-data!V15)/S9*100,0),AF$14),0)</f>
-        <v>4.6783625730994</v>
+        <v>3.5523978685613</v>
       </c>
       <c r="AG9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!U15/data!S15,0),AG$14),0)</f>
-        <v>0.11965174129353</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!T15/data!M15,0),AH$14),0)</f>
-        <v>116.76023391813</v>
+        <v>116.66252220249</v>
       </c>
       <c r="AI9" s="16">
         <f>+IF($A9=1,IFERROR(S9*12/data!AT11,0),AI$14)</f>
-        <v>8.4098360655738</v>
+        <v>2.0730285363608</v>
       </c>
       <c r="AJ9" s="15">
         <f>+IF($A9=1,data!X15,AJ$14)</f>
-        <v>128</v>
+        <v>529</v>
       </c>
       <c r="AK9" s="15">
         <f>+IF($A9=1,data!Y15,AK$14)</f>
-        <v>1387</v>
+        <v>5959</v>
       </c>
       <c r="AL9" s="9">
         <f>+IF($A9=1,IFERROR(AK9/AJ9,0),AL$14)</f>
-        <v>10.8359375</v>
+        <v>11.264650283554</v>
       </c>
       <c r="AM9" s="15">
         <f>+IF($A9=1,data!AB15,AM$14)</f>
@@ -3862,15 +4395,15 @@
       </c>
       <c r="AO9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!Z15/data!X15,0),AO$14),0)</f>
-        <v>23.421875</v>
+        <v>22.646502835539</v>
       </c>
       <c r="AP9" s="9">
         <f>+IF($A9=1,IFERROR(AK9*12/data!AT11,0),AP$14)</f>
-        <v>68.213114754098</v>
+        <v>21.941699907947</v>
       </c>
       <c r="AR9" s="10">
         <f>+IF(A9=1,data!AU15,0)</f>
-        <v>244</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -3880,7 +4413,7 @@
       </c>
       <c r="B10" s="10" t="str">
         <f>IF(+data!C16&amp;"-"="-",0,+data!C16&amp;"-")</f>
-        <v>2017-9-</v>
+        <v>2020-9-</v>
       </c>
       <c r="C10" s="10">
         <f>IF(A10=1,C9+1,$C$14)</f>
@@ -3888,163 +4421,163 @@
       </c>
       <c r="D10" s="11">
         <f>IFERROR(IF(A10=1,+data!AT16,D$14),0)</f>
-        <v>955</v>
+        <v>4339</v>
       </c>
       <c r="E10" s="11">
         <f>+data!AW16</f>
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F10" s="11">
         <f>+data!AV16</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G10" s="15">
         <f>+IF($A10=1,data!AD16,G$14)</f>
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="H10" s="9">
         <f>+IF($A10=1,+IFERROR(G10/D10*100,0),H$14)</f>
-        <v>3.0366492146597</v>
+        <v>2.9499884766075</v>
       </c>
       <c r="I10" s="15">
         <f>+IF($A10=1,data!AF16,I$14)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J10" s="9">
         <f>+IF($A10=1,IFERROR(I10/D10*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.27656141968195</v>
       </c>
       <c r="K10" s="15">
         <f>+IF($A10=1,data!D16,K$14)</f>
-        <v>247</v>
+        <v>797</v>
       </c>
       <c r="L10" s="15">
         <f>+IF($A10=1,data!F16,L$14)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="M10" s="15">
         <f>+IF($A10=1,data!AH16,M$14)</f>
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="N10" s="18">
         <f>IF(A10=1,+data!I16,$N$14)</f>
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="O10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!G16/data!I16,0),O$14),0)</f>
-        <v>0</v>
+        <v>8.2880184331797</v>
       </c>
       <c r="P10" s="9">
         <f>IFERROR(IF($A10=1,IFERROR(data!K16/data!I16*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>73.502304147465</v>
       </c>
       <c r="Q10" s="11">
         <f>IF(A10=1,+data!E16,$Q$14)</f>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="R10" s="9">
         <f>+IFERROR((K10-Q10)/K10*100,0)</f>
-        <v>87.044534412955</v>
+        <v>90.0878293601</v>
       </c>
       <c r="S10" s="15">
         <f>+IF($A10=1,data!M16,S$14)</f>
-        <v>337</v>
+        <v>630</v>
       </c>
       <c r="T10" s="15">
         <f>+IF($A10=1,data!N16,T$14)</f>
-        <v>4182</v>
+        <v>7996</v>
       </c>
       <c r="U10" s="9">
         <f>+IF($A10=1,IFERROR(+T10/S10,0),U$14)</f>
-        <v>12.409495548961</v>
+        <v>12.692063492063</v>
       </c>
       <c r="V10" s="15">
         <f>+IF($A10=1,data!O16,V$14)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W10" s="9">
         <f>+IF($A10=1,IFERROR(V10/T10*100,0),W$14)</f>
-        <v>1.3868962219034</v>
+        <v>0.77538769384692</v>
       </c>
       <c r="X10" s="15">
         <f>+IF($A10=1,data!P16,X$14)</f>
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="Y10" s="9">
         <f>+IF($A10=1,IFERROR(X10/T10*100,0),Y$14)</f>
-        <v>0.6934481109517</v>
+        <v>2.3636818409205</v>
       </c>
       <c r="Z10" s="15">
         <f>+IF($A10=1,data!R16,Z$14)</f>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="15">
         <f>+IF($A10=1,IFERROR(Z10/T10*100,0),AA$14)</f>
-        <v>1.6260162601626</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="15">
         <f>+IF($A10=1,data!Q16,AB$14)</f>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AC10" s="9">
         <f>+IF($A10=1,IFERROR(AB10/T10*100,0),AC$14)</f>
-        <v>1.3390722142516</v>
+        <v>0.92546273136568</v>
       </c>
       <c r="AD10" s="15">
         <f>+IF($A10=1,data!S16,AD$14)</f>
-        <v>3971</v>
+        <v>7671</v>
       </c>
       <c r="AE10" s="9">
         <f>+IF($A10=1,IFERROR(AD10/S10,0),AE$14)</f>
-        <v>11.783382789318</v>
+        <v>12.17619047619</v>
       </c>
       <c r="AF10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(+(data!M16-data!V16)/S10*100,0),AF$14),0)</f>
-        <v>1.186943620178</v>
+        <v>7.1428571428571</v>
       </c>
       <c r="AG10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!U16/data!S16,0),AG$14),0)</f>
-        <v>0.12093427348275</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!T16/data!M16,0),AH$14),0)</f>
-        <v>116.81602373887</v>
+        <v>117.00952380952</v>
       </c>
       <c r="AI10" s="16">
         <f>+IF($A10=1,IFERROR(S10*12/data!AT12,0),AI$14)</f>
-        <v>6.9965397923875</v>
+        <v>2.1970357454228</v>
       </c>
       <c r="AJ10" s="15">
         <f>+IF($A10=1,data!X16,AJ$14)</f>
-        <v>202</v>
+        <v>549</v>
       </c>
       <c r="AK10" s="15">
         <f>+IF($A10=1,data!Y16,AK$14)</f>
-        <v>2239</v>
+        <v>6123</v>
       </c>
       <c r="AL10" s="9">
         <f>+IF($A10=1,IFERROR(AK10/AJ10,0),AL$14)</f>
-        <v>11.084158415842</v>
+        <v>11.153005464481</v>
       </c>
       <c r="AM10" s="15">
         <f>+IF($A10=1,data!AB16,AM$14)</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="AN10" s="9">
         <f>+IF($A10=1,IFERROR(AM10/AD10*100,0),AN$14)</f>
-        <v>0</v>
+        <v>1.8902359535914</v>
       </c>
       <c r="AO10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!Z16/data!X16,0),AO$14),0)</f>
-        <v>23.079207920792</v>
+        <v>23.865209471767</v>
       </c>
       <c r="AP10" s="9">
         <f>+IF($A10=1,IFERROR(AK10*12/data!AT12,0),AP$14)</f>
-        <v>46.484429065744</v>
+        <v>21.353095030514</v>
       </c>
       <c r="AR10" s="10">
         <f>+IF(A10=1,data!AU16,0)</f>
-        <v>578</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4054,7 +4587,7 @@
       </c>
       <c r="B11" s="10" t="str">
         <f>IF(+data!C17&amp;"-"="-",0,+data!C17&amp;"-")</f>
-        <v>2017-9-10-</v>
+        <v>2020-9-10-</v>
       </c>
       <c r="C11" s="10">
         <f>IF(A11=1,C10+1,$C$14)</f>
@@ -4062,163 +4595,163 @@
       </c>
       <c r="D11" s="11">
         <f>IFERROR(IF(A11=1,+data!AT17,D$14),0)</f>
-        <v>1007</v>
+        <v>4641</v>
       </c>
       <c r="E11" s="11">
         <f>+data!AW17</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" s="11">
         <f>+data!AV17</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G11" s="15">
         <f>+IF($A11=1,data!AD17,G$14)</f>
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="H11" s="9">
         <f>+IF($A11=1,+IFERROR(G11/D11*100,0),H$14)</f>
-        <v>2.3833167825223</v>
+        <v>2.1762551174316</v>
       </c>
       <c r="I11" s="15">
         <f>+IF($A11=1,data!AF17,I$14)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J11" s="9">
         <f>+IF($A11=1,IFERROR(I11/D11*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.34475328592976</v>
       </c>
       <c r="K11" s="15">
         <f>+IF($A11=1,data!D17,K$14)</f>
-        <v>407</v>
+        <v>1060</v>
       </c>
       <c r="L11" s="15">
         <f>+IF($A11=1,data!F17,L$14)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M11" s="15">
         <f>+IF($A11=1,data!AH17,M$14)</f>
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="N11" s="18">
         <f>IF(A11=1,+data!I17,$N$14)</f>
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="O11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!G17/data!I17,0),O$14),0)</f>
-        <v>0</v>
+        <v>5.2327447833066</v>
       </c>
       <c r="P11" s="9">
         <f>IFERROR(IF($A11=1,IFERROR(data!K17/data!I17*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>85.232744783307</v>
       </c>
       <c r="Q11" s="11">
         <f>IF(A11=1,+data!E17,$Q$14)</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R11" s="9">
         <f>+IFERROR((K11-Q11)/K11*100,0)</f>
-        <v>81.326781326781</v>
+        <v>92.924528301887</v>
       </c>
       <c r="S11" s="15">
         <f>+IF($A11=1,data!M17,S$14)</f>
-        <v>232</v>
+        <v>812</v>
       </c>
       <c r="T11" s="15">
         <f>+IF($A11=1,data!N17,T$14)</f>
-        <v>2992</v>
+        <v>10436</v>
       </c>
       <c r="U11" s="9">
         <f>+IF($A11=1,IFERROR(+T11/S11,0),U$14)</f>
-        <v>12.896551724138</v>
+        <v>12.852216748768</v>
       </c>
       <c r="V11" s="15">
         <f>+IF($A11=1,data!O17,V$14)</f>
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="W11" s="9">
         <f>+IF($A11=1,IFERROR(V11/T11*100,0),W$14)</f>
-        <v>2.072192513369</v>
+        <v>0.50785741663473</v>
       </c>
       <c r="X11" s="15">
         <f>+IF($A11=1,data!P17,X$14)</f>
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="Y11" s="9">
         <f>+IF($A11=1,IFERROR(X11/T11*100,0),Y$14)</f>
-        <v>1.0026737967914</v>
+        <v>2.318896128785</v>
       </c>
       <c r="Z11" s="15">
         <f>+IF($A11=1,data!R17,Z$14)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="15">
         <f>+IF($A11=1,IFERROR(Z11/T11*100,0),AA$14)</f>
-        <v>2.0053475935829</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="15">
         <f>+IF($A11=1,data!Q17,AB$14)</f>
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="AC11" s="9">
         <f>+IF($A11=1,IFERROR(AB11/T11*100,0),AC$14)</f>
-        <v>1.5374331550802</v>
+        <v>0.96780375622844</v>
       </c>
       <c r="AD11" s="15">
         <f>+IF($A11=1,data!S17,AD$14)</f>
-        <v>2794</v>
+        <v>10040</v>
       </c>
       <c r="AE11" s="9">
         <f>+IF($A11=1,IFERROR(AD11/S11,0),AE$14)</f>
-        <v>12.043103448276</v>
+        <v>12.364532019704</v>
       </c>
       <c r="AF11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(+(data!M17-data!V17)/S11*100,0),AF$14),0)</f>
-        <v>1.2931034482759</v>
+        <v>6.2807881773399</v>
       </c>
       <c r="AG11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!U17/data!S17,0),AG$14),0)</f>
-        <v>0.13875805297065</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!T17/data!M17,0),AH$14),0)</f>
-        <v>116.95689655172</v>
+        <v>117.0184729064</v>
       </c>
       <c r="AI11" s="16">
         <f>+IF($A11=1,IFERROR(S11*12/data!AT13,0),AI$14)</f>
-        <v>3.1210762331839</v>
+        <v>2.6158389261745</v>
       </c>
       <c r="AJ11" s="15">
         <f>+IF($A11=1,data!X17,AJ$14)</f>
-        <v>331</v>
+        <v>622</v>
       </c>
       <c r="AK11" s="15">
         <f>+IF($A11=1,data!Y17,AK$14)</f>
-        <v>3596</v>
+        <v>6957</v>
       </c>
       <c r="AL11" s="9">
         <f>+IF($A11=1,IFERROR(AK11/AJ11,0),AL$14)</f>
-        <v>10.864048338369</v>
+        <v>11.184887459807</v>
       </c>
       <c r="AM11" s="15">
         <f>+IF($A11=1,data!AB17,AM$14)</f>
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AN11" s="9">
         <f>+IF($A11=1,IFERROR(AM11/AD11*100,0),AN$14)</f>
-        <v>0</v>
+        <v>4.402390438247</v>
       </c>
       <c r="AO11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!Z17/data!X17,0),AO$14),0)</f>
-        <v>23.296072507553</v>
+        <v>22.808681672026</v>
       </c>
       <c r="AP11" s="9">
         <f>+IF($A11=1,IFERROR(AK11*12/data!AT13,0),AP$14)</f>
-        <v>48.37668161435</v>
+        <v>22.411812080537</v>
       </c>
       <c r="AR11" s="10">
         <f>+IF(A11=1,data!AU17,0)</f>
-        <v>892</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -4228,7 +4761,7 @@
       </c>
       <c r="B12" s="10" t="str">
         <f>IF(+data!C18&amp;"-"="-",0,+data!C18&amp;"-")</f>
-        <v>2017-9-11-</v>
+        <v>2020-9-11-</v>
       </c>
       <c r="C12" s="10">
         <f>IF(A12=1,C11+1,$C$14)</f>
@@ -4236,7 +4769,7 @@
       </c>
       <c r="D12" s="11">
         <f>IFERROR(IF(A12=1,+data!AT18,D$14),0)</f>
-        <v>1088</v>
+        <v>4865</v>
       </c>
       <c r="E12" s="11">
         <f>+data!AW18</f>
@@ -4244,155 +4777,155 @@
       </c>
       <c r="F12" s="11">
         <f>+data!AV18</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G12" s="15">
         <f>+IF($A12=1,data!AD18,G$14)</f>
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="H12" s="9">
         <f>+IF($A12=1,+IFERROR(G12/D12*100,0),H$14)</f>
-        <v>1.4705882352941</v>
+        <v>1.6855087358684</v>
       </c>
       <c r="I12" s="15">
         <f>+IF($A12=1,data!AF18,I$14)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J12" s="9">
         <f>+IF($A12=1,IFERROR(I12/D12*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.18499486125385</v>
       </c>
       <c r="K12" s="15">
         <f>+IF($A12=1,data!D18,K$14)</f>
-        <v>371</v>
+        <v>1027</v>
       </c>
       <c r="L12" s="15">
         <f>+IF($A12=1,data!F18,L$14)</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M12" s="15">
         <f>+IF($A12=1,data!AH18,M$14)</f>
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="N12" s="18">
         <f>IF(A12=1,+data!I18,$N$14)</f>
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="O12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!G18/data!I18,0),O$14),0)</f>
-        <v>0</v>
+        <v>4.9046898638427</v>
       </c>
       <c r="P12" s="9">
         <f>IFERROR(IF($A12=1,IFERROR(data!K18/data!I18*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>91.981845688351</v>
       </c>
       <c r="Q12" s="11">
         <f>IF(A12=1,+data!E18,$Q$14)</f>
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="R12" s="9">
         <f>+IFERROR((K12-Q12)/K12*100,0)</f>
-        <v>80.592991913747</v>
+        <v>91.139240506329</v>
       </c>
       <c r="S12" s="15">
         <f>+IF($A12=1,data!M18,S$14)</f>
-        <v>22</v>
+        <v>827</v>
       </c>
       <c r="T12" s="15">
         <f>+IF($A12=1,data!N18,T$14)</f>
-        <v>283</v>
+        <v>10611</v>
       </c>
       <c r="U12" s="9">
         <f>+IF($A12=1,IFERROR(+T12/S12,0),U$14)</f>
-        <v>12.863636363636</v>
+        <v>12.830713422007</v>
       </c>
       <c r="V12" s="15">
         <f>+IF($A12=1,data!O18,V$14)</f>
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="W12" s="9">
         <f>+IF($A12=1,IFERROR(V12/T12*100,0),W$14)</f>
-        <v>0.35335689045936</v>
+        <v>0.49005748751296</v>
       </c>
       <c r="X12" s="15">
         <f>+IF($A12=1,data!P18,X$14)</f>
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="Y12" s="9">
         <f>+IF($A12=1,IFERROR(X12/T12*100,0),Y$14)</f>
-        <v>1.0600706713781</v>
+        <v>1.7057770238432</v>
       </c>
       <c r="Z12" s="15">
         <f>+IF($A12=1,data!R18,Z$14)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="15">
         <f>+IF($A12=1,IFERROR(Z12/T12*100,0),AA$14)</f>
-        <v>3.886925795053</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="15">
         <f>+IF($A12=1,data!Q18,AB$14)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="AC12" s="9">
         <f>+IF($A12=1,IFERROR(AB12/T12*100,0),AC$14)</f>
-        <v>0</v>
+        <v>0.99896333993026</v>
       </c>
       <c r="AD12" s="15">
         <f>+IF($A12=1,data!S18,AD$14)</f>
-        <v>268</v>
+        <v>10272</v>
       </c>
       <c r="AE12" s="9">
         <f>+IF($A12=1,IFERROR(AD12/S12,0),AE$14)</f>
-        <v>12.181818181818</v>
+        <v>12.420798065296</v>
       </c>
       <c r="AF12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(+(data!M18-data!V18)/S12*100,0),AF$14),0)</f>
-        <v>4.5454545454545</v>
+        <v>5.4413542926239</v>
       </c>
       <c r="AG12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!U18/data!S18,0),AG$14),0)</f>
-        <v>0.11902985074627</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!T18/data!M18,0),AH$14),0)</f>
-        <v>116.31818181818</v>
+        <v>118.19467956469</v>
       </c>
       <c r="AI12" s="16">
         <f>+IF($A12=1,IFERROR(S12*12/data!AT14,0),AI$14)</f>
-        <v>0.28979143798024</v>
+        <v>2.3679312813171</v>
       </c>
       <c r="AJ12" s="15">
         <f>+IF($A12=1,data!X18,AJ$14)</f>
-        <v>154</v>
+        <v>685</v>
       </c>
       <c r="AK12" s="15">
         <f>+IF($A12=1,data!Y18,AK$14)</f>
-        <v>1815</v>
+        <v>7799</v>
       </c>
       <c r="AL12" s="9">
         <f>+IF($A12=1,IFERROR(AK12/AJ12,0),AL$14)</f>
-        <v>11.785714285714</v>
+        <v>11.385401459854</v>
       </c>
       <c r="AM12" s="15">
         <f>+IF($A12=1,data!AB18,AM$14)</f>
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="AN12" s="9">
         <f>+IF($A12=1,IFERROR(AM12/AD12*100,0),AN$14)</f>
-        <v>0</v>
+        <v>4.5560747663551</v>
       </c>
       <c r="AO12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!Z18/data!X18,0),AO$14),0)</f>
-        <v>26.454545454545</v>
+        <v>23.47299270073</v>
       </c>
       <c r="AP12" s="9">
         <f>+IF($A12=1,IFERROR(AK12*12/data!AT14,0),AP$14)</f>
-        <v>23.90779363337</v>
+        <v>22.330708661417</v>
       </c>
       <c r="AR12" s="10">
         <f>+IF(A12=1,data!AU18,0)</f>
-        <v>911</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -4402,7 +4935,7 @@
       </c>
       <c r="B13" s="10" t="str">
         <f>IF(+data!C19&amp;"-"="-",0,+data!C19&amp;"-")</f>
-        <v>2017-9-12-</v>
+        <v>2020-9-12-</v>
       </c>
       <c r="C13" s="10">
         <f>IF(A13=1,C12+1,$C$14)</f>
@@ -4410,163 +4943,163 @@
       </c>
       <c r="D13" s="11">
         <f>IFERROR(IF(A13=1,+data!AT19,D$14),0)</f>
-        <v>1167</v>
+        <v>5041</v>
       </c>
       <c r="E13" s="11">
         <f>+data!AW19</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F13" s="11">
         <f>+data!AV19</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G13" s="15">
         <f>+IF($A13=1,data!AD19,G$14)</f>
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="H13" s="9">
         <f>+IF($A13=1,+IFERROR(G13/D13*100,0),H$14)</f>
-        <v>0.85689802913453</v>
+        <v>1.44812537195</v>
       </c>
       <c r="I13" s="15">
         <f>+IF($A13=1,data!AF19,I$14)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J13" s="9">
         <f>+IF($A13=1,IFERROR(I13/D13*100,0),J$14)</f>
-        <v>0</v>
+        <v>0.1388613370363</v>
       </c>
       <c r="K13" s="15">
         <f>+IF($A13=1,data!D19,K$14)</f>
-        <v>136</v>
+        <v>1143</v>
       </c>
       <c r="L13" s="15">
         <f>+IF($A13=1,data!F19,L$14)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="M13" s="15">
         <f>+IF($A13=1,data!AH19,M$14)</f>
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="N13" s="18">
         <f>IF(A13=1,+data!I19,$N$14)</f>
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="O13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!G19/data!I19,0),O$14),0)</f>
-        <v>0</v>
+        <v>5.1547762998791</v>
       </c>
       <c r="P13" s="9">
         <f>IFERROR(IF($A13=1,IFERROR(data!K19/data!I19*100,0),P$14),0)</f>
-        <v>0</v>
+        <v>91.051995163241</v>
       </c>
       <c r="Q13" s="11">
         <f>IF(A13=1,+data!E19,$Q$14)</f>
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="R13" s="9">
         <f>+IFERROR((K13-Q13)/K13*100,0)</f>
-        <v>84.558823529412</v>
+        <v>96.587926509186</v>
       </c>
       <c r="S13" s="15">
         <f>+IF($A13=1,data!M19,S$14)</f>
-        <v>150</v>
+        <v>688</v>
       </c>
       <c r="T13" s="15">
         <f>+IF($A13=1,data!N19,T$14)</f>
-        <v>1746</v>
+        <v>8772</v>
       </c>
       <c r="U13" s="9">
         <f>+IF($A13=1,IFERROR(+T13/S13,0),U$14)</f>
-        <v>11.64</v>
+        <v>12.75</v>
       </c>
       <c r="V13" s="15">
         <f>+IF($A13=1,data!O19,V$14)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="W13" s="9">
         <f>+IF($A13=1,IFERROR(V13/T13*100,0),W$14)</f>
-        <v>1.3172966781214</v>
+        <v>0.1937984496124</v>
       </c>
       <c r="X13" s="15">
         <f>+IF($A13=1,data!P19,X$14)</f>
-        <v>9</v>
+        <v>261</v>
       </c>
       <c r="Y13" s="9">
         <f>+IF($A13=1,IFERROR(X13/T13*100,0),Y$14)</f>
-        <v>0.51546391752577</v>
+        <v>2.9753761969904</v>
       </c>
       <c r="Z13" s="15">
         <f>+IF($A13=1,data!R19,Z$14)</f>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="15">
         <f>+IF($A13=1,IFERROR(Z13/T13*100,0),AA$14)</f>
-        <v>1.0882016036655</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="15">
         <f>+IF($A13=1,data!Q19,AB$14)</f>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="AC13" s="9">
         <f>+IF($A13=1,IFERROR(AB13/T13*100,0),AC$14)</f>
-        <v>1.0309278350515</v>
+        <v>0.37619699042408</v>
       </c>
       <c r="AD13" s="15">
         <f>+IF($A13=1,data!S19,AD$14)</f>
-        <v>1677</v>
+        <v>8461</v>
       </c>
       <c r="AE13" s="9">
         <f>+IF($A13=1,IFERROR(AD13/S13,0),AE$14)</f>
-        <v>11.18</v>
+        <v>12.297965116279</v>
       </c>
       <c r="AF13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(+(data!M19-data!V19)/S13*100,0),AF$14),0)</f>
-        <v>10</v>
+        <v>4.0697674418605</v>
       </c>
       <c r="AG13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!U19/data!S19,0),AG$14),0)</f>
-        <v>0.13372093023256</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!T19/data!M19,0),AH$14),0)</f>
-        <v>115.72</v>
+        <v>118.89244186047</v>
       </c>
       <c r="AI13" s="16">
         <f>+IF($A13=1,IFERROR(S13*12/data!AT15,0),AI$14)</f>
-        <v>1.9693654266958</v>
+        <v>1.9307764265669</v>
       </c>
       <c r="AJ13" s="15">
         <f>+IF($A13=1,data!X19,AJ$14)</f>
-        <v>31</v>
+        <v>800</v>
       </c>
       <c r="AK13" s="15">
         <f>+IF($A13=1,data!Y19,AK$14)</f>
-        <v>180</v>
+        <v>9401</v>
       </c>
       <c r="AL13" s="9">
         <f>+IF($A13=1,IFERROR(AK13/AJ13,0),AL$14)</f>
-        <v>5.8064516129032</v>
+        <v>11.75125</v>
       </c>
       <c r="AM13" s="15">
         <f>+IF($A13=1,data!AB19,AM$14)</f>
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="AN13" s="9">
         <f>+IF($A13=1,IFERROR(AM13/AD13*100,0),AN$14)</f>
-        <v>0</v>
+        <v>4.8103061103888</v>
       </c>
       <c r="AO13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!Z19/data!X19,0),AO$14),0)</f>
-        <v>18.387096774194</v>
+        <v>23.5225</v>
       </c>
       <c r="AP13" s="9">
         <f>+IF($A13=1,IFERROR(AK13*12/data!AT15,0),AP$14)</f>
-        <v>2.363238512035</v>
+        <v>26.382600561272</v>
       </c>
       <c r="AR13" s="10">
         <f>+IF(A13=1,data!AU19,0)</f>
-        <v>914</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -4576,179 +5109,179 @@
       </c>
       <c r="C14" s="10" t="str">
         <f>+"Năm "&amp;LEFT(data!B8,4)</f>
-        <v>Năm 2017</v>
+        <v>Năm 2020</v>
       </c>
       <c r="D14" s="11">
         <f>+IFERROR(_xlfn.SUMIFS(D2:D13,A2:A13,1)/A14,0)</f>
-        <v>652.16666666667</v>
+        <v>3894.5</v>
       </c>
       <c r="E14" s="11">
         <f>+E13</f>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F14" s="11">
         <f>+F13</f>
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G14" s="8">
         <f>+_xlfn.SUMIFS(G2:G13,$A$2:$A$13,1)</f>
-        <v>109</v>
+        <v>656</v>
       </c>
       <c r="H14" s="9">
         <f>+IFERROR(G14*12/D14*100/A14,0)</f>
-        <v>16.7135190391</v>
+        <v>16.844267556811</v>
       </c>
       <c r="I14" s="8">
         <f>+_xlfn.SUMIFS(I2:I13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J14" s="9">
         <f>+IFERROR(I14*12/A14/D14*100,0)</f>
-        <v>0</v>
+        <v>2.5163692386699</v>
       </c>
       <c r="K14" s="8">
         <f>+_xlfn.SUMIFS(K2:K13,$A$2:$A$13,1)</f>
-        <v>2295</v>
+        <v>9925</v>
       </c>
       <c r="L14" s="8">
         <f>+_xlfn.SUMIFS(L2:L13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="M14" s="8">
         <f>+_xlfn.SUMIFS(M2:M13,$A$2:$A$13,1)</f>
-        <v>1276</v>
+        <v>3159</v>
       </c>
       <c r="N14" s="18">
         <f>+_xlfn.SUMIFS(N2:N13,$A$2:$A$13,1)</f>
-        <v>1</v>
+        <v>6233</v>
       </c>
       <c r="O14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(O2:O13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0.083333333333333</v>
+        <v>6.2565223863297</v>
       </c>
       <c r="P14" s="9">
         <f>IFERROR(_xlfn.SUMIFS(P2:P13,$A$2:$A$13,1)/A14,0)</f>
-        <v>8.3333333333333</v>
+        <v>84.015642374052</v>
       </c>
       <c r="Q14" s="18">
         <f>+_xlfn.SUMIFS(Q2:Q13,$A$2:$A$13,1)</f>
-        <v>356</v>
+        <v>1020</v>
       </c>
       <c r="R14" s="9">
         <f>+IFERROR((K14-Q14)/K14*100,0)</f>
-        <v>84.488017429194</v>
+        <v>89.722921914358</v>
       </c>
       <c r="S14" s="8">
         <f>+_xlfn.SUMIFS(S2:S13,$A$2:$A$13,1)</f>
-        <v>1016</v>
+        <v>7071</v>
       </c>
       <c r="T14" s="8">
         <f>+_xlfn.SUMIFS(T2:T13,$A$2:$A$13,1)</f>
-        <v>12619</v>
+        <v>89090</v>
       </c>
       <c r="U14" s="9">
         <f>+IFERROR(T14/S14,0)</f>
-        <v>12.420275590551</v>
+        <v>12.599349455523</v>
       </c>
       <c r="V14" s="8">
         <f>+_xlfn.SUMIFS(V2:V13,$A$2:$A$13,1)</f>
-        <v>191</v>
+        <v>563</v>
       </c>
       <c r="W14" s="9">
         <f>IFERROR(V14/T14*100,0)</f>
-        <v>1.5135906173231</v>
+        <v>0.63194522393086</v>
       </c>
       <c r="X14" s="8">
         <f>+_xlfn.SUMIFS(X2:X13,$A$2:$A$13,1)</f>
-        <v>110</v>
+        <v>3677</v>
       </c>
       <c r="Y14" s="9">
         <f>+IFERROR(X14/T14*100,0)</f>
-        <v>0.8717014026468</v>
+        <v>4.1272870131328</v>
       </c>
       <c r="Z14" s="8">
         <f>+_xlfn.SUMIFS(Z2:Z13,$A$2:$A$13,1)</f>
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="8">
         <f>+IFERROR(Z14/T14*100,0)</f>
-        <v>1.9256676440288</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="8">
         <f>+_xlfn.SUMIFS(AB2:AB13,$A$2:$A$13,1)</f>
-        <v>166</v>
+        <v>1027</v>
       </c>
       <c r="AC14" s="9">
         <f>+IFERROR(AB14/T14*100,0)</f>
-        <v>1.3154766621761</v>
+        <v>1.152766864968</v>
       </c>
       <c r="AD14" s="8">
         <f>+_xlfn.SUMIFS(AD2:AD13,$A$2:$A$13,1)</f>
-        <v>11909</v>
+        <v>83823</v>
       </c>
       <c r="AE14" s="9">
         <f>+IFERROR(AD14/S14,0)</f>
-        <v>11.721456692913</v>
+        <v>11.85447602885</v>
       </c>
       <c r="AF14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AF2:AF13,$A$2:$A$13,1)/A14,0)</f>
-        <v>2.449680989943</v>
+        <v>6.1117368611444</v>
       </c>
       <c r="AG14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AG2:AG13,$A$2:$A$13,1)/A14,0)</f>
-        <v>0.063174991248593</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AH2:AH13,$A$2:$A$13,1)/A14,0)</f>
-        <v>58.24392543814</v>
+        <v>116.96493324024</v>
       </c>
       <c r="AI14" s="16">
         <f>IFERROR(S14/$A$14*12/AI16,0)</f>
-        <v>3.378221113882</v>
+        <v>2.3922862217711</v>
       </c>
       <c r="AJ14" s="8">
         <f>+_xlfn.SUMIFS(AJ2:AJ13,$A$2:$A$13,1)</f>
-        <v>846</v>
+        <v>6549</v>
       </c>
       <c r="AK14" s="8">
         <f>+_xlfn.SUMIFS(AK2:AK13,$A$2:$A$13,1)</f>
-        <v>9217</v>
+        <v>73231</v>
       </c>
       <c r="AL14" s="9">
         <f>+IFERROR(AK14/AJ14,0)</f>
-        <v>10.894799054374</v>
+        <v>11.182012520996</v>
       </c>
       <c r="AM14" s="8">
         <f>+_xlfn.SUMIFS(AM2:AM13,$A$2:$A$13,1)</f>
-        <v>0</v>
+        <v>1462</v>
       </c>
       <c r="AN14" s="9">
         <f>+IFERROR(AM14/AD14*100,0)</f>
-        <v>0</v>
+        <v>1.74415136657</v>
       </c>
       <c r="AO14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AO2:AO13,$A$2:$A$13,1)/A14,0)</f>
-        <v>9.5532331380903</v>
+        <v>22.655411216557</v>
       </c>
       <c r="AP14" s="9">
         <f>IFERROR(AK14/$A$14*12/AI16,0)</f>
-        <v>30.646716541978</v>
+        <v>24.775776029772</v>
       </c>
       <c r="AR14" s="10">
         <f>+SUM(AR2:AR13)</f>
-        <v>3609</v>
+        <v>35469</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="AI15" s="9">
         <f>+AR14</f>
-        <v>3609</v>
+        <v>35469</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="AI16" s="9">
         <f>+AI15/A14</f>
-        <v>300.75</v>
+        <v>2955.75</v>
       </c>
     </row>
     <row r="23" spans="1:44">

--- a/05featuredemo.xlsx
+++ b/05featuredemo.xlsx
@@ -934,7 +934,7 @@
       <c r="AF3" s="12"/>
       <c r="AT3" s="3">
         <f>+AT4-AH28+AF28+AD28</f>
-        <v>673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:50" s="1" customFormat="1">
@@ -956,7 +956,7 @@
       <c r="AS4" s="12"/>
       <c r="AT4" s="3">
         <f>+AT5-AH29+AF29+AD29</f>
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="12"/>
       <c r="AV4" s="12"/>
@@ -981,7 +981,7 @@
       <c r="AS5" s="12"/>
       <c r="AT5" s="3">
         <f>+AT6-AH30+AF30+AD30</f>
-        <v>1575</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="12"/>
       <c r="AV5" s="12"/>
@@ -1006,7 +1006,7 @@
       <c r="AS6" s="12"/>
       <c r="AT6" s="3">
         <f>+AT7-AH31+AF31+AD31</f>
-        <v>2249</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="12"/>
       <c r="AV6" s="12"/>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="7" spans="1:50" s="1" customFormat="1">
       <c r="A7" s="12">
-        <v>2636</v>
+        <v>0</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="20">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="N7" s="4"/>
       <c r="T7" s="4"/>
@@ -1041,7 +1041,7 @@
       <c r="AP7" s="12"/>
       <c r="AT7" s="17">
         <f>+A7</f>
-        <v>2636</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="12"/>
       <c r="AV7" s="12">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AW7" s="12">
         <f>+C7</f>
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="1" customFormat="1">
@@ -1060,101 +1060,33 @@
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1">
-        <v>678</v>
-      </c>
-      <c r="E8" s="1">
-        <v>107</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2011</v>
-      </c>
-      <c r="H8" s="1">
-        <v>438</v>
-      </c>
-      <c r="I8" s="1">
-        <v>438</v>
-      </c>
-      <c r="J8" s="1">
-        <v>438</v>
-      </c>
-      <c r="K8" s="1">
-        <v>397</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="1">
-        <v>475</v>
-      </c>
-      <c r="N8" s="12">
-        <v>6137</v>
-      </c>
-      <c r="O8" s="12">
-        <v>100</v>
-      </c>
-      <c r="P8" s="12">
-        <v>395</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>104</v>
-      </c>
-      <c r="R8" s="12">
-        <v>0</v>
-      </c>
-      <c r="S8" s="12">
-        <v>5538</v>
-      </c>
-      <c r="T8" s="12">
-        <v>55575</v>
-      </c>
-      <c r="U8" s="12">
-        <v>0</v>
-      </c>
-      <c r="V8" s="12">
-        <v>442</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="X8" s="12">
-        <v>420</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>4626</v>
-      </c>
-      <c r="Z8" s="12">
-        <v>9647</v>
-      </c>
+      <c r="C8" s="20"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
-      <c r="AE8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH8" s="4">
-        <v>222</v>
-      </c>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AH8" s="4"/>
       <c r="AI8" s="12"/>
       <c r="AJ8" s="12"/>
       <c r="AK8" s="12"/>
       <c r="AL8" s="12"/>
-      <c r="AM8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN8" s="12">
-        <v>23</v>
-      </c>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
       <c r="AO8" s="12"/>
       <c r="AP8" s="12"/>
       <c r="AQ8" s="12"/>
@@ -1162,11 +1094,11 @@
       <c r="AS8" s="12"/>
       <c r="AT8" s="12">
         <f>+AT7+AH8-AF8-AD8</f>
-        <v>2857</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="3">
         <f>+AT4</f>
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="12">
         <f>+AV7+AL8-AJ8</f>
@@ -1174,7 +1106,7 @@
       </c>
       <c r="AW8" s="12">
         <f>+AW7+AN8-AP8</f>
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="1" customFormat="1">
@@ -1188,71 +1120,39 @@
         <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="E9" s="1">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1">
-        <v>2826</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>358</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="1">
-        <v>389</v>
-      </c>
-      <c r="N9" s="12">
-        <v>4976</v>
-      </c>
-      <c r="O9" s="12">
-        <v>36</v>
-      </c>
-      <c r="P9" s="12">
-        <v>380</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>81</v>
-      </c>
-      <c r="R9" s="12">
-        <v>0</v>
-      </c>
-      <c r="S9" s="12">
-        <v>4479</v>
-      </c>
-      <c r="T9" s="12">
-        <v>45458</v>
-      </c>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12">
-        <v>361</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X9" s="12">
-        <v>450</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>4954</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>10055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
@@ -1261,24 +1161,20 @@
         <v>31</v>
       </c>
       <c r="AF9" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AH9" s="4">
-        <v>94</v>
+        <v>384</v>
       </c>
       <c r="AI9" s="12"/>
       <c r="AJ9" s="12"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="12"/>
-      <c r="AM9" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN9" s="12">
-        <v>1</v>
-      </c>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
       <c r="AO9" s="12"/>
       <c r="AP9" s="12"/>
       <c r="AQ9" s="12"/>
@@ -1286,11 +1182,11 @@
       <c r="AS9" s="12"/>
       <c r="AT9" s="12">
         <f>+AT8+AH9-AF9-AD9</f>
-        <v>2948</v>
+        <v>383</v>
       </c>
       <c r="AU9" s="3">
         <f>+AT5</f>
-        <v>1575</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="12">
         <f>+AV8+AL9-AJ9</f>
@@ -1298,7 +1194,7 @@
       </c>
       <c r="AW9" s="12">
         <f>+AW8+AN9-AP9</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="1" customFormat="1">
@@ -1312,86 +1208,50 @@
         <v>32</v>
       </c>
       <c r="D10" s="1">
-        <v>582</v>
+        <v>485</v>
       </c>
       <c r="E10" s="1">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1">
-        <v>2269</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>294</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="1">
-        <v>600</v>
-      </c>
-      <c r="N10" s="12">
-        <v>7152</v>
-      </c>
-      <c r="O10" s="12">
-        <v>45</v>
-      </c>
-      <c r="P10" s="12">
-        <v>462</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>74</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="12">
-        <v>6571</v>
-      </c>
-      <c r="T10" s="12">
-        <v>69825</v>
-      </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
-      <c r="V10" s="12">
-        <v>541</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X10" s="12">
-        <v>433</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>4602</v>
-      </c>
-      <c r="Z10" s="12">
-        <v>9369</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12"/>
-      <c r="AE10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF10" s="12">
-        <v>7</v>
-      </c>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
       <c r="AG10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AH10" s="4">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="AI10" s="12"/>
       <c r="AJ10" s="12"/>
@@ -1406,11 +1266,11 @@
       <c r="AS10" s="12"/>
       <c r="AT10" s="12">
         <f>+AT9+AH10-AF10-AD10</f>
-        <v>3151</v>
+        <v>853</v>
       </c>
       <c r="AU10" s="3">
         <f>+AT6</f>
-        <v>2249</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="12">
         <f>+AV9+AL10-AJ10</f>
@@ -1418,7 +1278,7 @@
       </c>
       <c r="AW10" s="12">
         <f>+AW9+AN10-AP10</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="1" customFormat="1">
@@ -1432,90 +1292,50 @@
         <v>33</v>
       </c>
       <c r="D11" s="1">
-        <v>707</v>
+        <v>521</v>
       </c>
       <c r="E11" s="1">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1">
-        <v>4176</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>428</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="1">
-        <v>609</v>
-      </c>
-      <c r="N11" s="12">
-        <v>7200</v>
-      </c>
-      <c r="O11" s="12">
-        <v>46</v>
-      </c>
-      <c r="P11" s="12">
-        <v>571</v>
-      </c>
-      <c r="Q11" s="12">
-        <v>61</v>
-      </c>
-      <c r="R11" s="12">
-        <v>0</v>
-      </c>
-      <c r="S11" s="12">
-        <v>6522</v>
-      </c>
-      <c r="T11" s="12">
-        <v>70536</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="12">
-        <v>549</v>
-      </c>
-      <c r="W11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="12">
-        <v>581</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>5935</v>
-      </c>
-      <c r="Z11" s="12">
-        <v>12621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
-      <c r="AC11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF11" s="12">
-        <v>5</v>
-      </c>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
       <c r="AG11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AH11" s="4">
-        <v>114</v>
+        <v>499</v>
       </c>
       <c r="AI11" s="12"/>
       <c r="AJ11" s="12"/>
@@ -1530,11 +1350,11 @@
       <c r="AS11" s="12"/>
       <c r="AT11" s="12">
         <f>+AT10+AH11-AF11-AD11</f>
-        <v>3259</v>
+        <v>1352</v>
       </c>
       <c r="AU11" s="12">
         <f>+AT7</f>
-        <v>2636</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="12">
         <f>+AV10+AL11-AJ11</f>
@@ -1542,7 +1362,7 @@
       </c>
       <c r="AW11" s="12">
         <f>+AW10+AN11-AP11</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:50">
@@ -1556,104 +1376,65 @@
         <v>34</v>
       </c>
       <c r="D12">
-        <v>787</v>
+        <v>834</v>
       </c>
       <c r="E12">
-        <v>90</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="G12">
-        <v>4107</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>486</v>
-      </c>
-      <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12">
-        <v>450</v>
-      </c>
-      <c r="N12" s="12">
-        <v>5713</v>
-      </c>
-      <c r="O12" s="12">
-        <v>37</v>
-      </c>
-      <c r="P12" s="12">
-        <v>348</v>
-      </c>
-      <c r="Q12" s="12">
-        <v>49</v>
-      </c>
-      <c r="R12" s="12">
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <v>5279</v>
-      </c>
-      <c r="T12" s="12">
-        <v>52452</v>
-      </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <v>427</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="X12" s="12">
-        <v>575</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>6450</v>
-      </c>
-      <c r="Z12" s="12">
-        <v>12446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
-      <c r="AC12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD12" s="12">
-        <v>1</v>
-      </c>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
       <c r="AE12" s="12" t="s">
         <v>34</v>
       </c>
       <c r="AF12" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AH12" s="4">
-        <v>186</v>
+        <v>798</v>
       </c>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="12"/>
       <c r="AS12" s="12"/>
       <c r="AT12" s="12">
         <f>+AT11+AH12-AF12-AD12</f>
-        <v>3441</v>
+        <v>2149</v>
       </c>
       <c r="AU12" s="12">
         <f>+AT8</f>
-        <v>2857</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="12">
         <f>+AV11+AL12-AJ12</f>
@@ -1661,7 +1442,7 @@
       </c>
       <c r="AW12" s="12">
         <f>+AW11+AN12-AP12</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:50">
@@ -1675,104 +1456,105 @@
         <v>35</v>
       </c>
       <c r="D13">
-        <v>815</v>
+        <v>697</v>
       </c>
       <c r="E13">
-        <v>86</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="G13">
-        <v>2797</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="J13">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>331</v>
+        <v>4</v>
       </c>
       <c r="L13" t="s">
         <v>35</v>
       </c>
       <c r="M13">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="N13" s="12">
-        <v>5800</v>
+        <v>4867</v>
       </c>
       <c r="O13" s="12">
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="P13" s="12">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="12">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="R13" s="12">
         <v>0</v>
       </c>
       <c r="S13" s="12">
-        <v>5481</v>
+        <v>4428</v>
       </c>
       <c r="T13" s="12">
-        <v>53039</v>
+        <v>45417</v>
       </c>
       <c r="U13" s="12">
         <v>0</v>
       </c>
       <c r="V13" s="12">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="W13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="X13" s="12">
-        <v>418</v>
+        <v>144</v>
       </c>
       <c r="Y13" s="3">
-        <v>4848</v>
+        <v>1576</v>
       </c>
       <c r="Z13" s="12">
-        <v>9493</v>
-      </c>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
+        <v>2985</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>176</v>
+      </c>
       <c r="AC13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AD13" s="12">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="AE13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="AF13" s="12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AG13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AH13" s="4">
-        <v>374</v>
+        <v>661</v>
       </c>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="12"/>
       <c r="AS13" s="12"/>
       <c r="AT13" s="12">
         <f>+AT12+AH13-AF13-AD13</f>
-        <v>3725</v>
+        <v>2785</v>
       </c>
       <c r="AU13" s="12">
         <f>+AT9</f>
-        <v>2948</v>
+        <v>383</v>
       </c>
       <c r="AV13" s="12">
         <f>+AV12+AL13-AJ13</f>
@@ -1780,7 +1562,7 @@
       </c>
       <c r="AW13" s="12">
         <f>+AW12+AN13-AP13</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:50">
@@ -1794,118 +1576,113 @@
         <v>36</v>
       </c>
       <c r="D14">
-        <v>977</v>
+        <v>656</v>
       </c>
       <c r="E14">
-        <v>84</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G14">
-        <v>2148</v>
+        <v>2575</v>
       </c>
       <c r="H14">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="I14">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="J14">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="K14">
-        <v>335</v>
+        <v>241</v>
       </c>
       <c r="L14" t="s">
         <v>36</v>
       </c>
       <c r="M14">
-        <v>573</v>
+        <v>519</v>
       </c>
       <c r="N14" s="12">
-        <v>7154</v>
+        <v>6424</v>
       </c>
       <c r="O14" s="12">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="P14" s="12">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="12">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="R14" s="12">
         <v>0</v>
       </c>
       <c r="S14" s="12">
-        <v>6733</v>
+        <v>5899</v>
       </c>
       <c r="T14" s="12">
-        <v>66821</v>
+        <v>60696</v>
       </c>
       <c r="U14" s="12">
         <v>0</v>
       </c>
       <c r="V14" s="12">
-        <v>539</v>
+        <v>491</v>
       </c>
       <c r="W14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="X14" s="12">
-        <v>487</v>
+        <v>359</v>
       </c>
       <c r="Y14" s="3">
-        <v>5577</v>
+        <v>3870</v>
       </c>
       <c r="Z14" s="12">
-        <v>10967</v>
-      </c>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
+        <v>7335</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>185</v>
+      </c>
       <c r="AC14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AD14" s="12">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="AE14" s="12" t="s">
         <v>36</v>
       </c>
       <c r="AF14" s="12">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AG14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AH14" s="4">
-        <v>559</v>
-      </c>
-      <c r="AK14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL14" s="12">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
       <c r="AT14" s="12">
         <f>+AT13+AH14-AF14-AD14</f>
-        <v>4191</v>
+        <v>3019</v>
       </c>
       <c r="AU14" s="12">
         <f>+AT10</f>
-        <v>3151</v>
+        <v>853</v>
       </c>
       <c r="AV14" s="12">
         <f>+AV13+AL14-AJ14</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="12">
         <f>+AW13+AN14-AP14</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:50">
@@ -1919,136 +1696,113 @@
         <v>37</v>
       </c>
       <c r="D15">
-        <v>788</v>
+        <v>679</v>
       </c>
       <c r="E15">
-        <v>75</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="G15">
-        <v>3707</v>
+        <v>4377</v>
       </c>
       <c r="H15">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="I15">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="J15">
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="K15">
-        <v>432</v>
+        <v>329</v>
       </c>
       <c r="L15" t="s">
         <v>37</v>
       </c>
       <c r="M15">
-        <v>563</v>
+        <v>367</v>
       </c>
       <c r="N15" s="12">
-        <v>7143</v>
+        <v>4529</v>
       </c>
       <c r="O15" s="12">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="P15" s="12">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="Q15" s="12">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="R15" s="12">
         <v>0</v>
       </c>
       <c r="S15" s="12">
-        <v>6776</v>
+        <v>4157</v>
       </c>
       <c r="T15" s="12">
-        <v>65681</v>
+        <v>42775</v>
       </c>
       <c r="U15" s="12">
         <v>0</v>
       </c>
       <c r="V15" s="12">
-        <v>543</v>
+        <v>344</v>
       </c>
       <c r="W15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="X15" s="12">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="Y15" s="3">
-        <v>5959</v>
+        <v>6262</v>
       </c>
       <c r="Z15" s="12">
-        <v>11980</v>
-      </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
+        <v>12147</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>175</v>
+      </c>
       <c r="AC15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="AD15" s="12">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="AE15" s="12" t="s">
         <v>37</v>
       </c>
       <c r="AF15" s="12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AH15" s="4">
-        <v>207</v>
-      </c>
-      <c r="AI15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ15" s="12">
-        <v>3</v>
-      </c>
-      <c r="AK15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AM15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AO15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP15" s="12">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="AQ15" s="12"/>
       <c r="AR15" s="12"/>
       <c r="AS15" s="12"/>
       <c r="AT15" s="12">
         <f>+AT14+AH15-AF15-AD15</f>
-        <v>4276</v>
+        <v>3121</v>
       </c>
       <c r="AU15" s="12">
         <f>+AT11</f>
-        <v>3259</v>
+        <v>1352</v>
       </c>
       <c r="AV15" s="12">
         <f>+AV14+AL15-AJ15</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="12">
         <f>+AW14+AN15-AP15</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:50">
@@ -2062,122 +1816,113 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>797</v>
+        <v>629</v>
       </c>
       <c r="E16">
-        <v>79</v>
-      </c>
-      <c r="F16">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="G16">
-        <v>3597</v>
+        <v>5815</v>
       </c>
       <c r="H16">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="I16">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="J16">
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="K16">
-        <v>319</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s">
         <v>38</v>
       </c>
       <c r="M16">
-        <v>630</v>
+        <v>774</v>
       </c>
       <c r="N16" s="12">
-        <v>7996</v>
+        <v>9459</v>
       </c>
       <c r="O16" s="12">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="P16" s="12">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="12">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="R16" s="12">
         <v>0</v>
       </c>
       <c r="S16" s="12">
-        <v>7671</v>
+        <v>8686</v>
       </c>
       <c r="T16" s="12">
-        <v>73716</v>
+        <v>89977</v>
       </c>
       <c r="U16" s="12">
         <v>0</v>
       </c>
       <c r="V16" s="12">
-        <v>585</v>
+        <v>715</v>
       </c>
       <c r="W16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="X16" s="12">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="Y16" s="3">
-        <v>6123</v>
+        <v>5597</v>
       </c>
       <c r="Z16" s="12">
-        <v>13102</v>
+        <v>9841</v>
       </c>
       <c r="AA16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="AB16" s="12">
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="AC16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="AD16" s="12">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="AE16" s="12" t="s">
         <v>38</v>
       </c>
       <c r="AF16" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="s">
         <v>38</v>
       </c>
       <c r="AH16" s="4">
-        <v>203</v>
-      </c>
-      <c r="AI16" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ16" s="12">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="AQ16" s="12"/>
       <c r="AR16" s="12"/>
       <c r="AS16" s="12"/>
       <c r="AT16" s="12">
         <f>+AT15+AH16-AF16-AD16</f>
-        <v>4339</v>
+        <v>3201</v>
       </c>
       <c r="AU16" s="12">
         <f>+AT12</f>
-        <v>3441</v>
+        <v>2149</v>
       </c>
       <c r="AV16" s="12">
         <f>+AV15+AL16-AJ16</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW16" s="12">
         <f>+AW15+AN16-AP16</f>
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:50">
@@ -2191,128 +1936,113 @@
         <v>39</v>
       </c>
       <c r="D17">
-        <v>1060</v>
+        <v>660</v>
       </c>
       <c r="E17">
-        <v>75</v>
-      </c>
-      <c r="F17">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="G17">
-        <v>3260</v>
+        <v>7057</v>
       </c>
       <c r="H17">
-        <v>623</v>
+        <v>530</v>
       </c>
       <c r="I17">
-        <v>623</v>
+        <v>530</v>
       </c>
       <c r="J17">
-        <v>623</v>
+        <v>530</v>
       </c>
       <c r="K17">
-        <v>531</v>
+        <v>349</v>
       </c>
       <c r="L17" t="s">
         <v>39</v>
       </c>
       <c r="M17">
-        <v>812</v>
+        <v>621</v>
       </c>
       <c r="N17" s="12">
-        <v>10436</v>
+        <v>7558</v>
       </c>
       <c r="O17" s="12">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="P17" s="12">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="12">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="R17" s="12">
         <v>0</v>
       </c>
       <c r="S17" s="12">
-        <v>10040</v>
+        <v>6945</v>
       </c>
       <c r="T17" s="12">
-        <v>95019</v>
+        <v>72359</v>
       </c>
       <c r="U17" s="12">
         <v>0</v>
       </c>
       <c r="V17" s="12">
-        <v>761</v>
+        <v>564</v>
       </c>
       <c r="W17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="X17" s="12">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="Y17" s="3">
-        <v>6957</v>
+        <v>6128</v>
       </c>
       <c r="Z17" s="12">
-        <v>14187</v>
+        <v>13169</v>
       </c>
       <c r="AA17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="AB17" s="12">
-        <v>442</v>
+        <v>831</v>
       </c>
       <c r="AC17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="AD17" s="12">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="AE17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="AF17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="s">
         <v>39</v>
       </c>
       <c r="AH17" s="4">
-        <v>419</v>
-      </c>
-      <c r="AM17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN17" s="12">
-        <v>4</v>
-      </c>
-      <c r="AO17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP17" s="12">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AQ17" s="12"/>
       <c r="AR17" s="12"/>
       <c r="AS17" s="12"/>
       <c r="AT17" s="12">
         <f>+AT16+AH17-AF17-AD17</f>
-        <v>4641</v>
+        <v>2989</v>
       </c>
       <c r="AU17" s="12">
         <f>+AT13</f>
-        <v>3725</v>
+        <v>2785</v>
       </c>
       <c r="AV17" s="12">
         <f>+AV16+AL17-AJ17</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="12">
         <f>+AW16+AN17-AP17</f>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:50">
@@ -2322,120 +2052,94 @@
       <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>1027</v>
-      </c>
-      <c r="E18">
-        <v>91</v>
-      </c>
-      <c r="F18">
-        <v>51</v>
-      </c>
-      <c r="G18">
-        <v>3242</v>
-      </c>
-      <c r="H18">
-        <v>661</v>
-      </c>
-      <c r="I18">
-        <v>661</v>
-      </c>
-      <c r="J18">
-        <v>661</v>
-      </c>
-      <c r="K18">
-        <v>608</v>
-      </c>
       <c r="L18" t="s">
         <v>40</v>
       </c>
       <c r="M18">
-        <v>827</v>
+        <v>455</v>
       </c>
       <c r="N18" s="12">
-        <v>10611</v>
+        <v>5473</v>
       </c>
       <c r="O18" s="12">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="P18" s="12">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="12">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="R18" s="12">
         <v>0</v>
       </c>
       <c r="S18" s="12">
-        <v>10272</v>
+        <v>5048</v>
       </c>
       <c r="T18" s="12">
-        <v>97747</v>
+        <v>52952</v>
       </c>
       <c r="U18" s="12">
         <v>0</v>
       </c>
       <c r="V18" s="12">
-        <v>782</v>
+        <v>412</v>
       </c>
       <c r="W18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="X18" s="12">
-        <v>685</v>
+        <v>391</v>
       </c>
       <c r="Y18" s="3">
-        <v>7799</v>
+        <v>3523</v>
       </c>
       <c r="Z18" s="12">
-        <v>16079</v>
+        <v>9442</v>
       </c>
       <c r="AA18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AB18" s="12">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="AC18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AD18" s="12">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="AE18" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AF18" s="12">
-        <v>9</v>
-      </c>
-      <c r="AG18" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH18" s="4"/>
+      <c r="AM18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AH18" s="4">
-        <v>315</v>
+      <c r="AN18" s="12">
+        <v>5</v>
       </c>
       <c r="AQ18" s="12"/>
       <c r="AR18" s="12"/>
       <c r="AS18" s="12"/>
       <c r="AT18" s="12">
         <f>+AT17+AH18-AF18-AD18</f>
-        <v>4865</v>
+        <v>2824</v>
       </c>
       <c r="AU18" s="12">
         <f>+AT14</f>
-        <v>4191</v>
+        <v>3019</v>
       </c>
       <c r="AV18" s="12">
         <f>+AV17+AL18-AJ18</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="12">
         <f>+AW17+AN18-AP18</f>
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:50">
@@ -2449,119 +2153,116 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>1143</v>
+        <v>651</v>
       </c>
       <c r="E19">
-        <v>39</v>
-      </c>
-      <c r="F19">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G19">
-        <v>4263</v>
+        <v>16109</v>
       </c>
       <c r="H19">
-        <v>827</v>
+        <v>524</v>
       </c>
       <c r="I19">
-        <v>827</v>
+        <v>524</v>
       </c>
       <c r="J19">
-        <v>827</v>
+        <v>524</v>
       </c>
       <c r="K19">
-        <v>753</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
         <v>41</v>
       </c>
       <c r="M19">
-        <v>688</v>
+        <v>521</v>
       </c>
       <c r="N19" s="1">
-        <v>8772</v>
+        <v>6241</v>
       </c>
       <c r="O19">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="P19" s="1">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="1">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="R19" s="1">
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>8461</v>
+        <v>5713</v>
       </c>
       <c r="T19" s="4">
-        <v>81798</v>
+        <v>60873</v>
       </c>
       <c r="U19" s="4">
         <v>0</v>
       </c>
       <c r="V19" s="4">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="X19" s="1">
-        <v>800</v>
+        <v>569</v>
       </c>
       <c r="Y19" s="1">
-        <v>9401</v>
+        <v>5213</v>
       </c>
       <c r="Z19" s="2">
-        <v>18818</v>
+        <v>17200</v>
       </c>
       <c r="AA19" t="s">
         <v>41</v>
       </c>
       <c r="AB19">
-        <v>407</v>
+        <v>832</v>
       </c>
       <c r="AC19" t="s">
         <v>41</v>
       </c>
       <c r="AD19" s="1">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="AE19" s="3" t="s">
         <v>41</v>
       </c>
       <c r="AF19" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="s">
         <v>41</v>
       </c>
       <c r="AH19">
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="AM19" s="12" t="s">
         <v>41</v>
       </c>
       <c r="AN19" s="12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="12">
         <f>+AT18+AH19-AF19-AD19</f>
-        <v>5041</v>
+        <v>2721</v>
       </c>
       <c r="AU19" s="12">
         <f>+AT15</f>
-        <v>4276</v>
+        <v>3121</v>
       </c>
       <c r="AV19" s="12">
         <f>+AV18+AL19-AJ19</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="12">
         <f>+AW18+AN19-AP19</f>
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:50">
@@ -2627,36 +2328,6 @@
       <c r="B27" t="s">
         <v>49</v>
       </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27">
-        <v>334</v>
-      </c>
-      <c r="E27">
-        <v>37</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH27">
-        <v>330</v>
-      </c>
     </row>
     <row r="28" spans="1:50">
       <c r="A28" s="12">
@@ -2665,36 +2336,6 @@
       <c r="B28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>509</v>
-      </c>
-      <c r="E28">
-        <v>69</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH28">
-        <v>488</v>
-      </c>
     </row>
     <row r="29" spans="1:50">
       <c r="A29" s="12">
@@ -2703,36 +2344,6 @@
       <c r="B29" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29">
-        <v>426</v>
-      </c>
-      <c r="E29">
-        <v>60</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH29">
-        <v>414</v>
-      </c>
     </row>
     <row r="30" spans="1:50">
       <c r="A30" s="12">
@@ -2741,36 +2352,6 @@
       <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30">
-        <v>684</v>
-      </c>
-      <c r="E30">
-        <v>68</v>
-      </c>
-      <c r="G30">
-        <v>6</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH30">
-        <v>674</v>
-      </c>
     </row>
     <row r="31" spans="1:50">
       <c r="A31" s="12">
@@ -2778,36 +2359,6 @@
       </c>
       <c r="B31" t="s">
         <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31">
-        <v>575</v>
-      </c>
-      <c r="E31">
-        <v>77</v>
-      </c>
-      <c r="G31">
-        <v>610</v>
-      </c>
-      <c r="H31">
-        <v>178</v>
-      </c>
-      <c r="I31">
-        <v>178</v>
-      </c>
-      <c r="J31">
-        <v>178</v>
-      </c>
-      <c r="K31">
-        <v>177</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH31">
-        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3019,9 +2570,9 @@
         <f>+IFERROR(B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13,1)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="str">
+      <c r="B2" s="10">
         <f>IF(+data!C8&amp;"-"="-",0,+data!C8&amp;"-")</f>
-        <v>2020-1-</v>
+        <v>0</v>
       </c>
       <c r="C2" s="10">
         <f>IF(A2=1,1,$C$14)</f>
@@ -3029,11 +2580,11 @@
       </c>
       <c r="D2" s="11">
         <f>IFERROR(IF(A2=1,+data!AT8,D$14),0)</f>
-        <v>2857</v>
+        <v>0</v>
       </c>
       <c r="E2" s="11">
         <f>+data!AW8</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F2" s="11">
         <f>+data!AV8</f>
@@ -3049,15 +2600,15 @@
       </c>
       <c r="I2" s="8">
         <f>+IF($A2=1,data!AF8,I$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="9">
         <f>+IF($A2=1,IFERROR(I2/D2*100,0),J$14)</f>
-        <v>0.035001750087504</v>
+        <v>0</v>
       </c>
       <c r="K2" s="8">
         <f>+IF($A2=1,data!D8,K$14)</f>
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="L2" s="8">
         <f>+IF($A2=1,data!F8,L$14)</f>
@@ -3065,55 +2616,55 @@
       </c>
       <c r="M2" s="8">
         <f>+IF($A2=1,data!AH8,M$14)</f>
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="N2" s="15">
         <f>IF(A2=1,+data!I8,$N$14)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="O2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!G8/data!I8,0),O$14),0)</f>
-        <v>4.5913242009132</v>
+        <v>0</v>
       </c>
       <c r="P2" s="9">
         <f>IFERROR(IF($A2=1,IFERROR(data!K8/data!I8*100,0),P$14),0)</f>
-        <v>90.639269406393</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="11">
         <f>IF(A2=1,+data!E8,$Q$14)</f>
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="R2" s="9">
         <f>+IFERROR((K2-Q2)/K2*100,0)</f>
-        <v>84.218289085546</v>
+        <v>0</v>
       </c>
       <c r="S2" s="8">
         <f>+IF($A2=1,data!M8,S$14)</f>
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8">
         <f>+IF($A2=1,data!N8,T$14)</f>
-        <v>6137</v>
+        <v>0</v>
       </c>
       <c r="U2" s="9">
         <f>+IF($A2=1,IFERROR(+T2/S2,0),U$14)</f>
-        <v>12.92</v>
+        <v>0</v>
       </c>
       <c r="V2" s="8">
         <f>+IF($A2=1,data!O8,V$14)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W2" s="9">
         <f>+IF($A2=1,IFERROR(V2/T2*100,0),W$14)</f>
-        <v>1.6294606485253</v>
+        <v>0</v>
       </c>
       <c r="X2" s="8">
         <f>+IF($A2=1,data!P8,X$14)</f>
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="9">
         <f>+IF($A2=1,IFERROR(X2/T2*100,0),Y$14)</f>
-        <v>6.4363695616751</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="8">
         <f>+IF($A2=1,data!R8,Z$14)</f>
@@ -3125,23 +2676,23 @@
       </c>
       <c r="AB2" s="8">
         <f>+IF($A2=1,data!Q8,AB$14)</f>
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="9">
         <f>+IF($A2=1,IFERROR(AB2/T2*100,0),AC$14)</f>
-        <v>1.6946390744664</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="8">
         <f>+IF($A2=1,data!S8,AD$14)</f>
-        <v>5538</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="9">
         <f>+IF($A2=1,IFERROR(AD2/S2,0),AE$14)</f>
-        <v>11.658947368421</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(+(data!M8-data!V8)/S2*100,0),AF$14),0)</f>
-        <v>6.9473684210526</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!U8/data!S8,0),AG$14),0)</f>
@@ -3149,23 +2700,23 @@
       </c>
       <c r="AH2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!T8/data!M8,0),AH$14),0)</f>
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="16">
         <f>+IF($A2=1,IFERROR(S2*12/data!AT4,0),AI$14)</f>
-        <v>4.9095607235142</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="8">
         <f>+IF($A2=1,data!X8,AJ$14)</f>
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="8">
         <f>+IF($A2=1,data!Y8,AK$14)</f>
-        <v>4626</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="9">
         <f>+IF($A2=1,IFERROR(AK2/AJ2,0),AL$14)</f>
-        <v>11.014285714286</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="8">
         <f>+IF($A2=1,data!AB8,AM$14)</f>
@@ -3177,15 +2728,15 @@
       </c>
       <c r="AO2" s="9">
         <f>+IFERROR(IF($A2=1,IFERROR(data!Z8/data!X8,0),AO$14),0)</f>
-        <v>22.969047619048</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="9">
         <f>+IF($A2=1,IFERROR(AK2*12/data!AT4,0),AP$14)</f>
-        <v>47.813953488372</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="10">
         <f>+IF(A2=1,data!AU8,0)</f>
-        <v>1161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -3203,11 +2754,11 @@
       </c>
       <c r="D3" s="11">
         <f>IFERROR(IF(A3=1,+data!AT9,D$14),0)</f>
-        <v>2948</v>
+        <v>383</v>
       </c>
       <c r="E3" s="11">
         <f>+data!AW9</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F3" s="11">
         <f>+data!AV9</f>
@@ -3223,15 +2774,15 @@
       </c>
       <c r="I3" s="15">
         <f>+IF($A3=1,data!AF9,I$14)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="9">
         <f>+IF($A3=1,IFERROR(I3/D3*100,0),J$14)</f>
-        <v>0.10176390773406</v>
+        <v>0.26109660574413</v>
       </c>
       <c r="K3" s="15">
         <f>+IF($A3=1,data!D9,K$14)</f>
-        <v>564</v>
+        <v>385</v>
       </c>
       <c r="L3" s="15">
         <f>+IF($A3=1,data!F9,L$14)</f>
@@ -3239,55 +2790,55 @@
       </c>
       <c r="M3" s="15">
         <f>+IF($A3=1,data!AH9,M$14)</f>
-        <v>94</v>
+        <v>384</v>
       </c>
       <c r="N3" s="18">
         <f>IF(A3=1,+data!I9,$N$14)</f>
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="O3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!G9/data!I9,0),O$14),0)</f>
-        <v>6.4520547945205</v>
+        <v>0</v>
       </c>
       <c r="P3" s="9">
         <f>IFERROR(IF($A3=1,IFERROR(data!K9/data!I9*100,0),P$14),0)</f>
-        <v>81.735159817352</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="11">
         <f>IF(A3=1,+data!E9,$Q$14)</f>
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="R3" s="9">
         <f>+IFERROR((K3-Q3)/K3*100,0)</f>
-        <v>84.397163120567</v>
+        <v>89.090909090909</v>
       </c>
       <c r="S3" s="15">
         <f>+IF($A3=1,data!M9,S$14)</f>
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="T3" s="15">
         <f>+IF($A3=1,data!N9,T$14)</f>
-        <v>4976</v>
+        <v>0</v>
       </c>
       <c r="U3" s="9">
         <f>+IF($A3=1,IFERROR(+T3/S3,0),U$14)</f>
-        <v>12.79177377892</v>
+        <v>0</v>
       </c>
       <c r="V3" s="15">
         <f>+IF($A3=1,data!O9,V$14)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="W3" s="9">
         <f>+IF($A3=1,IFERROR(V3/T3*100,0),W$14)</f>
-        <v>0.72347266881029</v>
+        <v>0</v>
       </c>
       <c r="X3" s="15">
         <f>+IF($A3=1,data!P9,X$14)</f>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="9">
         <f>+IF($A3=1,IFERROR(X3/T3*100,0),Y$14)</f>
-        <v>7.6366559485531</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="15">
         <f>+IF($A3=1,data!R9,Z$14)</f>
@@ -3299,23 +2850,23 @@
       </c>
       <c r="AB3" s="15">
         <f>+IF($A3=1,data!Q9,AB$14)</f>
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="9">
         <f>+IF($A3=1,IFERROR(AB3/T3*100,0),AC$14)</f>
-        <v>1.6278135048232</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="15">
         <f>+IF($A3=1,data!S9,AD$14)</f>
-        <v>4479</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="9">
         <f>+IF($A3=1,IFERROR(AD3/S3,0),AE$14)</f>
-        <v>11.514138817481</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(+(data!M9-data!V9)/S3*100,0),AF$14),0)</f>
-        <v>7.1979434447301</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!U9/data!S9,0),AG$14),0)</f>
@@ -3323,23 +2874,23 @@
       </c>
       <c r="AH3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!T9/data!M9,0),AH$14),0)</f>
-        <v>116.85861182519</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="16">
         <f>+IF($A3=1,IFERROR(S3*12/data!AT5,0),AI$14)</f>
-        <v>2.9638095238095</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="15">
         <f>+IF($A3=1,data!X9,AJ$14)</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="15">
         <f>+IF($A3=1,data!Y9,AK$14)</f>
-        <v>4954</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="9">
         <f>+IF($A3=1,IFERROR(AK3/AJ3,0),AL$14)</f>
-        <v>11.008888888889</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="15">
         <f>+IF($A3=1,data!AB9,AM$14)</f>
@@ -3351,15 +2902,15 @@
       </c>
       <c r="AO3" s="9">
         <f>+IFERROR(IF($A3=1,IFERROR(data!Z9/data!X9,0),AO$14),0)</f>
-        <v>22.344444444444</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="9">
         <f>+IF($A3=1,IFERROR(AK3*12/data!AT5,0),AP$14)</f>
-        <v>37.744761904762</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="10">
         <f>+IF(A3=1,data!AU9,0)</f>
-        <v>1575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3377,11 +2928,11 @@
       </c>
       <c r="D4" s="11">
         <f>IFERROR(IF(A4=1,+data!AT10,D$14),0)</f>
-        <v>3151</v>
+        <v>853</v>
       </c>
       <c r="E4" s="11">
         <f>+data!AW10</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F4" s="11">
         <f>+data!AV10</f>
@@ -3397,15 +2948,15 @@
       </c>
       <c r="I4" s="15">
         <f>+IF($A4=1,data!AF10,I$14)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J4" s="9">
         <f>+IF($A4=1,IFERROR(I4/D4*100,0),J$14)</f>
-        <v>0.22215169787369</v>
+        <v>0</v>
       </c>
       <c r="K4" s="15">
         <f>+IF($A4=1,data!D10,K$14)</f>
-        <v>582</v>
+        <v>485</v>
       </c>
       <c r="L4" s="15">
         <f>+IF($A4=1,data!F10,L$14)</f>
@@ -3413,55 +2964,55 @@
       </c>
       <c r="M4" s="15">
         <f>+IF($A4=1,data!AH10,M$14)</f>
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="N4" s="18">
         <f>IF(A4=1,+data!I10,$N$14)</f>
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!G10/data!I10,0),O$14),0)</f>
-        <v>6.5201149425287</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9">
         <f>IFERROR(IF($A4=1,IFERROR(data!K10/data!I10*100,0),P$14),0)</f>
-        <v>84.48275862069</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11">
         <f>IF(A4=1,+data!E10,$Q$14)</f>
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R4" s="9">
         <f>+IFERROR((K4-Q4)/K4*100,0)</f>
-        <v>84.192439862543</v>
+        <v>89.690721649485</v>
       </c>
       <c r="S4" s="15">
         <f>+IF($A4=1,data!M10,S$14)</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15">
         <f>+IF($A4=1,data!N10,T$14)</f>
-        <v>7152</v>
+        <v>0</v>
       </c>
       <c r="U4" s="9">
         <f>+IF($A4=1,IFERROR(+T4/S4,0),U$14)</f>
-        <v>11.92</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15">
         <f>+IF($A4=1,data!O10,V$14)</f>
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="W4" s="9">
         <f>+IF($A4=1,IFERROR(V4/T4*100,0),W$14)</f>
-        <v>0.62919463087248</v>
+        <v>0</v>
       </c>
       <c r="X4" s="15">
         <f>+IF($A4=1,data!P10,X$14)</f>
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="9">
         <f>+IF($A4=1,IFERROR(X4/T4*100,0),Y$14)</f>
-        <v>6.4597315436242</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="15">
         <f>+IF($A4=1,data!R10,Z$14)</f>
@@ -3473,23 +3024,23 @@
       </c>
       <c r="AB4" s="15">
         <f>+IF($A4=1,data!Q10,AB$14)</f>
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="9">
         <f>+IF($A4=1,IFERROR(AB4/T4*100,0),AC$14)</f>
-        <v>1.0346756152125</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="15">
         <f>+IF($A4=1,data!S10,AD$14)</f>
-        <v>6571</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="9">
         <f>+IF($A4=1,IFERROR(AD4/S4,0),AE$14)</f>
-        <v>10.951666666667</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(+(data!M10-data!V10)/S4*100,0),AF$14),0)</f>
-        <v>9.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!U10/data!S10,0),AG$14),0)</f>
@@ -3497,23 +3048,23 @@
       </c>
       <c r="AH4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!T10/data!M10,0),AH$14),0)</f>
-        <v>116.375</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="16">
         <f>+IF($A4=1,IFERROR(S4*12/data!AT6,0),AI$14)</f>
-        <v>3.201422854602</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="15">
         <f>+IF($A4=1,data!X10,AJ$14)</f>
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="15">
         <f>+IF($A4=1,data!Y10,AK$14)</f>
-        <v>4602</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="9">
         <f>+IF($A4=1,IFERROR(AK4/AJ4,0),AL$14)</f>
-        <v>10.62817551963</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="15">
         <f>+IF($A4=1,data!AB10,AM$14)</f>
@@ -3525,15 +3076,15 @@
       </c>
       <c r="AO4" s="9">
         <f>+IFERROR(IF($A4=1,IFERROR(data!Z10/data!X10,0),AO$14),0)</f>
-        <v>21.637413394919</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="9">
         <f>+IF($A4=1,IFERROR(AK4*12/data!AT6,0),AP$14)</f>
-        <v>24.554913294798</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="10">
         <f>+IF(A4=1,data!AU10,0)</f>
-        <v>2249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -3551,11 +3102,11 @@
       </c>
       <c r="D5" s="11">
         <f>IFERROR(IF(A5=1,+data!AT11,D$14),0)</f>
-        <v>3259</v>
+        <v>1352</v>
       </c>
       <c r="E5" s="11">
         <f>+data!AW11</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F5" s="11">
         <f>+data!AV11</f>
@@ -3563,23 +3114,23 @@
       </c>
       <c r="G5" s="15">
         <f>+IF($A5=1,data!AD11,G$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="9">
         <f>+IF($A5=1,+IFERROR(G5/D5*100,0),H$14)</f>
-        <v>0.030684258975146</v>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
         <f>+IF($A5=1,data!AF11,I$14)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="9">
         <f>+IF($A5=1,IFERROR(I5/D5*100,0),J$14)</f>
-        <v>0.15342129487573</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15">
         <f>+IF($A5=1,data!D11,K$14)</f>
-        <v>707</v>
+        <v>521</v>
       </c>
       <c r="L5" s="15">
         <f>+IF($A5=1,data!F11,L$14)</f>
@@ -3587,55 +3138,55 @@
       </c>
       <c r="M5" s="15">
         <f>+IF($A5=1,data!AH11,M$14)</f>
-        <v>114</v>
+        <v>499</v>
       </c>
       <c r="N5" s="18">
         <f>IF(A5=1,+data!I11,$N$14)</f>
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="O5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!G11/data!I11,0),O$14),0)</f>
-        <v>7.4438502673797</v>
+        <v>0</v>
       </c>
       <c r="P5" s="9">
         <f>IFERROR(IF($A5=1,IFERROR(data!K11/data!I11*100,0),P$14),0)</f>
-        <v>76.292335115865</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="11">
         <f>IF(A5=1,+data!E11,$Q$14)</f>
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="R5" s="9">
         <f>+IFERROR((K5-Q5)/K5*100,0)</f>
-        <v>83.875530410184</v>
+        <v>87.907869481766</v>
       </c>
       <c r="S5" s="15">
         <f>+IF($A5=1,data!M11,S$14)</f>
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="T5" s="15">
         <f>+IF($A5=1,data!N11,T$14)</f>
-        <v>7200</v>
+        <v>0</v>
       </c>
       <c r="U5" s="9">
         <f>+IF($A5=1,IFERROR(+T5/S5,0),U$14)</f>
-        <v>11.822660098522</v>
+        <v>0</v>
       </c>
       <c r="V5" s="15">
         <f>+IF($A5=1,data!O11,V$14)</f>
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="W5" s="9">
         <f>+IF($A5=1,IFERROR(V5/T5*100,0),W$14)</f>
-        <v>0.63888888888889</v>
+        <v>0</v>
       </c>
       <c r="X5" s="15">
         <f>+IF($A5=1,data!P11,X$14)</f>
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="9">
         <f>+IF($A5=1,IFERROR(X5/T5*100,0),Y$14)</f>
-        <v>7.9305555555556</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="15">
         <f>+IF($A5=1,data!R11,Z$14)</f>
@@ -3647,23 +3198,23 @@
       </c>
       <c r="AB5" s="15">
         <f>+IF($A5=1,data!Q11,AB$14)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="9">
         <f>+IF($A5=1,IFERROR(AB5/T5*100,0),AC$14)</f>
-        <v>0.84722222222222</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="15">
         <f>+IF($A5=1,data!S11,AD$14)</f>
-        <v>6522</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="9">
         <f>+IF($A5=1,IFERROR(AD5/S5,0),AE$14)</f>
-        <v>10.709359605911</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(+(data!M11-data!V11)/S5*100,0),AF$14),0)</f>
-        <v>9.8522167487685</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!U11/data!S11,0),AG$14),0)</f>
@@ -3671,23 +3222,23 @@
       </c>
       <c r="AH5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!T11/data!M11,0),AH$14),0)</f>
-        <v>115.82266009852</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="16">
         <f>+IF($A5=1,IFERROR(S5*12/data!AT7,0),AI$14)</f>
-        <v>2.7723823975721</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="15">
         <f>+IF($A5=1,data!X11,AJ$14)</f>
-        <v>581</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="15">
         <f>+IF($A5=1,data!Y11,AK$14)</f>
-        <v>5935</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="9">
         <f>+IF($A5=1,IFERROR(AK5/AJ5,0),AL$14)</f>
-        <v>10.215146299484</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="15">
         <f>+IF($A5=1,data!AB11,AM$14)</f>
@@ -3699,15 +3250,15 @@
       </c>
       <c r="AO5" s="9">
         <f>+IFERROR(IF($A5=1,IFERROR(data!Z11/data!X11,0),AO$14),0)</f>
-        <v>21.722891566265</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="9">
         <f>+IF($A5=1,IFERROR(AK5*12/data!AT7,0),AP$14)</f>
-        <v>27.018209408194</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="10">
         <f>+IF(A5=1,data!AU11,0)</f>
-        <v>2636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -3725,11 +3276,11 @@
       </c>
       <c r="D6" s="11">
         <f>IFERROR(IF(A6=1,+data!AT12,D$14),0)</f>
-        <v>3441</v>
+        <v>2149</v>
       </c>
       <c r="E6" s="11">
         <f>+data!AW12</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F6" s="11">
         <f>+data!AV12</f>
@@ -3737,79 +3288,79 @@
       </c>
       <c r="G6" s="15">
         <f>+IF($A6=1,data!AD12,G$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9">
         <f>+IF($A6=1,+IFERROR(G6/D6*100,0),H$14)</f>
-        <v>0.0290613193839</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15">
         <f>+IF($A6=1,data!AF12,I$14)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="9">
         <f>+IF($A6=1,IFERROR(I6/D6*100,0),J$14)</f>
-        <v>0.0871839581517</v>
+        <v>0.046533271288972</v>
       </c>
       <c r="K6" s="15">
         <f>+IF($A6=1,data!D12,K$14)</f>
-        <v>787</v>
+        <v>834</v>
       </c>
       <c r="L6" s="15">
         <f>+IF($A6=1,data!F12,L$14)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15">
         <f>+IF($A6=1,data!AH12,M$14)</f>
-        <v>186</v>
+        <v>798</v>
       </c>
       <c r="N6" s="18">
         <f>IF(A6=1,+data!I12,$N$14)</f>
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="O6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!G12/data!I12,0),O$14),0)</f>
-        <v>7.1302083333333</v>
+        <v>0</v>
       </c>
       <c r="P6" s="9">
         <f>IFERROR(IF($A6=1,IFERROR(data!K12/data!I12*100,0),P$14),0)</f>
-        <v>84.375</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="11">
         <f>IF(A6=1,+data!E12,$Q$14)</f>
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="R6" s="9">
         <f>+IFERROR((K6-Q6)/K6*100,0)</f>
-        <v>88.56416772554</v>
+        <v>86.450839328537</v>
       </c>
       <c r="S6" s="15">
         <f>+IF($A6=1,data!M12,S$14)</f>
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
         <f>+IF($A6=1,data!N12,T$14)</f>
-        <v>5713</v>
+        <v>0</v>
       </c>
       <c r="U6" s="9">
         <f>+IF($A6=1,IFERROR(+T6/S6,0),U$14)</f>
-        <v>12.695555555556</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15">
         <f>+IF($A6=1,data!O12,V$14)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="W6" s="9">
         <f>+IF($A6=1,IFERROR(V6/T6*100,0),W$14)</f>
-        <v>0.64764572028706</v>
+        <v>0</v>
       </c>
       <c r="X6" s="15">
         <f>+IF($A6=1,data!P12,X$14)</f>
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="9">
         <f>+IF($A6=1,IFERROR(X6/T6*100,0),Y$14)</f>
-        <v>6.0913705583756</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="15">
         <f>+IF($A6=1,data!R12,Z$14)</f>
@@ -3821,23 +3372,23 @@
       </c>
       <c r="AB6" s="15">
         <f>+IF($A6=1,data!Q12,AB$14)</f>
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="9">
         <f>+IF($A6=1,IFERROR(AB6/T6*100,0),AC$14)</f>
-        <v>0.85769298092071</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="15">
         <f>+IF($A6=1,data!S12,AD$14)</f>
-        <v>5279</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="9">
         <f>+IF($A6=1,IFERROR(AD6/S6,0),AE$14)</f>
-        <v>11.731111111111</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(+(data!M12-data!V12)/S6*100,0),AF$14),0)</f>
-        <v>5.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!U12/data!S12,0),AG$14),0)</f>
@@ -3845,23 +3396,23 @@
       </c>
       <c r="AH6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!T12/data!M12,0),AH$14),0)</f>
-        <v>116.56</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="16">
         <f>+IF($A6=1,IFERROR(S6*12/data!AT8,0),AI$14)</f>
-        <v>1.8900945047252</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="15">
         <f>+IF($A6=1,data!X12,AJ$14)</f>
-        <v>575</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="15">
         <f>+IF($A6=1,data!Y12,AK$14)</f>
-        <v>6450</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="9">
         <f>+IF($A6=1,IFERROR(AK6/AJ6,0),AL$14)</f>
-        <v>11.217391304348</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="15">
         <f>+IF($A6=1,data!AB12,AM$14)</f>
@@ -3873,15 +3424,15 @@
       </c>
       <c r="AO6" s="9">
         <f>+IFERROR(IF($A6=1,IFERROR(data!Z12/data!X12,0),AO$14),0)</f>
-        <v>21.645217391304</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="9">
         <f>+IF($A6=1,IFERROR(AK6*12/data!AT8,0),AP$14)</f>
-        <v>27.091354567728</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="10">
         <f>+IF(A6=1,data!AU12,0)</f>
-        <v>2857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -3899,11 +3450,11 @@
       </c>
       <c r="D7" s="11">
         <f>IFERROR(IF(A7=1,+data!AT13,D$14),0)</f>
-        <v>3725</v>
+        <v>2785</v>
       </c>
       <c r="E7" s="11">
         <f>+data!AW13</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F7" s="11">
         <f>+data!AV13</f>
@@ -3911,79 +3462,79 @@
       </c>
       <c r="G7" s="15">
         <f>+IF($A7=1,data!AD13,G$14)</f>
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="H7" s="9">
         <f>+IF($A7=1,+IFERROR(G7/D7*100,0),H$14)</f>
-        <v>2.1208053691275</v>
+        <v>0.39497307001795</v>
       </c>
       <c r="I7" s="15">
         <f>+IF($A7=1,data!AF13,I$14)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J7" s="9">
         <f>+IF($A7=1,IFERROR(I7/D7*100,0),J$14)</f>
-        <v>0.29530201342282</v>
+        <v>0.50269299820467</v>
       </c>
       <c r="K7" s="15">
         <f>+IF($A7=1,data!D13,K$14)</f>
-        <v>815</v>
+        <v>697</v>
       </c>
       <c r="L7" s="15">
         <f>+IF($A7=1,data!F13,L$14)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
         <f>+IF($A7=1,data!AH13,M$14)</f>
-        <v>374</v>
+        <v>661</v>
       </c>
       <c r="N7" s="18">
         <f>IF(A7=1,+data!I13,$N$14)</f>
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="O7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!G13/data!I13,0),O$14),0)</f>
-        <v>6.772397094431</v>
+        <v>3</v>
       </c>
       <c r="P7" s="9">
         <f>IFERROR(IF($A7=1,IFERROR(data!K13/data!I13*100,0),P$14),0)</f>
-        <v>80.145278450363</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="11">
         <f>IF(A7=1,+data!E13,$Q$14)</f>
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="R7" s="9">
         <f>+IFERROR((K7-Q7)/K7*100,0)</f>
-        <v>89.447852760736</v>
+        <v>86.513629842181</v>
       </c>
       <c r="S7" s="15">
         <f>+IF($A7=1,data!M13,S$14)</f>
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="T7" s="15">
         <f>+IF($A7=1,data!N13,T$14)</f>
-        <v>5800</v>
+        <v>4867</v>
       </c>
       <c r="U7" s="9">
         <f>+IF($A7=1,IFERROR(+T7/S7,0),U$14)</f>
-        <v>12.747252747253</v>
+        <v>12.479487179487</v>
       </c>
       <c r="V7" s="15">
         <f>+IF($A7=1,data!O13,V$14)</f>
-        <v>30</v>
+        <v>202</v>
       </c>
       <c r="W7" s="9">
         <f>+IF($A7=1,IFERROR(V7/T7*100,0),W$14)</f>
-        <v>0.51724137931034</v>
+        <v>4.1504006574892</v>
       </c>
       <c r="X7" s="15">
         <f>+IF($A7=1,data!P13,X$14)</f>
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="Y7" s="9">
         <f>+IF($A7=1,IFERROR(X7/T7*100,0),Y$14)</f>
-        <v>3.7586206896552</v>
+        <v>2.6915964659955</v>
       </c>
       <c r="Z7" s="15">
         <f>+IF($A7=1,data!R13,Z$14)</f>
@@ -3995,23 +3546,23 @@
       </c>
       <c r="AB7" s="15">
         <f>+IF($A7=1,data!Q13,AB$14)</f>
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="AC7" s="9">
         <f>+IF($A7=1,IFERROR(AB7/T7*100,0),AC$14)</f>
-        <v>1.2241379310345</v>
+        <v>2.1779330182864</v>
       </c>
       <c r="AD7" s="15">
         <f>+IF($A7=1,data!S13,AD$14)</f>
-        <v>5481</v>
+        <v>4428</v>
       </c>
       <c r="AE7" s="9">
         <f>+IF($A7=1,IFERROR(AD7/S7,0),AE$14)</f>
-        <v>12.046153846154</v>
+        <v>11.353846153846</v>
       </c>
       <c r="AF7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(+(data!M13-data!V13)/S7*100,0),AF$14),0)</f>
-        <v>1.978021978022</v>
+        <v>9.4871794871795</v>
       </c>
       <c r="AG7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!U13/data!S13,0),AG$14),0)</f>
@@ -4019,43 +3570,43 @@
       </c>
       <c r="AH7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!T13/data!M13,0),AH$14),0)</f>
-        <v>116.56923076923</v>
+        <v>116.45384615385</v>
       </c>
       <c r="AI7" s="16">
         <f>+IF($A7=1,IFERROR(S7*12/data!AT9,0),AI$14)</f>
-        <v>1.8521031207598</v>
+        <v>12.219321148825</v>
       </c>
       <c r="AJ7" s="15">
         <f>+IF($A7=1,data!X13,AJ$14)</f>
-        <v>418</v>
+        <v>144</v>
       </c>
       <c r="AK7" s="15">
         <f>+IF($A7=1,data!Y13,AK$14)</f>
-        <v>4848</v>
+        <v>1576</v>
       </c>
       <c r="AL7" s="9">
         <f>+IF($A7=1,IFERROR(AK7/AJ7,0),AL$14)</f>
-        <v>11.598086124402</v>
+        <v>10.944444444444</v>
       </c>
       <c r="AM7" s="15">
         <f>+IF($A7=1,data!AB13,AM$14)</f>
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="AN7" s="9">
         <f>+IF($A7=1,IFERROR(AM7/AD7*100,0),AN$14)</f>
-        <v>0</v>
+        <v>3.9747064137308</v>
       </c>
       <c r="AO7" s="9">
         <f>+IFERROR(IF($A7=1,IFERROR(data!Z13/data!X13,0),AO$14),0)</f>
-        <v>22.710526315789</v>
+        <v>20.729166666667</v>
       </c>
       <c r="AP7" s="9">
         <f>+IF($A7=1,IFERROR(AK7*12/data!AT9,0),AP$14)</f>
-        <v>19.734056987788</v>
+        <v>49.378590078329</v>
       </c>
       <c r="AR7" s="10">
         <f>+IF(A7=1,data!AU13,0)</f>
-        <v>2948</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -4073,91 +3624,91 @@
       </c>
       <c r="D8" s="11">
         <f>IFERROR(IF(A8=1,+data!AT14,D$14),0)</f>
-        <v>4191</v>
+        <v>3019</v>
       </c>
       <c r="E8" s="11">
         <f>+data!AW14</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F8" s="11">
         <f>+data!AV14</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="G8" s="15">
         <f>+IF($A8=1,data!AD14,G$14)</f>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="H8" s="9">
         <f>+IF($A8=1,+IFERROR(G8/D8*100,0),H$14)</f>
-        <v>1.9565736101169</v>
+        <v>1.0599536270288</v>
       </c>
       <c r="I8" s="15">
         <f>+IF($A8=1,data!AF14,I$14)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J8" s="9">
         <f>+IF($A8=1,IFERROR(I8/D8*100,0),J$14)</f>
-        <v>0.26246719160105</v>
+        <v>0.59622391520371</v>
       </c>
       <c r="K8" s="15">
         <f>+IF($A8=1,data!D14,K$14)</f>
-        <v>977</v>
+        <v>656</v>
       </c>
       <c r="L8" s="15">
         <f>+IF($A8=1,data!F14,L$14)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <f>+IF($A8=1,data!AH14,M$14)</f>
-        <v>559</v>
+        <v>284</v>
       </c>
       <c r="N8" s="18">
         <f>IF(A8=1,+data!I14,$N$14)</f>
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="O8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!G14/data!I14,0),O$14),0)</f>
-        <v>5.59375</v>
+        <v>8.2532051282051</v>
       </c>
       <c r="P8" s="9">
         <f>IFERROR(IF($A8=1,IFERROR(data!K14/data!I14*100,0),P$14),0)</f>
-        <v>87.239583333333</v>
+        <v>77.24358974359</v>
       </c>
       <c r="Q8" s="11">
         <f>IF(A8=1,+data!E14,$Q$14)</f>
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="R8" s="9">
         <f>+IFERROR((K8-Q8)/K8*100,0)</f>
-        <v>91.402251791198</v>
+        <v>88.109756097561</v>
       </c>
       <c r="S8" s="15">
         <f>+IF($A8=1,data!M14,S$14)</f>
-        <v>573</v>
+        <v>519</v>
       </c>
       <c r="T8" s="15">
         <f>+IF($A8=1,data!N14,T$14)</f>
-        <v>7154</v>
+        <v>6424</v>
       </c>
       <c r="U8" s="9">
         <f>+IF($A8=1,IFERROR(+T8/S8,0),U$14)</f>
-        <v>12.485165794066</v>
+        <v>12.377649325626</v>
       </c>
       <c r="V8" s="15">
         <f>+IF($A8=1,data!O14,V$14)</f>
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="W8" s="9">
         <f>+IF($A8=1,IFERROR(V8/T8*100,0),W$14)</f>
-        <v>0.43332401453732</v>
+        <v>3.3779576587796</v>
       </c>
       <c r="X8" s="15">
         <f>+IF($A8=1,data!P14,X$14)</f>
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="Y8" s="9">
         <f>+IF($A8=1,IFERROR(X8/T8*100,0),Y$14)</f>
-        <v>3.5504612804026</v>
+        <v>3.2534246575342</v>
       </c>
       <c r="Z8" s="15">
         <f>+IF($A8=1,data!R14,Z$14)</f>
@@ -4169,23 +3720,23 @@
       </c>
       <c r="AB8" s="15">
         <f>+IF($A8=1,data!Q14,AB$14)</f>
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="AC8" s="9">
         <f>+IF($A8=1,IFERROR(AB8/T8*100,0),AC$14)</f>
-        <v>1.9010343863573</v>
+        <v>1.541095890411</v>
       </c>
       <c r="AD8" s="15">
         <f>+IF($A8=1,data!S14,AD$14)</f>
-        <v>6733</v>
+        <v>5899</v>
       </c>
       <c r="AE8" s="9">
         <f>+IF($A8=1,IFERROR(AD8/S8,0),AE$14)</f>
-        <v>11.750436300175</v>
+        <v>11.366088631985</v>
       </c>
       <c r="AF8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(+(data!M14-data!V14)/S8*100,0),AF$14),0)</f>
-        <v>5.9336823734729</v>
+        <v>5.3949903660886</v>
       </c>
       <c r="AG8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!U14/data!S14,0),AG$14),0)</f>
@@ -4193,43 +3744,43 @@
       </c>
       <c r="AH8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!T14/data!M14,0),AH$14),0)</f>
-        <v>116.61605584642</v>
+        <v>116.94797687861</v>
       </c>
       <c r="AI8" s="16">
         <f>+IF($A8=1,IFERROR(S8*12/data!AT10,0),AI$14)</f>
-        <v>2.1821643922564</v>
+        <v>7.3012895662368</v>
       </c>
       <c r="AJ8" s="15">
         <f>+IF($A8=1,data!X14,AJ$14)</f>
-        <v>487</v>
+        <v>359</v>
       </c>
       <c r="AK8" s="15">
         <f>+IF($A8=1,data!Y14,AK$14)</f>
-        <v>5577</v>
+        <v>3870</v>
       </c>
       <c r="AL8" s="9">
         <f>+IF($A8=1,IFERROR(AK8/AJ8,0),AL$14)</f>
-        <v>11.451745379877</v>
+        <v>10.779944289694</v>
       </c>
       <c r="AM8" s="15">
         <f>+IF($A8=1,data!AB14,AM$14)</f>
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AN8" s="9">
         <f>+IF($A8=1,IFERROR(AM8/AD8*100,0),AN$14)</f>
-        <v>0</v>
+        <v>3.1361247669096</v>
       </c>
       <c r="AO8" s="9">
         <f>+IFERROR(IF($A8=1,IFERROR(data!Z14/data!X14,0),AO$14),0)</f>
-        <v>22.519507186858</v>
+        <v>20.431754874652</v>
       </c>
       <c r="AP8" s="9">
         <f>+IF($A8=1,IFERROR(AK8*12/data!AT10,0),AP$14)</f>
-        <v>21.238971754998</v>
+        <v>54.443141852286</v>
       </c>
       <c r="AR8" s="10">
         <f>+IF(A8=1,data!AU14,0)</f>
-        <v>3151</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -4247,91 +3798,91 @@
       </c>
       <c r="D9" s="11">
         <f>IFERROR(IF(A9=1,+data!AT15,D$14),0)</f>
-        <v>4276</v>
+        <v>3121</v>
       </c>
       <c r="E9" s="11">
         <f>+data!AW15</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F9" s="11">
         <f>+data!AV15</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="G9" s="15">
         <f>+IF($A9=1,data!AD15,G$14)</f>
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="H9" s="9">
         <f>+IF($A9=1,+IFERROR(G9/D9*100,0),H$14)</f>
-        <v>2.5491113189897</v>
+        <v>1.5700096123037</v>
       </c>
       <c r="I9" s="15">
         <f>+IF($A9=1,data!AF15,I$14)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" s="9">
         <f>+IF($A9=1,IFERROR(I9/D9*100,0),J$14)</f>
-        <v>0.30402245088868</v>
+        <v>0.44857417494393</v>
       </c>
       <c r="K9" s="15">
         <f>+IF($A9=1,data!D15,K$14)</f>
-        <v>788</v>
+        <v>679</v>
       </c>
       <c r="L9" s="15">
         <f>+IF($A9=1,data!F15,L$14)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M9" s="15">
         <f>+IF($A9=1,data!AH15,M$14)</f>
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="N9" s="18">
         <f>IF(A9=1,+data!I15,$N$14)</f>
-        <v>530</v>
+        <v>442</v>
       </c>
       <c r="O9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!G15/data!I15,0),O$14),0)</f>
-        <v>6.9943396226415</v>
+        <v>9.9027149321267</v>
       </c>
       <c r="P9" s="9">
         <f>IFERROR(IF($A9=1,IFERROR(data!K15/data!I15*100,0),P$14),0)</f>
-        <v>81.509433962264</v>
+        <v>74.434389140271</v>
       </c>
       <c r="Q9" s="11">
         <f>IF(A9=1,+data!E15,$Q$14)</f>
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="R9" s="9">
         <f>+IFERROR((K9-Q9)/K9*100,0)</f>
-        <v>90.482233502538</v>
+        <v>86.156111929308</v>
       </c>
       <c r="S9" s="15">
         <f>+IF($A9=1,data!M15,S$14)</f>
-        <v>563</v>
+        <v>367</v>
       </c>
       <c r="T9" s="15">
         <f>+IF($A9=1,data!N15,T$14)</f>
-        <v>7143</v>
+        <v>4529</v>
       </c>
       <c r="U9" s="9">
         <f>+IF($A9=1,IFERROR(+T9/S9,0),U$14)</f>
-        <v>12.687388987567</v>
+        <v>12.340599455041</v>
       </c>
       <c r="V9" s="15">
         <f>+IF($A9=1,data!O15,V$14)</f>
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="W9" s="9">
         <f>+IF($A9=1,IFERROR(V9/T9*100,0),W$14)</f>
-        <v>0.75598488030239</v>
+        <v>3.6211084124531</v>
       </c>
       <c r="X9" s="15">
         <f>+IF($A9=1,data!P15,X$14)</f>
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="Y9" s="9">
         <f>+IF($A9=1,IFERROR(X9/T9*100,0),Y$14)</f>
-        <v>2.4639507209856</v>
+        <v>2.340472510488</v>
       </c>
       <c r="Z9" s="15">
         <f>+IF($A9=1,data!R15,Z$14)</f>
@@ -4343,23 +3894,23 @@
       </c>
       <c r="AB9" s="15">
         <f>+IF($A9=1,data!Q15,AB$14)</f>
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="AC9" s="9">
         <f>+IF($A9=1,IFERROR(AB9/T9*100,0),AC$14)</f>
-        <v>1.9179616407672</v>
+        <v>2.2521527931111</v>
       </c>
       <c r="AD9" s="15">
         <f>+IF($A9=1,data!S15,AD$14)</f>
-        <v>6776</v>
+        <v>4157</v>
       </c>
       <c r="AE9" s="9">
         <f>+IF($A9=1,IFERROR(AD9/S9,0),AE$14)</f>
-        <v>12.035523978686</v>
+        <v>11.326975476839</v>
       </c>
       <c r="AF9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(+(data!M15-data!V15)/S9*100,0),AF$14),0)</f>
-        <v>3.5523978685613</v>
+        <v>6.267029972752</v>
       </c>
       <c r="AG9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!U15/data!S15,0),AG$14),0)</f>
@@ -4367,43 +3918,43 @@
       </c>
       <c r="AH9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!T15/data!M15,0),AH$14),0)</f>
-        <v>116.66252220249</v>
+        <v>116.55313351499</v>
       </c>
       <c r="AI9" s="16">
         <f>+IF($A9=1,IFERROR(S9*12/data!AT11,0),AI$14)</f>
-        <v>2.0730285363608</v>
+        <v>3.2573964497041</v>
       </c>
       <c r="AJ9" s="15">
         <f>+IF($A9=1,data!X15,AJ$14)</f>
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="AK9" s="15">
         <f>+IF($A9=1,data!Y15,AK$14)</f>
-        <v>5959</v>
+        <v>6262</v>
       </c>
       <c r="AL9" s="9">
         <f>+IF($A9=1,IFERROR(AK9/AJ9,0),AL$14)</f>
-        <v>11.264650283554</v>
+        <v>10.559865092749</v>
       </c>
       <c r="AM9" s="15">
         <f>+IF($A9=1,data!AB15,AM$14)</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="AN9" s="9">
         <f>+IF($A9=1,IFERROR(AM9/AD9*100,0),AN$14)</f>
-        <v>0</v>
+        <v>4.2097666586481</v>
       </c>
       <c r="AO9" s="9">
         <f>+IFERROR(IF($A9=1,IFERROR(data!Z15/data!X15,0),AO$14),0)</f>
-        <v>22.646502835539</v>
+        <v>20.483979763912</v>
       </c>
       <c r="AP9" s="9">
         <f>+IF($A9=1,IFERROR(AK9*12/data!AT11,0),AP$14)</f>
-        <v>21.941699907947</v>
+        <v>55.579881656805</v>
       </c>
       <c r="AR9" s="10">
         <f>+IF(A9=1,data!AU15,0)</f>
-        <v>3259</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -4421,91 +3972,91 @@
       </c>
       <c r="D10" s="11">
         <f>IFERROR(IF(A10=1,+data!AT16,D$14),0)</f>
-        <v>4339</v>
+        <v>3201</v>
       </c>
       <c r="E10" s="11">
         <f>+data!AW16</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F10" s="11">
         <f>+data!AV16</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G10" s="15">
         <f>+IF($A10=1,data!AD16,G$14)</f>
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="H10" s="9">
         <f>+IF($A10=1,+IFERROR(G10/D10*100,0),H$14)</f>
-        <v>2.9499884766075</v>
+        <v>1.5620118712902</v>
       </c>
       <c r="I10" s="15">
         <f>+IF($A10=1,data!AF16,I$14)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J10" s="9">
         <f>+IF($A10=1,IFERROR(I10/D10*100,0),J$14)</f>
-        <v>0.27656141968195</v>
+        <v>0.56232427366448</v>
       </c>
       <c r="K10" s="15">
         <f>+IF($A10=1,data!D16,K$14)</f>
-        <v>797</v>
+        <v>629</v>
       </c>
       <c r="L10" s="15">
         <f>+IF($A10=1,data!F16,L$14)</f>
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="M10" s="15">
         <f>+IF($A10=1,data!AH16,M$14)</f>
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="N10" s="18">
         <f>IF(A10=1,+data!I16,$N$14)</f>
-        <v>434</v>
+        <v>386</v>
       </c>
       <c r="O10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!G16/data!I16,0),O$14),0)</f>
-        <v>8.2880184331797</v>
+        <v>15.064766839378</v>
       </c>
       <c r="P10" s="9">
         <f>IFERROR(IF($A10=1,IFERROR(data!K16/data!I16*100,0),P$14),0)</f>
-        <v>73.502304147465</v>
+        <v>50.518134715026</v>
       </c>
       <c r="Q10" s="11">
         <f>IF(A10=1,+data!E16,$Q$14)</f>
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="R10" s="9">
         <f>+IFERROR((K10-Q10)/K10*100,0)</f>
-        <v>90.0878293601</v>
+        <v>78.855325914149</v>
       </c>
       <c r="S10" s="15">
         <f>+IF($A10=1,data!M16,S$14)</f>
-        <v>630</v>
+        <v>774</v>
       </c>
       <c r="T10" s="15">
         <f>+IF($A10=1,data!N16,T$14)</f>
-        <v>7996</v>
+        <v>9459</v>
       </c>
       <c r="U10" s="9">
         <f>+IF($A10=1,IFERROR(+T10/S10,0),U$14)</f>
-        <v>12.692063492063</v>
+        <v>12.220930232558</v>
       </c>
       <c r="V10" s="15">
         <f>+IF($A10=1,data!O16,V$14)</f>
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="W10" s="9">
         <f>+IF($A10=1,IFERROR(V10/T10*100,0),W$14)</f>
-        <v>0.77538769384692</v>
+        <v>3.6790358388836</v>
       </c>
       <c r="X10" s="15">
         <f>+IF($A10=1,data!P16,X$14)</f>
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="Y10" s="9">
         <f>+IF($A10=1,IFERROR(X10/T10*100,0),Y$14)</f>
-        <v>2.3636818409205</v>
+        <v>2.2201078338091</v>
       </c>
       <c r="Z10" s="15">
         <f>+IF($A10=1,data!R16,Z$14)</f>
@@ -4517,23 +4068,23 @@
       </c>
       <c r="AB10" s="15">
         <f>+IF($A10=1,data!Q16,AB$14)</f>
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="AC10" s="9">
         <f>+IF($A10=1,IFERROR(AB10/T10*100,0),AC$14)</f>
-        <v>0.92546273136568</v>
+        <v>2.2729675441379</v>
       </c>
       <c r="AD10" s="15">
         <f>+IF($A10=1,data!S16,AD$14)</f>
-        <v>7671</v>
+        <v>8686</v>
       </c>
       <c r="AE10" s="9">
         <f>+IF($A10=1,IFERROR(AD10/S10,0),AE$14)</f>
-        <v>12.17619047619</v>
+        <v>11.222222222222</v>
       </c>
       <c r="AF10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(+(data!M16-data!V16)/S10*100,0),AF$14),0)</f>
-        <v>7.1428571428571</v>
+        <v>7.6227390180879</v>
       </c>
       <c r="AG10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!U16/data!S16,0),AG$14),0)</f>
@@ -4541,43 +4092,43 @@
       </c>
       <c r="AH10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!T16/data!M16,0),AH$14),0)</f>
-        <v>117.00952380952</v>
+        <v>116.24935400517</v>
       </c>
       <c r="AI10" s="16">
         <f>+IF($A10=1,IFERROR(S10*12/data!AT12,0),AI$14)</f>
-        <v>2.1970357454228</v>
+        <v>4.3220102373197</v>
       </c>
       <c r="AJ10" s="15">
         <f>+IF($A10=1,data!X16,AJ$14)</f>
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="AK10" s="15">
         <f>+IF($A10=1,data!Y16,AK$14)</f>
-        <v>6123</v>
+        <v>5597</v>
       </c>
       <c r="AL10" s="9">
         <f>+IF($A10=1,IFERROR(AK10/AJ10,0),AL$14)</f>
-        <v>11.153005464481</v>
+        <v>10.742802303263</v>
       </c>
       <c r="AM10" s="15">
         <f>+IF($A10=1,data!AB16,AM$14)</f>
-        <v>145</v>
+        <v>352</v>
       </c>
       <c r="AN10" s="9">
         <f>+IF($A10=1,IFERROR(AM10/AD10*100,0),AN$14)</f>
-        <v>1.8902359535914</v>
+        <v>4.0524982730831</v>
       </c>
       <c r="AO10" s="9">
         <f>+IFERROR(IF($A10=1,IFERROR(data!Z16/data!X16,0),AO$14),0)</f>
-        <v>23.865209471767</v>
+        <v>18.8886756238</v>
       </c>
       <c r="AP10" s="9">
         <f>+IF($A10=1,IFERROR(AK10*12/data!AT12,0),AP$14)</f>
-        <v>21.353095030514</v>
+        <v>31.253606328525</v>
       </c>
       <c r="AR10" s="10">
         <f>+IF(A10=1,data!AU16,0)</f>
-        <v>3441</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4595,91 +4146,91 @@
       </c>
       <c r="D11" s="11">
         <f>IFERROR(IF(A11=1,+data!AT17,D$14),0)</f>
-        <v>4641</v>
+        <v>2989</v>
       </c>
       <c r="E11" s="11">
         <f>+data!AW17</f>
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F11" s="11">
         <f>+data!AV17</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G11" s="15">
         <f>+IF($A11=1,data!AD17,G$14)</f>
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="H11" s="9">
         <f>+IF($A11=1,+IFERROR(G11/D11*100,0),H$14)</f>
-        <v>2.1762551174316</v>
+        <v>7.7952492472399</v>
       </c>
       <c r="I11" s="15">
         <f>+IF($A11=1,data!AF17,I$14)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J11" s="9">
         <f>+IF($A11=1,IFERROR(I11/D11*100,0),J$14)</f>
-        <v>0.34475328592976</v>
+        <v>0.66912010705922</v>
       </c>
       <c r="K11" s="15">
         <f>+IF($A11=1,data!D17,K$14)</f>
-        <v>1060</v>
+        <v>660</v>
       </c>
       <c r="L11" s="15">
         <f>+IF($A11=1,data!F17,L$14)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M11" s="15">
         <f>+IF($A11=1,data!AH17,M$14)</f>
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="N11" s="18">
         <f>IF(A11=1,+data!I17,$N$14)</f>
-        <v>623</v>
+        <v>530</v>
       </c>
       <c r="O11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!G17/data!I17,0),O$14),0)</f>
-        <v>5.2327447833066</v>
+        <v>13.315094339623</v>
       </c>
       <c r="P11" s="9">
         <f>IFERROR(IF($A11=1,IFERROR(data!K17/data!I17*100,0),P$14),0)</f>
-        <v>85.232744783307</v>
+        <v>65.849056603774</v>
       </c>
       <c r="Q11" s="11">
         <f>IF(A11=1,+data!E17,$Q$14)</f>
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="R11" s="9">
         <f>+IFERROR((K11-Q11)/K11*100,0)</f>
-        <v>92.924528301887</v>
+        <v>83.333333333333</v>
       </c>
       <c r="S11" s="15">
         <f>+IF($A11=1,data!M17,S$14)</f>
-        <v>812</v>
+        <v>621</v>
       </c>
       <c r="T11" s="15">
         <f>+IF($A11=1,data!N17,T$14)</f>
-        <v>10436</v>
+        <v>7558</v>
       </c>
       <c r="U11" s="9">
         <f>+IF($A11=1,IFERROR(+T11/S11,0),U$14)</f>
-        <v>12.852216748768</v>
+        <v>12.170692431562</v>
       </c>
       <c r="V11" s="15">
         <f>+IF($A11=1,data!O17,V$14)</f>
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="W11" s="9">
         <f>+IF($A11=1,IFERROR(V11/T11*100,0),W$14)</f>
-        <v>0.50785741663473</v>
+        <v>2.9902090500132</v>
       </c>
       <c r="X11" s="15">
         <f>+IF($A11=1,data!P17,X$14)</f>
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="Y11" s="9">
         <f>+IF($A11=1,IFERROR(X11/T11*100,0),Y$14)</f>
-        <v>2.318896128785</v>
+        <v>2.421275469701</v>
       </c>
       <c r="Z11" s="15">
         <f>+IF($A11=1,data!R17,Z$14)</f>
@@ -4691,23 +4242,23 @@
       </c>
       <c r="AB11" s="15">
         <f>+IF($A11=1,data!Q17,AB$14)</f>
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="AC11" s="9">
         <f>+IF($A11=1,IFERROR(AB11/T11*100,0),AC$14)</f>
-        <v>0.96780375622844</v>
+        <v>2.6991267531093</v>
       </c>
       <c r="AD11" s="15">
         <f>+IF($A11=1,data!S17,AD$14)</f>
-        <v>10040</v>
+        <v>6945</v>
       </c>
       <c r="AE11" s="9">
         <f>+IF($A11=1,IFERROR(AD11/S11,0),AE$14)</f>
-        <v>12.364532019704</v>
+        <v>11.183574879227</v>
       </c>
       <c r="AF11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(+(data!M17-data!V17)/S11*100,0),AF$14),0)</f>
-        <v>6.2807881773399</v>
+        <v>9.1787439613527</v>
       </c>
       <c r="AG11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!U17/data!S17,0),AG$14),0)</f>
@@ -4715,43 +4266,43 @@
       </c>
       <c r="AH11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!T17/data!M17,0),AH$14),0)</f>
-        <v>117.0184729064</v>
+        <v>116.52012882448</v>
       </c>
       <c r="AI11" s="16">
         <f>+IF($A11=1,IFERROR(S11*12/data!AT13,0),AI$14)</f>
-        <v>2.6158389261745</v>
+        <v>2.675763016158</v>
       </c>
       <c r="AJ11" s="15">
         <f>+IF($A11=1,data!X17,AJ$14)</f>
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="AK11" s="15">
         <f>+IF($A11=1,data!Y17,AK$14)</f>
-        <v>6957</v>
+        <v>6128</v>
       </c>
       <c r="AL11" s="9">
         <f>+IF($A11=1,IFERROR(AK11/AJ11,0),AL$14)</f>
-        <v>11.184887459807</v>
+        <v>10.045901639344</v>
       </c>
       <c r="AM11" s="15">
         <f>+IF($A11=1,data!AB17,AM$14)</f>
-        <v>442</v>
+        <v>831</v>
       </c>
       <c r="AN11" s="9">
         <f>+IF($A11=1,IFERROR(AM11/AD11*100,0),AN$14)</f>
-        <v>4.402390438247</v>
+        <v>11.965442764579</v>
       </c>
       <c r="AO11" s="9">
         <f>+IFERROR(IF($A11=1,IFERROR(data!Z17/data!X17,0),AO$14),0)</f>
-        <v>22.808681672026</v>
+        <v>21.588524590164</v>
       </c>
       <c r="AP11" s="9">
         <f>+IF($A11=1,IFERROR(AK11*12/data!AT13,0),AP$14)</f>
-        <v>22.411812080537</v>
+        <v>26.404308797127</v>
       </c>
       <c r="AR11" s="10">
         <f>+IF(A11=1,data!AU17,0)</f>
-        <v>3725</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -4759,9 +4310,9 @@
         <f>IFERROR(+B13+B12,1)</f>
         <v>1</v>
       </c>
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="10">
         <f>IF(+data!C18&amp;"-"="-",0,+data!C18&amp;"-")</f>
-        <v>2020-9-11-</v>
+        <v>0</v>
       </c>
       <c r="C12" s="10">
         <f>IF(A12=1,C11+1,$C$14)</f>
@@ -4769,91 +4320,91 @@
       </c>
       <c r="D12" s="11">
         <f>IFERROR(IF(A12=1,+data!AT18,D$14),0)</f>
-        <v>4865</v>
+        <v>2824</v>
       </c>
       <c r="E12" s="11">
         <f>+data!AW18</f>
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F12" s="11">
         <f>+data!AV18</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G12" s="15">
         <f>+IF($A12=1,data!AD18,G$14)</f>
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="H12" s="9">
         <f>+IF($A12=1,+IFERROR(G12/D12*100,0),H$14)</f>
-        <v>1.6855087358684</v>
+        <v>5.6303116147309</v>
       </c>
       <c r="I12" s="15">
         <f>+IF($A12=1,data!AF18,I$14)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J12" s="9">
         <f>+IF($A12=1,IFERROR(I12/D12*100,0),J$14)</f>
-        <v>0.18499486125385</v>
+        <v>0.21246458923513</v>
       </c>
       <c r="K12" s="15">
         <f>+IF($A12=1,data!D18,K$14)</f>
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="L12" s="15">
         <f>+IF($A12=1,data!F18,L$14)</f>
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="M12" s="15">
         <f>+IF($A12=1,data!AH18,M$14)</f>
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N12" s="18">
         <f>IF(A12=1,+data!I18,$N$14)</f>
-        <v>661</v>
+        <v>0</v>
       </c>
       <c r="O12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!G18/data!I18,0),O$14),0)</f>
-        <v>4.9046898638427</v>
+        <v>0</v>
       </c>
       <c r="P12" s="9">
         <f>IFERROR(IF($A12=1,IFERROR(data!K18/data!I18*100,0),P$14),0)</f>
-        <v>91.981845688351</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="11">
         <f>IF(A12=1,+data!E18,$Q$14)</f>
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <f>+IFERROR((K12-Q12)/K12*100,0)</f>
-        <v>91.139240506329</v>
+        <v>0</v>
       </c>
       <c r="S12" s="15">
         <f>+IF($A12=1,data!M18,S$14)</f>
-        <v>827</v>
+        <v>455</v>
       </c>
       <c r="T12" s="15">
         <f>+IF($A12=1,data!N18,T$14)</f>
-        <v>10611</v>
+        <v>5473</v>
       </c>
       <c r="U12" s="9">
         <f>+IF($A12=1,IFERROR(+T12/S12,0),U$14)</f>
-        <v>12.830713422007</v>
+        <v>12.028571428571</v>
       </c>
       <c r="V12" s="15">
         <f>+IF($A12=1,data!O18,V$14)</f>
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="W12" s="9">
         <f>+IF($A12=1,IFERROR(V12/T12*100,0),W$14)</f>
-        <v>0.49005748751296</v>
+        <v>3.1427005298739</v>
       </c>
       <c r="X12" s="15">
         <f>+IF($A12=1,data!P18,X$14)</f>
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="Y12" s="9">
         <f>+IF($A12=1,IFERROR(X12/T12*100,0),Y$14)</f>
-        <v>1.7057770238432</v>
+        <v>2.0098666179426</v>
       </c>
       <c r="Z12" s="15">
         <f>+IF($A12=1,data!R18,Z$14)</f>
@@ -4865,23 +4416,23 @@
       </c>
       <c r="AB12" s="15">
         <f>+IF($A12=1,data!Q18,AB$14)</f>
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="AC12" s="9">
         <f>+IF($A12=1,IFERROR(AB12/T12*100,0),AC$14)</f>
-        <v>0.99896333993026</v>
+        <v>2.6128266033254</v>
       </c>
       <c r="AD12" s="15">
         <f>+IF($A12=1,data!S18,AD$14)</f>
-        <v>10272</v>
+        <v>5048</v>
       </c>
       <c r="AE12" s="9">
         <f>+IF($A12=1,IFERROR(AD12/S12,0),AE$14)</f>
-        <v>12.420798065296</v>
+        <v>11.094505494505</v>
       </c>
       <c r="AF12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(+(data!M18-data!V18)/S12*100,0),AF$14),0)</f>
-        <v>5.4413542926239</v>
+        <v>9.4505494505495</v>
       </c>
       <c r="AG12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!U18/data!S18,0),AG$14),0)</f>
@@ -4889,43 +4440,43 @@
       </c>
       <c r="AH12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!T18/data!M18,0),AH$14),0)</f>
-        <v>118.19467956469</v>
+        <v>116.37802197802</v>
       </c>
       <c r="AI12" s="16">
         <f>+IF($A12=1,IFERROR(S12*12/data!AT14,0),AI$14)</f>
-        <v>2.3679312813171</v>
+        <v>1.8085458761179</v>
       </c>
       <c r="AJ12" s="15">
         <f>+IF($A12=1,data!X18,AJ$14)</f>
-        <v>685</v>
+        <v>391</v>
       </c>
       <c r="AK12" s="15">
         <f>+IF($A12=1,data!Y18,AK$14)</f>
-        <v>7799</v>
+        <v>3523</v>
       </c>
       <c r="AL12" s="9">
         <f>+IF($A12=1,IFERROR(AK12/AJ12,0),AL$14)</f>
-        <v>11.385401459854</v>
+        <v>9.0102301790281</v>
       </c>
       <c r="AM12" s="15">
         <f>+IF($A12=1,data!AB18,AM$14)</f>
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="AN12" s="9">
         <f>+IF($A12=1,IFERROR(AM12/AD12*100,0),AN$14)</f>
-        <v>4.5560747663551</v>
+        <v>8.6965134706815</v>
       </c>
       <c r="AO12" s="9">
         <f>+IFERROR(IF($A12=1,IFERROR(data!Z18/data!X18,0),AO$14),0)</f>
-        <v>23.47299270073</v>
+        <v>24.148337595908</v>
       </c>
       <c r="AP12" s="9">
         <f>+IF($A12=1,IFERROR(AK12*12/data!AT14,0),AP$14)</f>
-        <v>22.330708661417</v>
+        <v>14.003312355084</v>
       </c>
       <c r="AR12" s="10">
         <f>+IF(A12=1,data!AU18,0)</f>
-        <v>4191</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -4943,91 +4494,91 @@
       </c>
       <c r="D13" s="11">
         <f>IFERROR(IF(A13=1,+data!AT19,D$14),0)</f>
-        <v>5041</v>
+        <v>2721</v>
       </c>
       <c r="E13" s="11">
         <f>+data!AW19</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F13" s="11">
         <f>+data!AV19</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G13" s="15">
         <f>+IF($A13=1,data!AD19,G$14)</f>
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="H13" s="9">
         <f>+IF($A13=1,+IFERROR(G13/D13*100,0),H$14)</f>
-        <v>1.44812537195</v>
+        <v>5.3656743844175</v>
       </c>
       <c r="I13" s="15">
         <f>+IF($A13=1,data!AF19,I$14)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="9">
         <f>+IF($A13=1,IFERROR(I13/D13*100,0),J$14)</f>
-        <v>0.1388613370363</v>
+        <v>0.22050716648291</v>
       </c>
       <c r="K13" s="15">
         <f>+IF($A13=1,data!D19,K$14)</f>
-        <v>1143</v>
+        <v>651</v>
       </c>
       <c r="L13" s="15">
         <f>+IF($A13=1,data!F19,L$14)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
         <f>+IF($A13=1,data!AH19,M$14)</f>
-        <v>256</v>
+        <v>49</v>
       </c>
       <c r="N13" s="18">
         <f>IF(A13=1,+data!I19,$N$14)</f>
-        <v>827</v>
+        <v>524</v>
       </c>
       <c r="O13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!G19/data!I19,0),O$14),0)</f>
-        <v>5.1547762998791</v>
+        <v>30.742366412214</v>
       </c>
       <c r="P13" s="9">
         <f>IFERROR(IF($A13=1,IFERROR(data!K19/data!I19*100,0),P$14),0)</f>
-        <v>91.051995163241</v>
+        <v>35.114503816794</v>
       </c>
       <c r="Q13" s="11">
         <f>IF(A13=1,+data!E19,$Q$14)</f>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="R13" s="9">
         <f>+IFERROR((K13-Q13)/K13*100,0)</f>
-        <v>96.587926509186</v>
+        <v>89.400921658986</v>
       </c>
       <c r="S13" s="15">
         <f>+IF($A13=1,data!M19,S$14)</f>
-        <v>688</v>
+        <v>521</v>
       </c>
       <c r="T13" s="15">
         <f>+IF($A13=1,data!N19,T$14)</f>
-        <v>8772</v>
+        <v>6241</v>
       </c>
       <c r="U13" s="9">
         <f>+IF($A13=1,IFERROR(+T13/S13,0),U$14)</f>
-        <v>12.75</v>
+        <v>11.978886756238</v>
       </c>
       <c r="V13" s="15">
         <f>+IF($A13=1,data!O19,V$14)</f>
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="W13" s="9">
         <f>+IF($A13=1,IFERROR(V13/T13*100,0),W$14)</f>
-        <v>0.1937984496124</v>
+        <v>4.2140682582919</v>
       </c>
       <c r="X13" s="15">
         <f>+IF($A13=1,data!P19,X$14)</f>
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="Y13" s="9">
         <f>+IF($A13=1,IFERROR(X13/T13*100,0),Y$14)</f>
-        <v>2.9753761969904</v>
+        <v>2.1951610318859</v>
       </c>
       <c r="Z13" s="15">
         <f>+IF($A13=1,data!R19,Z$14)</f>
@@ -5039,23 +4590,23 @@
       </c>
       <c r="AB13" s="15">
         <f>+IF($A13=1,data!Q19,AB$14)</f>
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="AC13" s="9">
         <f>+IF($A13=1,IFERROR(AB13/T13*100,0),AC$14)</f>
-        <v>0.37619699042408</v>
+        <v>2.0509533728569</v>
       </c>
       <c r="AD13" s="15">
         <f>+IF($A13=1,data!S19,AD$14)</f>
-        <v>8461</v>
+        <v>5713</v>
       </c>
       <c r="AE13" s="9">
         <f>+IF($A13=1,IFERROR(AD13/S13,0),AE$14)</f>
-        <v>12.297965116279</v>
+        <v>10.965451055662</v>
       </c>
       <c r="AF13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(+(data!M19-data!V19)/S13*100,0),AF$14),0)</f>
-        <v>4.0697674418605</v>
+        <v>11.708253358925</v>
       </c>
       <c r="AG13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!U19/data!S19,0),AG$14),0)</f>
@@ -5063,43 +4614,43 @@
       </c>
       <c r="AH13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!T19/data!M19,0),AH$14),0)</f>
-        <v>118.89244186047</v>
+        <v>116.83877159309</v>
       </c>
       <c r="AI13" s="16">
         <f>+IF($A13=1,IFERROR(S13*12/data!AT15,0),AI$14)</f>
-        <v>1.9307764265669</v>
+        <v>2.0032041012496</v>
       </c>
       <c r="AJ13" s="15">
         <f>+IF($A13=1,data!X19,AJ$14)</f>
-        <v>800</v>
+        <v>569</v>
       </c>
       <c r="AK13" s="15">
         <f>+IF($A13=1,data!Y19,AK$14)</f>
-        <v>9401</v>
+        <v>5213</v>
       </c>
       <c r="AL13" s="9">
         <f>+IF($A13=1,IFERROR(AK13/AJ13,0),AL$14)</f>
-        <v>11.75125</v>
+        <v>9.1616871704745</v>
       </c>
       <c r="AM13" s="15">
         <f>+IF($A13=1,data!AB19,AM$14)</f>
-        <v>407</v>
+        <v>832</v>
       </c>
       <c r="AN13" s="9">
         <f>+IF($A13=1,IFERROR(AM13/AD13*100,0),AN$14)</f>
-        <v>4.8103061103888</v>
+        <v>14.563276737266</v>
       </c>
       <c r="AO13" s="9">
         <f>+IFERROR(IF($A13=1,IFERROR(data!Z19/data!X19,0),AO$14),0)</f>
-        <v>23.5225</v>
+        <v>30.228471001757</v>
       </c>
       <c r="AP13" s="9">
         <f>+IF($A13=1,IFERROR(AK13*12/data!AT15,0),AP$14)</f>
-        <v>26.382600561272</v>
+        <v>20.043575776995</v>
       </c>
       <c r="AR13" s="10">
         <f>+IF(A13=1,data!AU19,0)</f>
-        <v>4276</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -5113,23 +4664,23 @@
       </c>
       <c r="D14" s="11">
         <f>+IFERROR(_xlfn.SUMIFS(D2:D13,A2:A13,1)/A14,0)</f>
-        <v>3894.5</v>
+        <v>2116.4166666667</v>
       </c>
       <c r="E14" s="11">
         <f>+E13</f>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F14" s="11">
         <f>+F13</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <f>+_xlfn.SUMIFS(G2:G13,$A$2:$A$13,1)</f>
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="H14" s="9">
         <f>+IFERROR(G14*12/D14*100/A14,0)</f>
-        <v>16.844267556811</v>
+        <v>32.129779107769</v>
       </c>
       <c r="I14" s="8">
         <f>+_xlfn.SUMIFS(I2:I13,$A$2:$A$13,1)</f>
@@ -5137,67 +4688,67 @@
       </c>
       <c r="J14" s="9">
         <f>+IFERROR(I14*12/A14/D14*100,0)</f>
-        <v>2.5163692386699</v>
+        <v>4.6304681655314</v>
       </c>
       <c r="K14" s="8">
         <f>+_xlfn.SUMIFS(K2:K13,$A$2:$A$13,1)</f>
-        <v>9925</v>
+        <v>6197</v>
       </c>
       <c r="L14" s="8">
         <f>+_xlfn.SUMIFS(L2:L13,$A$2:$A$13,1)</f>
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="M14" s="8">
         <f>+_xlfn.SUMIFS(M2:M13,$A$2:$A$13,1)</f>
-        <v>3159</v>
+        <v>3499</v>
       </c>
       <c r="N14" s="18">
         <f>+_xlfn.SUMIFS(N2:N13,$A$2:$A$13,1)</f>
-        <v>6233</v>
+        <v>2198</v>
       </c>
       <c r="O14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(O2:O13,$A$2:$A$13,1)/A14,0)</f>
-        <v>6.2565223863297</v>
+        <v>6.6898456376289</v>
       </c>
       <c r="P14" s="9">
         <f>IFERROR(_xlfn.SUMIFS(P2:P13,$A$2:$A$13,1)/A14,0)</f>
-        <v>84.015642374052</v>
+        <v>33.596639501621</v>
       </c>
       <c r="Q14" s="18">
         <f>+_xlfn.SUMIFS(Q2:Q13,$A$2:$A$13,1)</f>
-        <v>1020</v>
+        <v>846</v>
       </c>
       <c r="R14" s="9">
         <f>+IFERROR((K14-Q14)/K14*100,0)</f>
-        <v>89.722921914358</v>
+        <v>86.348233015975</v>
       </c>
       <c r="S14" s="8">
         <f>+_xlfn.SUMIFS(S2:S13,$A$2:$A$13,1)</f>
-        <v>7071</v>
+        <v>3647</v>
       </c>
       <c r="T14" s="8">
         <f>+_xlfn.SUMIFS(T2:T13,$A$2:$A$13,1)</f>
-        <v>89090</v>
+        <v>44551</v>
       </c>
       <c r="U14" s="9">
         <f>+IFERROR(T14/S14,0)</f>
-        <v>12.599349455523</v>
+        <v>12.215793803126</v>
       </c>
       <c r="V14" s="8">
         <f>+_xlfn.SUMIFS(V2:V13,$A$2:$A$13,1)</f>
-        <v>563</v>
+        <v>1592</v>
       </c>
       <c r="W14" s="9">
         <f>IFERROR(V14/T14*100,0)</f>
-        <v>0.63194522393086</v>
+        <v>3.5734326951135</v>
       </c>
       <c r="X14" s="8">
         <f>+_xlfn.SUMIFS(X2:X13,$A$2:$A$13,1)</f>
-        <v>3677</v>
+        <v>1086</v>
       </c>
       <c r="Y14" s="9">
         <f>+IFERROR(X14/T14*100,0)</f>
-        <v>4.1272870131328</v>
+        <v>2.4376557204103</v>
       </c>
       <c r="Z14" s="8">
         <f>+_xlfn.SUMIFS(Z2:Z13,$A$2:$A$13,1)</f>
@@ -5209,23 +4760,23 @@
       </c>
       <c r="AB14" s="8">
         <f>+_xlfn.SUMIFS(AB2:AB13,$A$2:$A$13,1)</f>
-        <v>1027</v>
+        <v>997</v>
       </c>
       <c r="AC14" s="9">
         <f>+IFERROR(AB14/T14*100,0)</f>
-        <v>1.152766864968</v>
+        <v>2.2378846715001</v>
       </c>
       <c r="AD14" s="8">
         <f>+_xlfn.SUMIFS(AD2:AD13,$A$2:$A$13,1)</f>
-        <v>83823</v>
+        <v>40876</v>
       </c>
       <c r="AE14" s="9">
         <f>+IFERROR(AD14/S14,0)</f>
-        <v>11.85447602885</v>
+        <v>11.20811625994</v>
       </c>
       <c r="AF14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AF2:AF13,$A$2:$A$13,1)/A14,0)</f>
-        <v>6.1117368611444</v>
+        <v>4.9257904679113</v>
       </c>
       <c r="AG14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AG2:AG13,$A$2:$A$13,1)/A14,0)</f>
@@ -5233,55 +4784,55 @@
       </c>
       <c r="AH14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AH2:AH13,$A$2:$A$13,1)/A14,0)</f>
-        <v>116.96493324024</v>
+        <v>67.995102745683</v>
       </c>
       <c r="AI14" s="16">
         <f>IFERROR(S14/$A$14*12/AI16,0)</f>
-        <v>2.3922862217711</v>
+        <v>3.2033377250769</v>
       </c>
       <c r="AJ14" s="8">
         <f>+_xlfn.SUMIFS(AJ2:AJ13,$A$2:$A$13,1)</f>
-        <v>6549</v>
+        <v>3187</v>
       </c>
       <c r="AK14" s="8">
         <f>+_xlfn.SUMIFS(AK2:AK13,$A$2:$A$13,1)</f>
-        <v>73231</v>
+        <v>32169</v>
       </c>
       <c r="AL14" s="9">
         <f>+IFERROR(AK14/AJ14,0)</f>
-        <v>11.182012520996</v>
+        <v>10.093818638218</v>
       </c>
       <c r="AM14" s="8">
         <f>+_xlfn.SUMIFS(AM2:AM13,$A$2:$A$13,1)</f>
-        <v>1462</v>
+        <v>2990</v>
       </c>
       <c r="AN14" s="9">
         <f>+IFERROR(AM14/AD14*100,0)</f>
-        <v>1.74415136657</v>
+        <v>7.3148057539877</v>
       </c>
       <c r="AO14" s="9">
         <f>+IFERROR(_xlfn.SUMIFS(AO2:AO13,$A$2:$A$13,1)/A14,0)</f>
-        <v>22.655411216557</v>
+        <v>13.041575843072</v>
       </c>
       <c r="AP14" s="9">
         <f>IFERROR(AK14/$A$14*12/AI16,0)</f>
-        <v>24.775776029772</v>
+        <v>28.255599472991</v>
       </c>
       <c r="AR14" s="10">
         <f>+SUM(AR2:AR13)</f>
-        <v>35469</v>
+        <v>13662</v>
       </c>
     </row>
     <row r="15" spans="1:44">
       <c r="AI15" s="9">
         <f>+AR14</f>
-        <v>35469</v>
+        <v>13662</v>
       </c>
     </row>
     <row r="16" spans="1:44">
       <c r="AI16" s="9">
         <f>+AI15/A14</f>
-        <v>2955.75</v>
+        <v>1138.5</v>
       </c>
     </row>
     <row r="23" spans="1:44">
